--- a/編碼修改記錄.xlsx
+++ b/編碼修改記錄.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3056">
   <si>
     <t>汉字</t>
   </si>
@@ -8026,6 +8026,30 @@
   </si>
   <si>
     <t>sutc</t>
+  </si>
+  <si>
+    <t>潸</t>
+  </si>
+  <si>
+    <t>ejcb</t>
+  </si>
+  <si>
+    <t>擤</t>
+  </si>
+  <si>
+    <t>qhut</t>
+  </si>
+  <si>
+    <t>濞</t>
+  </si>
+  <si>
+    <t>ehut</t>
+  </si>
+  <si>
+    <t>襣</t>
+  </si>
+  <si>
+    <t>lhut</t>
   </si>
   <si>
     <t>是否重碼</t>
@@ -9171,14 +9195,36 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -9193,6 +9239,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -9200,7 +9261,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9214,16 +9275,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9236,28 +9320,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -9274,10 +9337,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9286,45 +9349,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -9337,7 +9361,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9349,7 +9427,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9361,163 +9535,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9533,10 +9557,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -9545,7 +9567,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -9566,11 +9599,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9613,21 +9652,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -9636,10 +9660,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9648,133 +9672,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10781,10 +10805,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F1328"/>
+  <dimension ref="A2:F1340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1313" workbookViewId="0">
-      <selection activeCell="C1325" sqref="C1325"/>
+    <sheetView tabSelected="1" topLeftCell="A1314" workbookViewId="0">
+      <selection activeCell="C1329" sqref="C1329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -26103,18 +26127,102 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="1326" spans="2:2">
+    <row r="1326" spans="1:3">
+      <c r="A1326" t="s">
+        <v>2669</v>
+      </c>
       <c r="B1326" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="1327" spans="2:2">
+      <c r="C1326" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:3">
+      <c r="A1327" t="s">
+        <v>2671</v>
+      </c>
       <c r="B1327" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="1328" spans="2:2">
+      <c r="C1327" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:3">
+      <c r="A1328" t="s">
+        <v>2673</v>
+      </c>
       <c r="B1328" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:3">
+      <c r="A1329" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="1330" spans="2:2">
+      <c r="B1330" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1331" spans="2:2">
+      <c r="B1331" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1332" spans="2:2">
+      <c r="B1332" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1333" spans="2:2">
+      <c r="B1333" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1334" spans="2:2">
+      <c r="B1334" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1335" spans="2:2">
+      <c r="B1335" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1336" spans="2:2">
+      <c r="B1336" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1337" spans="2:2">
+      <c r="B1337" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1338" spans="2:2">
+      <c r="B1338" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1339" spans="2:2">
+      <c r="B1339" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1340" spans="2:2">
+      <c r="B1340" t="s">
         <v>158</v>
       </c>
     </row>
@@ -26138,30 +26246,30 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>2669</v>
+        <v>2677</v>
       </c>
       <c r="C1" t="s">
-        <v>2670</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>2671</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2672</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>2673</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>2674</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -26171,242 +26279,242 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>2675</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>2676</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>2677</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>2678</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>2679</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>2680</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>2681</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>2682</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>2683</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>2684</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>2685</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>2686</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>2687</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>2688</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>2689</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>2690</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>2691</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>2692</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>2693</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>2694</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>2695</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>2696</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>2697</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>2698</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>2699</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>2700</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>2701</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>2702</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>2703</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>2704</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>2705</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>2706</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>2707</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>2708</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>2709</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>2710</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>2711</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>2712</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>2713</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>2714</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>2715</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>2716</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>2717</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>2718</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>2719</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>2720</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>2721</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>2722</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -26416,57 +26524,57 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>2723</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>2724</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>2725</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>2726</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>2727</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>2728</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>2729</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>2730</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>2731</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>2732</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>2733</v>
+        <v>2741</v>
       </c>
       <c r="B66" t="s">
         <v>63</v>
@@ -26474,27 +26582,27 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>2734</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>2735</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>2736</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>2737</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>2738</v>
+        <v>2746</v>
       </c>
       <c r="B71" t="s">
         <v>67</v>
@@ -26502,32 +26610,32 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>2739</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>2740</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>2741</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>2742</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>2743</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>2744</v>
+        <v>2752</v>
       </c>
       <c r="B77" t="s">
         <v>63</v>
@@ -26535,27 +26643,27 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>2745</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>2746</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>2747</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>2748</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>2749</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -26578,7 +26686,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>2750</v>
+        <v>2758</v>
       </c>
       <c r="B86" t="s">
         <v>63</v>
@@ -26601,7 +26709,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>2751</v>
+        <v>2759</v>
       </c>
       <c r="B90" t="s">
         <v>63</v>
@@ -26609,7 +26717,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>2752</v>
+        <v>2760</v>
       </c>
       <c r="B91" t="s">
         <v>63</v>
@@ -26617,95 +26725,95 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>2753</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>2754</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>2755</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>2756</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>2757</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>2758</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>2759</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>2760</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>2761</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>2762</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>2763</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>2764</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>2765</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>2766</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>2767</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>2768</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>2769</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>2770</v>
+        <v>2778</v>
       </c>
       <c r="B109" t="s">
-        <v>2771</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="110" spans="1:1">
@@ -26715,27 +26823,27 @@
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>2772</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>2773</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>2774</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>2775</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>2776</v>
+        <v>2784</v>
       </c>
       <c r="B115" t="s">
         <v>63</v>
@@ -26743,22 +26851,22 @@
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>2777</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>2778</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>2779</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>2780</v>
+        <v>2788</v>
       </c>
       <c r="B119" t="s">
         <v>67</v>
@@ -26766,112 +26874,112 @@
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>2781</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>2782</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>2783</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>2784</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>2785</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>2786</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>2787</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>2788</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>2789</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>2790</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>2791</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>2792</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>2793</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>2794</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>2795</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>2796</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>2797</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>2798</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>2799</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>2800</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>2801</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>2802</v>
+        <v>2810</v>
       </c>
       <c r="B141" t="s">
         <v>63</v>
@@ -26879,12 +26987,12 @@
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>2803</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>2804</v>
+        <v>2812</v>
       </c>
       <c r="B143" t="s">
         <v>1841</v>
@@ -26892,7 +27000,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>2805</v>
+        <v>2813</v>
       </c>
       <c r="B144" t="s">
         <v>63</v>
@@ -26900,47 +27008,47 @@
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>2806</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>2807</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>2808</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>2809</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>2810</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>2811</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>2812</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>2813</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>2814</v>
+        <v>2822</v>
       </c>
       <c r="B153" t="s">
         <v>63</v>
@@ -26948,17 +27056,17 @@
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>2815</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>2816</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>2817</v>
+        <v>2825</v>
       </c>
       <c r="B156" t="s">
         <v>67</v>
@@ -26966,42 +27074,42 @@
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>2818</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>2819</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>2820</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>2821</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>2822</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>2823</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>2824</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>2825</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="165" spans="1:1">
@@ -27011,42 +27119,42 @@
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>2826</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>2827</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>2828</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>2829</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>2830</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>2831</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>2832</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>2833</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="174" spans="1:1">
@@ -27056,17 +27164,17 @@
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>2834</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>2835</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>2836</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="178" spans="1:1">
@@ -27076,12 +27184,12 @@
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>2837</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>2838</v>
+        <v>2846</v>
       </c>
       <c r="B180" t="s">
         <v>67</v>
@@ -27089,12 +27197,12 @@
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>2839</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>2840</v>
+        <v>2848</v>
       </c>
       <c r="B182" t="s">
         <v>63</v>
@@ -27102,30 +27210,30 @@
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>2841</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>2842</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>2843</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>2844</v>
+        <v>2852</v>
       </c>
       <c r="B186" t="s">
-        <v>2845</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>2846</v>
+        <v>2854</v>
       </c>
       <c r="B187" t="s">
         <v>67</v>
@@ -27133,47 +27241,47 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>2847</v>
+        <v>2855</v>
       </c>
       <c r="B188" t="s">
-        <v>2848</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>2849</v>
+        <v>2857</v>
       </c>
       <c r="B189" t="s">
-        <v>2850</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>2851</v>
+        <v>2859</v>
       </c>
       <c r="B190" t="s">
-        <v>2848</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>2852</v>
+        <v>2860</v>
       </c>
       <c r="B191" t="s">
-        <v>2853</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>2854</v>
+        <v>2862</v>
       </c>
       <c r="B192" t="s">
-        <v>2855</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>2856</v>
+        <v>2864</v>
       </c>
       <c r="B193" t="s">
         <v>63</v>
@@ -27181,7 +27289,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>2857</v>
+        <v>2865</v>
       </c>
       <c r="B194" t="s">
         <v>63</v>
@@ -27189,23 +27297,23 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>2858</v>
+        <v>2866</v>
       </c>
       <c r="B195" t="s">
-        <v>2853</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>2859</v>
+        <v>2867</v>
       </c>
       <c r="B196" t="s">
-        <v>2853</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>2860</v>
+        <v>2868</v>
       </c>
       <c r="B197" t="s">
         <v>63</v>
@@ -27213,25 +27321,25 @@
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>2861</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>2862</v>
+        <v>2870</v>
       </c>
       <c r="B199" t="s">
-        <v>2863</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>2864</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>2865</v>
+        <v>2873</v>
       </c>
       <c r="B201" t="s">
         <v>67</v>
@@ -27239,55 +27347,55 @@
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>2866</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>2867</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>2868</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>2869</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>2870</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>2871</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>2872</v>
+        <v>2880</v>
       </c>
       <c r="B208" t="s">
-        <v>2873</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>2874</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>2875</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>2876</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -27300,17 +27408,17 @@
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>2877</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>2878</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>2879</v>
+        <v>2887</v>
       </c>
       <c r="B215" t="s">
         <v>67</v>
@@ -27318,27 +27426,27 @@
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>2880</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>2881</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>2882</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>2883</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>2884</v>
+        <v>2892</v>
       </c>
       <c r="B220" t="s">
         <v>67</v>
@@ -27346,87 +27454,87 @@
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>2885</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>2886</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>2887</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>2888</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>2889</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>2890</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>2891</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>2892</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>2893</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>2894</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>2895</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>2896</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>2897</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>2898</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>2899</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>2900</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>2901</v>
+        <v>2909</v>
       </c>
       <c r="B237" t="s">
         <v>401</v>
@@ -27434,21 +27542,21 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>2902</v>
+        <v>2910</v>
       </c>
       <c r="B238" t="s">
         <v>1224</v>
       </c>
       <c r="C238" t="s">
-        <v>2903</v>
+        <v>2911</v>
       </c>
       <c r="D238" t="s">
-        <v>2904</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>2905</v>
+        <v>2913</v>
       </c>
       <c r="B239" t="s">
         <v>63</v>
@@ -27456,32 +27564,32 @@
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>2906</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>2907</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>2908</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>2909</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>2910</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>2911</v>
+        <v>2919</v>
       </c>
       <c r="B245" t="s">
         <v>67</v>
@@ -27489,7 +27597,7 @@
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>2912</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="247" spans="1:1">
@@ -27499,12 +27607,12 @@
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>2913</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>2914</v>
+        <v>2922</v>
       </c>
       <c r="B249" t="s">
         <v>67</v>
@@ -27512,7 +27620,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>2915</v>
+        <v>2923</v>
       </c>
       <c r="B250" t="s">
         <v>63</v>
@@ -27520,17 +27628,17 @@
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>2916</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>2917</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>2918</v>
+        <v>2926</v>
       </c>
       <c r="B253" t="s">
         <v>63</v>
@@ -27538,7 +27646,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>2919</v>
+        <v>2927</v>
       </c>
       <c r="B254" t="s">
         <v>1841</v>
@@ -27546,22 +27654,22 @@
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>2920</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>2921</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>2922</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>2923</v>
+        <v>2931</v>
       </c>
       <c r="B258" t="s">
         <v>140</v>
@@ -27569,7 +27677,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>2924</v>
+        <v>2932</v>
       </c>
       <c r="B259" t="s">
         <v>67</v>
@@ -27577,7 +27685,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>2925</v>
+        <v>2933</v>
       </c>
       <c r="B260" t="s">
         <v>140</v>
@@ -27585,27 +27693,27 @@
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>2926</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>2927</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>2928</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>2929</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>2930</v>
+        <v>2938</v>
       </c>
       <c r="B265" t="s">
         <v>67</v>
@@ -27613,7 +27721,7 @@
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>2931</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="267" spans="1:1">
@@ -27623,17 +27731,17 @@
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>2932</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>2933</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>2934</v>
+        <v>2942</v>
       </c>
       <c r="B270" t="s">
         <v>63</v>
@@ -27641,32 +27749,32 @@
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>2935</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>2936</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>2937</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>2938</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>2939</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>2940</v>
+        <v>2948</v>
       </c>
       <c r="B276" t="s">
         <v>1841</v>
@@ -27674,33 +27782,33 @@
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>2941</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>2942</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>2943</v>
+        <v>2951</v>
       </c>
       <c r="B279" t="s">
         <v>63</v>
       </c>
       <c r="C279" t="s">
-        <v>2944</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>2945</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>2946</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="282" spans="1:1">
@@ -27710,7 +27818,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>2947</v>
+        <v>2955</v>
       </c>
       <c r="B283" t="s">
         <v>63</v>
@@ -27757,12 +27865,12 @@
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>2948</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>2949</v>
+        <v>2957</v>
       </c>
       <c r="B291" t="s">
         <v>63</v>
@@ -27770,27 +27878,27 @@
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>2950</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>2951</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>2952</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>2953</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>2954</v>
+        <v>2962</v>
       </c>
       <c r="B296" t="s">
         <v>67</v>
@@ -27798,35 +27906,35 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>2955</v>
+        <v>2963</v>
       </c>
       <c r="B297" t="s">
-        <v>2956</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>2957</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>2958</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>2959</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>2960</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>2961</v>
+        <v>2969</v>
       </c>
       <c r="B302" t="s">
         <v>140</v>
@@ -27834,7 +27942,7 @@
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>2962</v>
+        <v>2970</v>
       </c>
     </row>
   </sheetData>
@@ -27856,333 +27964,333 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>2963</v>
+        <v>2971</v>
       </c>
       <c r="C1" t="s">
-        <v>2964</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2965</v>
+        <v>2973</v>
       </c>
       <c r="B2" t="s">
-        <v>2966</v>
+        <v>2974</v>
       </c>
       <c r="C2" t="s">
-        <v>2967</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>2968</v>
+        <v>2976</v>
       </c>
       <c r="C3" t="s">
-        <v>2969</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>2970</v>
+        <v>2978</v>
       </c>
       <c r="C4" t="s">
-        <v>2971</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>2972</v>
+        <v>2980</v>
       </c>
       <c r="C5" t="s">
-        <v>2973</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>2974</v>
+        <v>2982</v>
       </c>
       <c r="C6" t="s">
-        <v>2975</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>2976</v>
+        <v>2984</v>
       </c>
       <c r="C7" t="s">
-        <v>2977</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>2978</v>
+        <v>2986</v>
       </c>
       <c r="C8" t="s">
-        <v>2979</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>2980</v>
+        <v>2988</v>
       </c>
       <c r="C9" t="s">
-        <v>2981</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>2982</v>
+        <v>2990</v>
       </c>
       <c r="C10" t="s">
-        <v>2983</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>2984</v>
+        <v>2992</v>
       </c>
       <c r="C11" t="s">
-        <v>2985</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>2986</v>
+        <v>2994</v>
       </c>
       <c r="C12" t="s">
-        <v>2987</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>2988</v>
+        <v>2996</v>
       </c>
       <c r="C13" t="s">
-        <v>2989</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>2990</v>
+        <v>2998</v>
       </c>
       <c r="C14" t="s">
-        <v>2991</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>2992</v>
+        <v>3000</v>
       </c>
       <c r="C15" t="s">
-        <v>2993</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>2994</v>
+        <v>3002</v>
       </c>
       <c r="C16" t="s">
-        <v>2995</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>2996</v>
+        <v>3004</v>
       </c>
       <c r="C17" t="s">
-        <v>2995</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>2997</v>
+        <v>3005</v>
       </c>
       <c r="C18" t="s">
-        <v>2998</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>2999</v>
+        <v>3007</v>
       </c>
       <c r="C19" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>3001</v>
+        <v>3009</v>
       </c>
       <c r="C20" t="s">
-        <v>3002</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>3003</v>
+        <v>3011</v>
       </c>
       <c r="C21" t="s">
-        <v>3004</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>3005</v>
+        <v>3013</v>
       </c>
       <c r="C22" t="s">
-        <v>3006</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>3007</v>
+        <v>3015</v>
       </c>
       <c r="C23" t="s">
-        <v>3008</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>3009</v>
+        <v>3017</v>
       </c>
       <c r="C24" t="s">
-        <v>3010</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>3011</v>
+        <v>3019</v>
       </c>
       <c r="C25" t="s">
-        <v>3012</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>3013</v>
+        <v>3021</v>
       </c>
       <c r="C26" t="s">
-        <v>3014</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>3015</v>
+        <v>3023</v>
       </c>
       <c r="C27" t="s">
-        <v>3016</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>3017</v>
+        <v>3025</v>
       </c>
       <c r="C28" t="s">
-        <v>3018</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>3019</v>
+        <v>3027</v>
       </c>
       <c r="C29" t="s">
-        <v>3020</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>3021</v>
+        <v>3029</v>
       </c>
       <c r="C30" t="s">
-        <v>3022</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>3023</v>
+        <v>3031</v>
       </c>
       <c r="C31" t="s">
-        <v>3024</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>3025</v>
+        <v>3033</v>
       </c>
       <c r="C32" t="s">
-        <v>3026</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>3027</v>
+        <v>3035</v>
       </c>
       <c r="C33" t="s">
-        <v>3028</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>3029</v>
+        <v>3037</v>
       </c>
       <c r="C34" t="s">
-        <v>3030</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>3031</v>
+        <v>3039</v>
       </c>
       <c r="C35" t="s">
-        <v>3032</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>3033</v>
+        <v>3041</v>
       </c>
       <c r="C36" t="s">
-        <v>3034</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>3035</v>
+        <v>3043</v>
       </c>
       <c r="C37" t="s">
-        <v>3036</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>3037</v>
+        <v>3045</v>
       </c>
       <c r="C38" t="s">
-        <v>3038</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>3039</v>
+        <v>3047</v>
       </c>
       <c r="C39" t="s">
-        <v>3040</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>3041</v>
+        <v>3049</v>
       </c>
       <c r="C40" t="s">
-        <v>3042</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>3043</v>
+        <v>3051</v>
       </c>
       <c r="C41" t="s">
-        <v>3044</v>
+        <v>3052</v>
       </c>
     </row>
   </sheetData>
@@ -28204,10 +28312,10 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>3045</v>
+        <v>3053</v>
       </c>
       <c r="C1" t="s">
-        <v>3046</v>
+        <v>3054</v>
       </c>
     </row>
   </sheetData>
@@ -28229,7 +28337,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>3047</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/編碼修改記錄.xlsx
+++ b/編碼修改記錄.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3075">
   <si>
     <t>汉字</t>
   </si>
@@ -8086,6 +8086,12 @@
   </si>
   <si>
     <t>hlg</t>
+  </si>
+  <si>
+    <t>沒</t>
+  </si>
+  <si>
+    <t>ehse</t>
   </si>
   <si>
     <t>是否重碼</t>
@@ -9260,7 +9266,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9268,15 +9281,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9284,21 +9311,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9313,6 +9325,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -9320,48 +9340,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9381,6 +9364,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -9389,7 +9395,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9412,49 +9418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9472,19 +9436,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9496,85 +9520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9592,7 +9538,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9606,11 +9612,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9630,28 +9668,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9670,39 +9709,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -9711,10 +9717,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9723,133 +9729,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10178,7 +10184,7 @@
   <sheetPr/>
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
@@ -10864,8 +10870,8 @@
   <sheetPr/>
   <dimension ref="A2:F1342"/>
   <sheetViews>
-    <sheetView topLeftCell="A1042" workbookViewId="0">
-      <selection activeCell="F1056" sqref="F1056"/>
+    <sheetView tabSelected="1" topLeftCell="A1332" workbookViewId="0">
+      <selection activeCell="D1336" sqref="D1336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -26318,9 +26324,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="1336" spans="2:2">
+    <row r="1336" spans="1:4">
+      <c r="A1336" t="s">
+        <v>2689</v>
+      </c>
       <c r="B1336" t="s">
         <v>158</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>2690</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="1337" spans="2:2">
@@ -26373,30 +26388,30 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>2689</v>
+        <v>2691</v>
       </c>
       <c r="C1" t="s">
-        <v>2690</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>2691</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2692</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>2693</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>2694</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -26406,72 +26421,72 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>2695</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>2696</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>2697</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>2698</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>2699</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>2701</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>2702</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>2703</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>2704</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>2705</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>2706</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>2707</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>2708</v>
+        <v>2710</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
@@ -26479,62 +26494,62 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>2709</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>2710</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>2711</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>2712</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>2713</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>2714</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>2715</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>2716</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>2717</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>2718</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>2719</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>2720</v>
+        <v>2722</v>
       </c>
       <c r="B32" t="s">
         <v>60</v>
@@ -26542,32 +26557,32 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>2721</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>2722</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>2723</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>2724</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>2725</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>2726</v>
+        <v>2728</v>
       </c>
       <c r="B38" t="s">
         <v>60</v>
@@ -26575,7 +26590,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>2727</v>
+        <v>2729</v>
       </c>
       <c r="B39" t="s">
         <v>60</v>
@@ -26583,77 +26598,77 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>2728</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>2729</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>2730</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>2731</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>2732</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>2733</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>2734</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>2735</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>2736</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>2737</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>2738</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>2739</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>2740</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>2741</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>2742</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -26663,57 +26678,57 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>2743</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>2744</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>2745</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>2746</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>2747</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>2748</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>2749</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>2750</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>2751</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>2752</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>2753</v>
+        <v>2755</v>
       </c>
       <c r="B66" t="s">
         <v>60</v>
@@ -26721,27 +26736,27 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>2754</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>2755</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>2756</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>2757</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>2758</v>
+        <v>2760</v>
       </c>
       <c r="B71" t="s">
         <v>64</v>
@@ -26749,32 +26764,32 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>2759</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>2760</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>2761</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>2762</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>2763</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="B77" t="s">
         <v>60</v>
@@ -26782,27 +26797,27 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>2765</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>2766</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>2767</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>2768</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>2769</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -26825,7 +26840,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>2770</v>
+        <v>2772</v>
       </c>
       <c r="B86" t="s">
         <v>60</v>
@@ -26848,7 +26863,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>2771</v>
+        <v>2773</v>
       </c>
       <c r="B90" t="s">
         <v>60</v>
@@ -26856,7 +26871,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>2772</v>
+        <v>2774</v>
       </c>
       <c r="B91" t="s">
         <v>60</v>
@@ -26864,95 +26879,95 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>2773</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>2774</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>2775</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>2776</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>2777</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>2778</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>2779</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>2781</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>2783</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>2785</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>2786</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>2787</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>2788</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>2789</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>2790</v>
+        <v>2792</v>
       </c>
       <c r="B109" t="s">
-        <v>2791</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="110" spans="1:1">
@@ -26962,27 +26977,27 @@
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>2792</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>2793</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>2794</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>2795</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="B115" t="s">
         <v>60</v>
@@ -26990,22 +27005,22 @@
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>2797</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>2798</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>2799</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>2800</v>
+        <v>2802</v>
       </c>
       <c r="B119" t="s">
         <v>64</v>
@@ -27013,7 +27028,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>2801</v>
+        <v>2803</v>
       </c>
       <c r="B120" t="s">
         <v>60</v>
@@ -27021,107 +27036,107 @@
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>2802</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>2803</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>2804</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>2805</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>2806</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>2807</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>2808</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>2809</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>2810</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>2811</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>2812</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>2813</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>2814</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>2815</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>2816</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>2817</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>2818</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>2819</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>2820</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>2821</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>2822</v>
+        <v>2824</v>
       </c>
       <c r="B141" t="s">
         <v>60</v>
@@ -27129,12 +27144,12 @@
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>2823</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>2824</v>
+        <v>2826</v>
       </c>
       <c r="B143" t="s">
         <v>1839</v>
@@ -27142,7 +27157,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>2825</v>
+        <v>2827</v>
       </c>
       <c r="B144" t="s">
         <v>60</v>
@@ -27150,47 +27165,47 @@
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>2826</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>2827</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>2828</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>2830</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>2831</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>2832</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>2833</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>2834</v>
+        <v>2836</v>
       </c>
       <c r="B153" t="s">
         <v>60</v>
@@ -27198,17 +27213,17 @@
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>2835</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>2836</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>2837</v>
+        <v>2839</v>
       </c>
       <c r="B156" t="s">
         <v>64</v>
@@ -27216,42 +27231,42 @@
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>2838</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>2839</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>2841</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>2842</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>2843</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>2844</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>2845</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="165" spans="1:1">
@@ -27261,7 +27276,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>2846</v>
+        <v>2848</v>
       </c>
       <c r="B166" t="s">
         <v>60</v>
@@ -27269,37 +27284,37 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>2847</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>2848</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>2849</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>2850</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>2851</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>2852</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>2853</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="174" spans="1:1">
@@ -27309,17 +27324,17 @@
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>2854</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>2855</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>2856</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="178" spans="1:1">
@@ -27329,12 +27344,12 @@
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>2857</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>2858</v>
+        <v>2860</v>
       </c>
       <c r="B180" t="s">
         <v>64</v>
@@ -27342,12 +27357,12 @@
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>2859</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>2860</v>
+        <v>2862</v>
       </c>
       <c r="B182" t="s">
         <v>60</v>
@@ -27355,30 +27370,30 @@
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>2861</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>2862</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>2863</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>2864</v>
+        <v>2866</v>
       </c>
       <c r="B186" t="s">
-        <v>2865</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>2866</v>
+        <v>2868</v>
       </c>
       <c r="B187" t="s">
         <v>64</v>
@@ -27386,52 +27401,52 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>2867</v>
+        <v>2869</v>
       </c>
       <c r="B188" t="s">
-        <v>2868</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>2869</v>
+        <v>2871</v>
       </c>
       <c r="B189" t="s">
-        <v>2870</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>2871</v>
+        <v>2873</v>
       </c>
       <c r="B190" t="s">
-        <v>2868</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>2872</v>
+        <v>2874</v>
       </c>
       <c r="B191" t="s">
-        <v>2873</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>2874</v>
+        <v>2876</v>
       </c>
       <c r="B192" t="s">
-        <v>2875</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>2876</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>2877</v>
+        <v>2879</v>
       </c>
       <c r="B194" t="s">
         <v>60</v>
@@ -27439,23 +27454,23 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>2878</v>
+        <v>2880</v>
       </c>
       <c r="B195" t="s">
-        <v>2873</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>2879</v>
+        <v>2881</v>
       </c>
       <c r="B196" t="s">
-        <v>2873</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>2880</v>
+        <v>2882</v>
       </c>
       <c r="B197" t="s">
         <v>60</v>
@@ -27463,25 +27478,25 @@
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>2881</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>2882</v>
+        <v>2884</v>
       </c>
       <c r="B199" t="s">
-        <v>2883</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>2884</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>2885</v>
+        <v>2887</v>
       </c>
       <c r="B201" t="s">
         <v>64</v>
@@ -27489,55 +27504,55 @@
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>2886</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>2887</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>2888</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>2889</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>2890</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>2891</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>2892</v>
+        <v>2894</v>
       </c>
       <c r="B208" t="s">
-        <v>2893</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>2894</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>2895</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>2896</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -27550,17 +27565,17 @@
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>2897</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>2898</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>2899</v>
+        <v>2901</v>
       </c>
       <c r="B215" t="s">
         <v>64</v>
@@ -27568,27 +27583,27 @@
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>2900</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>2901</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>2902</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>2903</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>2904</v>
+        <v>2906</v>
       </c>
       <c r="B220" t="s">
         <v>64</v>
@@ -27596,87 +27611,87 @@
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>2905</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>2906</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>2907</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>2908</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>2909</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>2910</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>2911</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>2912</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>2913</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>2914</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>2915</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>2916</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>2917</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>2918</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>2919</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>2920</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>2921</v>
+        <v>2923</v>
       </c>
       <c r="B237" t="s">
         <v>401</v>
@@ -27684,21 +27699,21 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>2922</v>
+        <v>2924</v>
       </c>
       <c r="B238" t="s">
         <v>1222</v>
       </c>
       <c r="C238" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="D238" t="s">
-        <v>2924</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>2925</v>
+        <v>2927</v>
       </c>
       <c r="B239" t="s">
         <v>60</v>
@@ -27706,32 +27721,32 @@
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>2926</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>2927</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>2928</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>2929</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>2930</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>2931</v>
+        <v>2933</v>
       </c>
       <c r="B245" t="s">
         <v>64</v>
@@ -27739,7 +27754,7 @@
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>2932</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="247" spans="1:1">
@@ -27749,12 +27764,12 @@
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>2933</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>2934</v>
+        <v>2936</v>
       </c>
       <c r="B249" t="s">
         <v>64</v>
@@ -27762,7 +27777,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>2935</v>
+        <v>2937</v>
       </c>
       <c r="B250" t="s">
         <v>60</v>
@@ -27770,17 +27785,17 @@
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>2936</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>2938</v>
+        <v>2940</v>
       </c>
       <c r="B253" t="s">
         <v>60</v>
@@ -27788,7 +27803,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>2939</v>
+        <v>2941</v>
       </c>
       <c r="B254" t="s">
         <v>1839</v>
@@ -27796,22 +27811,22 @@
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>2940</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>2941</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>2942</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>2943</v>
+        <v>2945</v>
       </c>
       <c r="B258" t="s">
         <v>137</v>
@@ -27819,7 +27834,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>2944</v>
+        <v>2946</v>
       </c>
       <c r="B259" t="s">
         <v>64</v>
@@ -27827,7 +27842,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="B260" t="s">
         <v>137</v>
@@ -27835,27 +27850,27 @@
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>2946</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>2947</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>2948</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>2949</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>2950</v>
+        <v>2952</v>
       </c>
       <c r="B265" t="s">
         <v>64</v>
@@ -27863,7 +27878,7 @@
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>2951</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="267" spans="1:1">
@@ -27873,17 +27888,17 @@
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>2952</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>2954</v>
+        <v>2956</v>
       </c>
       <c r="B270" t="s">
         <v>60</v>
@@ -27891,32 +27906,32 @@
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>2955</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>2956</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>2957</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>2958</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>2959</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>2960</v>
+        <v>2962</v>
       </c>
       <c r="B276" t="s">
         <v>1839</v>
@@ -27924,33 +27939,33 @@
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>2961</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>2962</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>2963</v>
+        <v>2965</v>
       </c>
       <c r="B279" t="s">
         <v>60</v>
       </c>
       <c r="C279" t="s">
-        <v>2964</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>2965</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>2966</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="282" spans="1:1">
@@ -27960,7 +27975,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>2967</v>
+        <v>2969</v>
       </c>
       <c r="B283" t="s">
         <v>60</v>
@@ -28007,12 +28022,12 @@
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>2968</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>2969</v>
+        <v>2971</v>
       </c>
       <c r="B291" t="s">
         <v>60</v>
@@ -28020,27 +28035,27 @@
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>2970</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>2971</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>2972</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>2973</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>2974</v>
+        <v>2976</v>
       </c>
       <c r="B296" t="s">
         <v>64</v>
@@ -28048,35 +28063,35 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>2975</v>
+        <v>2977</v>
       </c>
       <c r="B297" t="s">
-        <v>2976</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>2977</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>2978</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>2979</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>2980</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>2981</v>
+        <v>2983</v>
       </c>
       <c r="B302" t="s">
         <v>137</v>
@@ -28084,7 +28099,7 @@
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>2982</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="304" spans="1:1">
@@ -28094,7 +28109,7 @@
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>2983</v>
+        <v>2985</v>
       </c>
     </row>
   </sheetData>
@@ -28116,349 +28131,349 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>2984</v>
+        <v>2986</v>
       </c>
       <c r="C1" t="s">
-        <v>2985</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2986</v>
+        <v>2988</v>
       </c>
       <c r="B2" t="s">
-        <v>2987</v>
+        <v>2989</v>
       </c>
       <c r="C2" t="s">
-        <v>2988</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>2989</v>
+        <v>2991</v>
       </c>
       <c r="C3" t="s">
-        <v>2990</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>2991</v>
+        <v>2993</v>
       </c>
       <c r="C4" t="s">
-        <v>2992</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>2993</v>
+        <v>2995</v>
       </c>
       <c r="C5" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>2995</v>
+        <v>2997</v>
       </c>
       <c r="C6" t="s">
-        <v>2996</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>2997</v>
+        <v>2999</v>
       </c>
       <c r="C7" t="s">
-        <v>2998</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>2999</v>
+        <v>3001</v>
       </c>
       <c r="C8" t="s">
-        <v>3000</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="C9" t="s">
-        <v>3002</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>3003</v>
+        <v>3005</v>
       </c>
       <c r="C10" t="s">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>3005</v>
+        <v>3007</v>
       </c>
       <c r="C11" t="s">
-        <v>3006</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>3007</v>
+        <v>3009</v>
       </c>
       <c r="C12" t="s">
-        <v>3008</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>3009</v>
+        <v>3011</v>
       </c>
       <c r="C13" t="s">
-        <v>3010</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>3011</v>
+        <v>3013</v>
       </c>
       <c r="C14" t="s">
-        <v>3012</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>3013</v>
+        <v>3015</v>
       </c>
       <c r="C15" t="s">
-        <v>3014</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>3015</v>
+        <v>3017</v>
       </c>
       <c r="C16" t="s">
-        <v>3014</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>3016</v>
+        <v>3018</v>
       </c>
       <c r="C17" t="s">
-        <v>3017</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="C18" t="s">
-        <v>3019</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>3020</v>
+        <v>3022</v>
       </c>
       <c r="C19" t="s">
-        <v>3021</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>3022</v>
+        <v>3024</v>
       </c>
       <c r="C20" t="s">
-        <v>3023</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>3024</v>
+        <v>3026</v>
       </c>
       <c r="C21" t="s">
-        <v>3025</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>3026</v>
+        <v>3028</v>
       </c>
       <c r="C22" t="s">
-        <v>3027</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>3028</v>
+        <v>3030</v>
       </c>
       <c r="C23" t="s">
-        <v>3029</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>3030</v>
+        <v>3032</v>
       </c>
       <c r="C24" t="s">
-        <v>3031</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>3032</v>
+        <v>3034</v>
       </c>
       <c r="C25" t="s">
-        <v>3033</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>3034</v>
+        <v>3036</v>
       </c>
       <c r="C26" t="s">
-        <v>3035</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>3036</v>
+        <v>3038</v>
       </c>
       <c r="C27" t="s">
-        <v>3037</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>3038</v>
+        <v>3040</v>
       </c>
       <c r="C28" t="s">
-        <v>3039</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>3040</v>
+        <v>3042</v>
       </c>
       <c r="C29" t="s">
-        <v>3041</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>3042</v>
+        <v>3044</v>
       </c>
       <c r="C30" t="s">
-        <v>3043</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>3044</v>
+        <v>3046</v>
       </c>
       <c r="C31" t="s">
-        <v>3045</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>3046</v>
+        <v>3048</v>
       </c>
       <c r="C32" t="s">
-        <v>3047</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>3048</v>
+        <v>3050</v>
       </c>
       <c r="C33" t="s">
-        <v>3049</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>3050</v>
+        <v>3052</v>
       </c>
       <c r="C34" t="s">
-        <v>3051</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>3052</v>
+        <v>3054</v>
       </c>
       <c r="C35" t="s">
-        <v>3053</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>3054</v>
+        <v>3056</v>
       </c>
       <c r="C36" t="s">
-        <v>3055</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>3056</v>
+        <v>3058</v>
       </c>
       <c r="C37" t="s">
-        <v>3057</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>3058</v>
+        <v>3060</v>
       </c>
       <c r="C38" t="s">
-        <v>3059</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>3060</v>
+        <v>3062</v>
       </c>
       <c r="C39" t="s">
-        <v>3061</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>3062</v>
+        <v>3064</v>
       </c>
       <c r="C40" t="s">
-        <v>3063</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>3064</v>
+        <v>3066</v>
       </c>
       <c r="C41" t="s">
-        <v>3065</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>3066</v>
+        <v>3068</v>
       </c>
       <c r="C42" t="s">
-        <v>3067</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>3068</v>
+        <v>3070</v>
       </c>
       <c r="C43" t="s">
-        <v>3069</v>
+        <v>3071</v>
       </c>
     </row>
   </sheetData>
@@ -28480,10 +28495,10 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>3070</v>
+        <v>3072</v>
       </c>
       <c r="C1" t="s">
-        <v>3071</v>
+        <v>3073</v>
       </c>
     </row>
   </sheetData>
@@ -28505,7 +28520,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>3072</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/編碼修改記錄.xlsx
+++ b/編碼修改記錄.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3294">
   <si>
     <t>汉字</t>
   </si>
@@ -9899,6 +9899,9 @@
   </si>
   <si>
     <t>yrtc</t>
+  </si>
+  <si>
+    <t>龾</t>
   </si>
 </sst>
 </file>
@@ -9927,23 +9930,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9964,46 +9952,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10018,14 +9968,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10039,16 +10005,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10056,7 +10021,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10069,6 +10034,44 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -10076,18 +10079,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -10103,7 +10094,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10115,13 +10106,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10133,13 +10124,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10157,7 +10148,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10169,13 +10160,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10187,61 +10250,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10253,13 +10262,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10273,11 +10276,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10297,76 +10365,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10378,10 +10381,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10390,133 +10393,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -29835,10 +29838,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -30542,6 +30545,20 @@
       </c>
       <c r="C61" t="s">
         <v>3292</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B62" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D62" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/編碼修改記錄.xlsx
+++ b/編碼修改記錄.xlsx
@@ -9685,7 +9685,7 @@
     <t>鿑</t>
   </si>
   <si>
-    <t>imgi</t>
+    <t>immgi</t>
   </si>
   <si>
     <t>鿂</t>
@@ -9909,9 +9909,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -9929,22 +9929,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -9953,22 +9937,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9989,22 +9965,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -10013,7 +9997,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10027,14 +10011,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -10043,15 +10019,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -10067,7 +10051,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10082,7 +10082,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10094,19 +10136,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10118,31 +10214,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10154,115 +10256,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10273,6 +10273,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -10293,6 +10317,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -10302,11 +10335,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10334,45 +10373,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -10381,10 +10381,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10393,133 +10393,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -29840,8 +29840,8 @@
   <sheetPr/>
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>

--- a/編碼修改記錄.xlsx
+++ b/編碼修改記錄.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="6"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296">
   <si>
     <t>汉字</t>
   </si>
@@ -8375,6 +8375,12 @@
   </si>
   <si>
     <t>mfke</t>
+  </si>
+  <si>
+    <t>反</t>
+  </si>
+  <si>
+    <t>me</t>
   </si>
   <si>
     <t>是否重碼</t>
@@ -9930,13 +9936,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -9944,17 +9943,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9962,6 +9961,14 @@
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9981,16 +9988,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10011,24 +10010,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10042,21 +10056,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -10065,9 +10064,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10082,43 +10088,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10136,25 +10136,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10166,13 +10232,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10190,79 +10268,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10273,30 +10279,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -10315,22 +10297,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10354,22 +10331,51 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10381,10 +10387,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10393,133 +10399,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11551,8 +11557,8 @@
   <sheetPr/>
   <dimension ref="A2:F1398"/>
   <sheetViews>
-    <sheetView topLeftCell="A1373" workbookViewId="0">
-      <selection activeCell="A1385" sqref="A1385"/>
+    <sheetView tabSelected="1" topLeftCell="A1373" workbookViewId="0">
+      <selection activeCell="C1387" sqref="C1387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -27575,9 +27581,15 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="1387" spans="2:2">
+    <row r="1387" spans="1:3">
+      <c r="A1387" t="s">
+        <v>2785</v>
+      </c>
       <c r="B1387" t="s">
         <v>161</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>2786</v>
       </c>
     </row>
     <row r="1388" spans="2:2">
@@ -27655,30 +27667,30 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>2785</v>
+        <v>2787</v>
       </c>
       <c r="C1" t="s">
-        <v>2786</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>2787</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2788</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>2789</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>2790</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -27688,72 +27700,72 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>2791</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>2792</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>2793</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>2794</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>2795</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>2797</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>2798</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>2799</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>2800</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>2801</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>2802</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>2803</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>2804</v>
+        <v>2806</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
@@ -27761,62 +27773,62 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>2805</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>2806</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>2807</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>2808</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>2809</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>2810</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>2811</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>2812</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>2813</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>2814</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>2815</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>2816</v>
+        <v>2818</v>
       </c>
       <c r="B32" t="s">
         <v>60</v>
@@ -27824,32 +27836,32 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>2817</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>2818</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>2819</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>2820</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>2821</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>2822</v>
+        <v>2824</v>
       </c>
       <c r="B38" t="s">
         <v>60</v>
@@ -27857,7 +27869,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>2823</v>
+        <v>2825</v>
       </c>
       <c r="B39" t="s">
         <v>60</v>
@@ -27865,77 +27877,77 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>2824</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>2825</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>2826</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>2827</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>2828</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>2830</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>2831</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>2832</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>2833</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>2834</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>2835</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>2836</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>2837</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>2838</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -27945,57 +27957,57 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>2839</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>2841</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>2842</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>2843</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>2844</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>2845</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>2846</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>2847</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>2848</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="B66" t="s">
         <v>60</v>
@@ -28003,27 +28015,27 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>2850</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>2851</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>2852</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>2853</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>2854</v>
+        <v>2856</v>
       </c>
       <c r="B71" t="s">
         <v>64</v>
@@ -28031,32 +28043,32 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>2855</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>2856</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>2857</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>2858</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>2859</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>2860</v>
+        <v>2862</v>
       </c>
       <c r="B77" t="s">
         <v>60</v>
@@ -28064,27 +28076,27 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>2861</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>2862</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>2863</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>2864</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>2865</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -28107,7 +28119,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>2866</v>
+        <v>2868</v>
       </c>
       <c r="B86" t="s">
         <v>60</v>
@@ -28130,7 +28142,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>2867</v>
+        <v>2869</v>
       </c>
       <c r="B90" t="s">
         <v>60</v>
@@ -28138,7 +28150,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>2868</v>
+        <v>2870</v>
       </c>
       <c r="B91" t="s">
         <v>60</v>
@@ -28146,95 +28158,95 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>2869</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>2870</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>2871</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>2872</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>2873</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>2874</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>2875</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>2876</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>2877</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>2878</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>2879</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>2880</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>2881</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>2882</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>2883</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>2884</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>2885</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>2886</v>
+        <v>2888</v>
       </c>
       <c r="B109" t="s">
-        <v>2887</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="110" spans="1:1">
@@ -28244,27 +28256,27 @@
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>2888</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>2889</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>2890</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>2891</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>2892</v>
+        <v>2894</v>
       </c>
       <c r="B115" t="s">
         <v>60</v>
@@ -28272,22 +28284,22 @@
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>2893</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>2894</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>2895</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>2896</v>
+        <v>2898</v>
       </c>
       <c r="B119" t="s">
         <v>64</v>
@@ -28295,7 +28307,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>2897</v>
+        <v>2899</v>
       </c>
       <c r="B120" t="s">
         <v>60</v>
@@ -28303,107 +28315,107 @@
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>2898</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>2899</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>2900</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>2901</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>2902</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>2903</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>2904</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>2905</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>2906</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>2907</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>2908</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>2909</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>2910</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>2911</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>2912</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>2913</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>2914</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>2915</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>2916</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>2917</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>2918</v>
+        <v>2920</v>
       </c>
       <c r="B141" t="s">
         <v>60</v>
@@ -28411,12 +28423,12 @@
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>2919</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>2920</v>
+        <v>2922</v>
       </c>
       <c r="B143" t="s">
         <v>1842</v>
@@ -28424,7 +28436,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>2921</v>
+        <v>2923</v>
       </c>
       <c r="B144" t="s">
         <v>60</v>
@@ -28432,47 +28444,47 @@
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>2922</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>2924</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>2925</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>2926</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>2927</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>2928</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>2929</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>2930</v>
+        <v>2932</v>
       </c>
       <c r="B153" t="s">
         <v>60</v>
@@ -28480,17 +28492,17 @@
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>2931</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>2932</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>2933</v>
+        <v>2935</v>
       </c>
       <c r="B156" t="s">
         <v>64</v>
@@ -28498,42 +28510,42 @@
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>2934</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>2935</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>2936</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>2938</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>2939</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>2940</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>2941</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="165" spans="1:1">
@@ -28543,7 +28555,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>2942</v>
+        <v>2944</v>
       </c>
       <c r="B166" t="s">
         <v>60</v>
@@ -28551,37 +28563,37 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>2943</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>2944</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>2945</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>2946</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>2947</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>2948</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>2949</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="174" spans="1:1">
@@ -28591,17 +28603,17 @@
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>2950</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>2951</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>2952</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="178" spans="1:1">
@@ -28611,12 +28623,12 @@
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>2954</v>
+        <v>2956</v>
       </c>
       <c r="B180" t="s">
         <v>64</v>
@@ -28624,12 +28636,12 @@
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>2955</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>2956</v>
+        <v>2958</v>
       </c>
       <c r="B182" t="s">
         <v>60</v>
@@ -28637,30 +28649,30 @@
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>2957</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>2958</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>2959</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>2960</v>
+        <v>2962</v>
       </c>
       <c r="B186" t="s">
-        <v>2961</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>2962</v>
+        <v>2964</v>
       </c>
       <c r="B187" t="s">
         <v>64</v>
@@ -28668,52 +28680,52 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>2963</v>
+        <v>2965</v>
       </c>
       <c r="B188" t="s">
-        <v>2964</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>2965</v>
+        <v>2967</v>
       </c>
       <c r="B189" t="s">
-        <v>2966</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>2967</v>
+        <v>2969</v>
       </c>
       <c r="B190" t="s">
-        <v>2964</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>2968</v>
+        <v>2970</v>
       </c>
       <c r="B191" t="s">
-        <v>2969</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>2970</v>
+        <v>2972</v>
       </c>
       <c r="B192" t="s">
-        <v>2971</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>2972</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>2973</v>
+        <v>2975</v>
       </c>
       <c r="B194" t="s">
         <v>60</v>
@@ -28721,23 +28733,23 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>2974</v>
+        <v>2976</v>
       </c>
       <c r="B195" t="s">
-        <v>2969</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>2975</v>
+        <v>2977</v>
       </c>
       <c r="B196" t="s">
-        <v>2969</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>2976</v>
+        <v>2978</v>
       </c>
       <c r="B197" t="s">
         <v>60</v>
@@ -28745,25 +28757,25 @@
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>2977</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>2978</v>
+        <v>2980</v>
       </c>
       <c r="B199" t="s">
-        <v>2979</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>2980</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>2981</v>
+        <v>2983</v>
       </c>
       <c r="B201" t="s">
         <v>64</v>
@@ -28771,55 +28783,55 @@
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>2982</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>2983</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>2984</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>2985</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>2986</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>2987</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>2988</v>
+        <v>2990</v>
       </c>
       <c r="B208" t="s">
-        <v>2989</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>2990</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>2991</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>2992</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -28832,17 +28844,17 @@
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>2993</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>2995</v>
+        <v>2997</v>
       </c>
       <c r="B215" t="s">
         <v>64</v>
@@ -28850,27 +28862,27 @@
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>2996</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>2997</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>2998</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>2999</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>3000</v>
+        <v>3002</v>
       </c>
       <c r="B220" t="s">
         <v>64</v>
@@ -28878,87 +28890,87 @@
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>3001</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>3002</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>3003</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>3005</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>3006</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>3007</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>3008</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>3009</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>3010</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>3011</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>3012</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>3013</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>3014</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>3015</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>3016</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>3017</v>
+        <v>3019</v>
       </c>
       <c r="B237" t="s">
         <v>404</v>
@@ -28966,21 +28978,21 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="B238" t="s">
         <v>1225</v>
       </c>
       <c r="C238" t="s">
-        <v>3019</v>
+        <v>3021</v>
       </c>
       <c r="D238" t="s">
-        <v>3020</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>3021</v>
+        <v>3023</v>
       </c>
       <c r="B239" t="s">
         <v>60</v>
@@ -28988,32 +29000,32 @@
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>3022</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>3023</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>3024</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>3025</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>3026</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>3027</v>
+        <v>3029</v>
       </c>
       <c r="B245" t="s">
         <v>64</v>
@@ -29021,7 +29033,7 @@
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>3028</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="247" spans="1:1">
@@ -29031,12 +29043,12 @@
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>3029</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>3030</v>
+        <v>3032</v>
       </c>
       <c r="B249" t="s">
         <v>64</v>
@@ -29044,7 +29056,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>3031</v>
+        <v>3033</v>
       </c>
       <c r="B250" t="s">
         <v>60</v>
@@ -29052,17 +29064,17 @@
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>3032</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>3033</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>3034</v>
+        <v>3036</v>
       </c>
       <c r="B253" t="s">
         <v>60</v>
@@ -29070,7 +29082,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>3035</v>
+        <v>3037</v>
       </c>
       <c r="B254" t="s">
         <v>1842</v>
@@ -29078,22 +29090,22 @@
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>3036</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>3037</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>3038</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>3039</v>
+        <v>3041</v>
       </c>
       <c r="B258" t="s">
         <v>137</v>
@@ -29101,7 +29113,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>3040</v>
+        <v>3042</v>
       </c>
       <c r="B259" t="s">
         <v>64</v>
@@ -29109,7 +29121,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>3041</v>
+        <v>3043</v>
       </c>
       <c r="B260" t="s">
         <v>137</v>
@@ -29117,27 +29129,27 @@
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>3042</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>3043</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>3044</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>3045</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>3046</v>
+        <v>3048</v>
       </c>
       <c r="B265" t="s">
         <v>64</v>
@@ -29145,7 +29157,7 @@
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>3047</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="267" spans="1:1">
@@ -29155,17 +29167,17 @@
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>3048</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>3049</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>3050</v>
+        <v>3052</v>
       </c>
       <c r="B270" t="s">
         <v>60</v>
@@ -29173,32 +29185,32 @@
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>3051</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>3052</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>3053</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>3054</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>3055</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>3056</v>
+        <v>3058</v>
       </c>
       <c r="B276" t="s">
         <v>1842</v>
@@ -29206,33 +29218,33 @@
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>3057</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>3058</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>3059</v>
+        <v>3061</v>
       </c>
       <c r="B279" t="s">
         <v>60</v>
       </c>
       <c r="C279" t="s">
-        <v>3060</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>3061</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>3062</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="282" spans="1:1">
@@ -29242,7 +29254,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>3063</v>
+        <v>3065</v>
       </c>
       <c r="B283" t="s">
         <v>60</v>
@@ -29289,12 +29301,12 @@
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>3064</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>3065</v>
+        <v>3067</v>
       </c>
       <c r="B291" t="s">
         <v>60</v>
@@ -29302,27 +29314,27 @@
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>3066</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>3067</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>3068</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>3069</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>3070</v>
+        <v>3072</v>
       </c>
       <c r="B296" t="s">
         <v>64</v>
@@ -29330,35 +29342,35 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>3071</v>
+        <v>3073</v>
       </c>
       <c r="B297" t="s">
-        <v>3072</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>3073</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>3074</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>3075</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>3076</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>3077</v>
+        <v>3079</v>
       </c>
       <c r="B302" t="s">
         <v>137</v>
@@ -29366,7 +29378,7 @@
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>3078</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="304" spans="1:1">
@@ -29376,7 +29388,7 @@
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>3079</v>
+        <v>3081</v>
       </c>
     </row>
   </sheetData>
@@ -29398,373 +29410,373 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>3080</v>
+        <v>3082</v>
       </c>
       <c r="C1" t="s">
-        <v>3081</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3082</v>
+        <v>3084</v>
       </c>
       <c r="B2" t="s">
-        <v>3083</v>
+        <v>3085</v>
       </c>
       <c r="C2" t="s">
-        <v>3084</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>3085</v>
+        <v>3087</v>
       </c>
       <c r="C3" t="s">
-        <v>3086</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>3087</v>
+        <v>3089</v>
       </c>
       <c r="C4" t="s">
-        <v>3088</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>3089</v>
+        <v>3091</v>
       </c>
       <c r="C5" t="s">
-        <v>3090</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>3091</v>
+        <v>3093</v>
       </c>
       <c r="C6" t="s">
-        <v>3092</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>3093</v>
+        <v>3095</v>
       </c>
       <c r="C7" t="s">
-        <v>3094</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>3095</v>
+        <v>3097</v>
       </c>
       <c r="C8" t="s">
-        <v>3096</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>3097</v>
+        <v>3099</v>
       </c>
       <c r="C9" t="s">
-        <v>3098</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>3099</v>
+        <v>3101</v>
       </c>
       <c r="C10" t="s">
-        <v>3100</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>3101</v>
+        <v>3103</v>
       </c>
       <c r="C11" t="s">
-        <v>3102</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>3103</v>
+        <v>3105</v>
       </c>
       <c r="C12" t="s">
-        <v>3104</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>3105</v>
+        <v>3107</v>
       </c>
       <c r="C13" t="s">
-        <v>3106</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>3107</v>
+        <v>3109</v>
       </c>
       <c r="C14" t="s">
-        <v>3108</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>3109</v>
+        <v>3111</v>
       </c>
       <c r="C15" t="s">
-        <v>3110</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>3111</v>
+        <v>3113</v>
       </c>
       <c r="C16" t="s">
-        <v>3110</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>3112</v>
+        <v>3114</v>
       </c>
       <c r="C17" t="s">
-        <v>3113</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>3114</v>
+        <v>3116</v>
       </c>
       <c r="C18" t="s">
-        <v>3115</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>3116</v>
+        <v>3118</v>
       </c>
       <c r="C19" t="s">
-        <v>3117</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>3118</v>
+        <v>3120</v>
       </c>
       <c r="C20" t="s">
-        <v>3119</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>3120</v>
+        <v>3122</v>
       </c>
       <c r="C21" t="s">
-        <v>3121</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>3122</v>
+        <v>3124</v>
       </c>
       <c r="C22" t="s">
-        <v>3123</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>3124</v>
+        <v>3126</v>
       </c>
       <c r="C23" t="s">
-        <v>3125</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>3126</v>
+        <v>3128</v>
       </c>
       <c r="C24" t="s">
-        <v>3127</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>3128</v>
+        <v>3130</v>
       </c>
       <c r="C25" t="s">
-        <v>3129</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>3130</v>
+        <v>3132</v>
       </c>
       <c r="C26" t="s">
-        <v>3131</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>3132</v>
+        <v>3134</v>
       </c>
       <c r="C27" t="s">
-        <v>3133</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>3134</v>
+        <v>3136</v>
       </c>
       <c r="C28" t="s">
-        <v>3135</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>3136</v>
+        <v>3138</v>
       </c>
       <c r="C29" t="s">
-        <v>3137</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>3138</v>
+        <v>3140</v>
       </c>
       <c r="C30" t="s">
-        <v>3139</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>3140</v>
+        <v>3142</v>
       </c>
       <c r="C31" t="s">
-        <v>3141</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>3142</v>
+        <v>3144</v>
       </c>
       <c r="C32" t="s">
-        <v>3143</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>3144</v>
+        <v>3146</v>
       </c>
       <c r="C33" t="s">
-        <v>3145</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>3146</v>
+        <v>3148</v>
       </c>
       <c r="C34" t="s">
-        <v>3147</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>3148</v>
+        <v>3150</v>
       </c>
       <c r="C35" t="s">
-        <v>3149</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>3150</v>
+        <v>3152</v>
       </c>
       <c r="C36" t="s">
-        <v>3151</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>3152</v>
+        <v>3154</v>
       </c>
       <c r="C37" t="s">
-        <v>3153</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>3154</v>
+        <v>3156</v>
       </c>
       <c r="C38" t="s">
-        <v>3155</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>3156</v>
+        <v>3158</v>
       </c>
       <c r="C39" t="s">
-        <v>3157</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>3158</v>
+        <v>3160</v>
       </c>
       <c r="C40" t="s">
-        <v>3159</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>3160</v>
+        <v>3162</v>
       </c>
       <c r="C41" t="s">
-        <v>3161</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>3162</v>
+        <v>3164</v>
       </c>
       <c r="C42" t="s">
-        <v>3163</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>3164</v>
+        <v>3166</v>
       </c>
       <c r="C43" t="s">
-        <v>3165</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>3166</v>
+        <v>3168</v>
       </c>
       <c r="C44" t="s">
-        <v>3167</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
-        <v>3168</v>
+        <v>3170</v>
       </c>
       <c r="C45" t="s">
-        <v>3169</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>3170</v>
+        <v>3172</v>
       </c>
       <c r="C46" t="s">
-        <v>3171</v>
+        <v>3173</v>
       </c>
     </row>
   </sheetData>
@@ -29786,10 +29798,10 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>3172</v>
+        <v>3174</v>
       </c>
       <c r="C1" t="s">
-        <v>3173</v>
+        <v>3175</v>
       </c>
     </row>
   </sheetData>
@@ -29811,7 +29823,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>3174</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -29840,7 +29852,7 @@
   <sheetPr/>
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -29848,112 +29860,112 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>3175</v>
+        <v>3177</v>
       </c>
       <c r="C1" t="s">
-        <v>3176</v>
+        <v>3178</v>
       </c>
       <c r="D1" t="s">
-        <v>3177</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
       <c r="B2" t="s">
         <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3180</v>
+        <v>3182</v>
       </c>
       <c r="B3" t="s">
         <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>3181</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3182</v>
+        <v>3184</v>
       </c>
       <c r="B4" t="s">
         <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>3183</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3184</v>
+        <v>3186</v>
       </c>
       <c r="B5" t="s">
         <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>3185</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3186</v>
+        <v>3188</v>
       </c>
       <c r="B6" t="s">
         <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>3187</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3188</v>
+        <v>3190</v>
       </c>
       <c r="B7" t="s">
         <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>3189</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3190</v>
+        <v>3192</v>
       </c>
       <c r="B8" t="s">
         <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>3191</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3192</v>
+        <v>3194</v>
       </c>
       <c r="B9" t="s">
         <v>161</v>
       </c>
       <c r="C9" t="s">
-        <v>3193</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>3194</v>
+        <v>3196</v>
       </c>
       <c r="B10" t="s">
         <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>3195</v>
+        <v>3197</v>
       </c>
       <c r="D10" t="s">
         <v>60</v>
@@ -29961,101 +29973,101 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3196</v>
+        <v>3198</v>
       </c>
       <c r="B11" t="s">
         <v>161</v>
       </c>
       <c r="C11" t="s">
-        <v>3197</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>3198</v>
+        <v>3200</v>
       </c>
       <c r="B12" t="s">
         <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>3199</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>3200</v>
+        <v>3202</v>
       </c>
       <c r="B13" t="s">
         <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>3201</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>3202</v>
+        <v>3204</v>
       </c>
       <c r="B14" t="s">
         <v>161</v>
       </c>
       <c r="C14" t="s">
-        <v>3203</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3204</v>
+        <v>3206</v>
       </c>
       <c r="B15" t="s">
         <v>161</v>
       </c>
       <c r="C15" t="s">
-        <v>3205</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3206</v>
+        <v>3208</v>
       </c>
       <c r="B16" t="s">
         <v>161</v>
       </c>
       <c r="C16" t="s">
-        <v>3207</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>3208</v>
+        <v>3210</v>
       </c>
       <c r="B17" t="s">
         <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>3209</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>3210</v>
+        <v>3212</v>
       </c>
       <c r="B18" t="s">
         <v>161</v>
       </c>
       <c r="C18" t="s">
-        <v>3211</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>3212</v>
+        <v>3214</v>
       </c>
       <c r="B19" t="s">
         <v>161</v>
       </c>
       <c r="C19" t="s">
-        <v>3213</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -30066,7 +30078,7 @@
         <v>161</v>
       </c>
       <c r="C20" t="s">
-        <v>3214</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -30077,62 +30089,62 @@
         <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>3215</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3216</v>
+        <v>3218</v>
       </c>
       <c r="B22" t="s">
         <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>3217</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
       <c r="B23" t="s">
         <v>161</v>
       </c>
       <c r="C23" t="s">
-        <v>3219</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>3220</v>
+        <v>3222</v>
       </c>
       <c r="B24" t="s">
         <v>161</v>
       </c>
       <c r="C24" t="s">
-        <v>3221</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3222</v>
+        <v>3224</v>
       </c>
       <c r="B25" t="s">
         <v>161</v>
       </c>
       <c r="C25" t="s">
-        <v>3223</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>3224</v>
+        <v>3226</v>
       </c>
       <c r="B26" t="s">
         <v>161</v>
       </c>
       <c r="C26" t="s">
-        <v>3225</v>
+        <v>3227</v>
       </c>
       <c r="D26" t="s">
         <v>60</v>
@@ -30140,35 +30152,35 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>3226</v>
+        <v>3228</v>
       </c>
       <c r="B27" t="s">
         <v>161</v>
       </c>
       <c r="C27" t="s">
-        <v>3227</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>3228</v>
+        <v>3230</v>
       </c>
       <c r="B28" t="s">
         <v>161</v>
       </c>
       <c r="C28" t="s">
-        <v>3229</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>3230</v>
+        <v>3232</v>
       </c>
       <c r="B29" t="s">
         <v>161</v>
       </c>
       <c r="C29" t="s">
-        <v>3231</v>
+        <v>3233</v>
       </c>
       <c r="D29" t="s">
         <v>60</v>
@@ -30176,68 +30188,68 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>3232</v>
+        <v>3234</v>
       </c>
       <c r="B30" t="s">
         <v>161</v>
       </c>
       <c r="C30" t="s">
-        <v>3233</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3234</v>
+        <v>3236</v>
       </c>
       <c r="B31" t="s">
         <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>3235</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>3236</v>
+        <v>3238</v>
       </c>
       <c r="B32" t="s">
         <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>3237</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>3238</v>
+        <v>3240</v>
       </c>
       <c r="B33" t="s">
         <v>161</v>
       </c>
       <c r="C33" t="s">
-        <v>3239</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>3240</v>
+        <v>3242</v>
       </c>
       <c r="B34" t="s">
         <v>161</v>
       </c>
       <c r="C34" t="s">
-        <v>3241</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>3242</v>
+        <v>3244</v>
       </c>
       <c r="B35" t="s">
         <v>161</v>
       </c>
       <c r="C35" t="s">
-        <v>3243</v>
+        <v>3245</v>
       </c>
       <c r="D35" t="s">
         <v>60</v>
@@ -30245,57 +30257,57 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>3244</v>
+        <v>3246</v>
       </c>
       <c r="B36" t="s">
         <v>161</v>
       </c>
       <c r="C36" t="s">
-        <v>3245</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>3246</v>
+        <v>3248</v>
       </c>
       <c r="B37" t="s">
         <v>161</v>
       </c>
       <c r="C37" t="s">
-        <v>3247</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>3248</v>
+        <v>3250</v>
       </c>
       <c r="B38" t="s">
         <v>161</v>
       </c>
       <c r="C38" t="s">
-        <v>3249</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>3250</v>
+        <v>3252</v>
       </c>
       <c r="B39" t="s">
         <v>161</v>
       </c>
       <c r="C39" t="s">
-        <v>3251</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>3252</v>
+        <v>3254</v>
       </c>
       <c r="B40" t="s">
         <v>161</v>
       </c>
       <c r="C40" t="s">
-        <v>3253</v>
+        <v>3255</v>
       </c>
       <c r="D40" t="s">
         <v>60</v>
@@ -30303,13 +30315,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>3254</v>
+        <v>3256</v>
       </c>
       <c r="B41" t="s">
         <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>3253</v>
+        <v>3255</v>
       </c>
       <c r="D41" t="s">
         <v>404</v>
@@ -30317,68 +30329,68 @@
     </row>
     <row r="42" ht="18.75" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>3255</v>
+        <v>3257</v>
       </c>
       <c r="B42" t="s">
         <v>161</v>
       </c>
       <c r="C42" t="s">
-        <v>3256</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>3257</v>
+        <v>3259</v>
       </c>
       <c r="B43" t="s">
         <v>161</v>
       </c>
       <c r="C43" t="s">
-        <v>3258</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>3259</v>
+        <v>3261</v>
       </c>
       <c r="B44" t="s">
         <v>161</v>
       </c>
       <c r="C44" t="s">
-        <v>3260</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>3261</v>
+        <v>3263</v>
       </c>
       <c r="B45" t="s">
         <v>161</v>
       </c>
       <c r="C45" t="s">
-        <v>3262</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>3263</v>
+        <v>3265</v>
       </c>
       <c r="B46" t="s">
         <v>161</v>
       </c>
       <c r="C46" t="s">
-        <v>3264</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>3265</v>
+        <v>3267</v>
       </c>
       <c r="B47" t="s">
         <v>161</v>
       </c>
       <c r="C47" t="s">
-        <v>3264</v>
+        <v>3266</v>
       </c>
       <c r="D47" t="s">
         <v>60</v>
@@ -30386,123 +30398,123 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>3266</v>
+        <v>3268</v>
       </c>
       <c r="B48" t="s">
         <v>161</v>
       </c>
       <c r="C48" t="s">
-        <v>3267</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>3268</v>
+        <v>3270</v>
       </c>
       <c r="B49" t="s">
         <v>161</v>
       </c>
       <c r="C49" t="s">
-        <v>3269</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>3270</v>
+        <v>3272</v>
       </c>
       <c r="B50" t="s">
         <v>161</v>
       </c>
       <c r="C50" t="s">
-        <v>3271</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>3272</v>
+        <v>3274</v>
       </c>
       <c r="B51" t="s">
         <v>161</v>
       </c>
       <c r="C51" t="s">
-        <v>3273</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>3274</v>
+        <v>3276</v>
       </c>
       <c r="B52" t="s">
         <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>3275</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>3276</v>
+        <v>3278</v>
       </c>
       <c r="B53" t="s">
         <v>161</v>
       </c>
       <c r="C53" t="s">
-        <v>3277</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>3278</v>
+        <v>3280</v>
       </c>
       <c r="B54" t="s">
         <v>161</v>
       </c>
       <c r="C54" t="s">
-        <v>3279</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>3280</v>
+        <v>3282</v>
       </c>
       <c r="B55" t="s">
         <v>161</v>
       </c>
       <c r="C55" t="s">
-        <v>3281</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>3282</v>
+        <v>3284</v>
       </c>
       <c r="B56" t="s">
         <v>161</v>
       </c>
       <c r="C56" t="s">
-        <v>3283</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>3284</v>
+        <v>3286</v>
       </c>
       <c r="B57" t="s">
         <v>161</v>
       </c>
       <c r="C57" t="s">
-        <v>3285</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>3286</v>
+        <v>3288</v>
       </c>
       <c r="B58" t="s">
         <v>161</v>
       </c>
       <c r="C58" t="s">
-        <v>3287</v>
+        <v>3289</v>
       </c>
       <c r="D58" t="s">
         <v>60</v>
@@ -30510,13 +30522,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>3288</v>
+        <v>3290</v>
       </c>
       <c r="B59" t="s">
         <v>161</v>
       </c>
       <c r="C59" t="s">
-        <v>3289</v>
+        <v>3291</v>
       </c>
       <c r="D59" t="s">
         <v>60</v>
@@ -30524,7 +30536,7 @@
     </row>
     <row r="60" ht="18.75" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>3290</v>
+        <v>3292</v>
       </c>
       <c r="B60" t="s">
         <v>161</v>
@@ -30538,18 +30550,18 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>3291</v>
+        <v>3293</v>
       </c>
       <c r="B61" t="s">
         <v>161</v>
       </c>
       <c r="C61" t="s">
-        <v>3292</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>3293</v>
+        <v>3295</v>
       </c>
       <c r="B62" t="s">
         <v>161</v>

--- a/編碼修改記錄.xlsx
+++ b/編碼修改記錄.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3361">
   <si>
     <t>汉字</t>
   </si>
@@ -8390,6 +8390,186 @@
   </si>
   <si>
     <t>me</t>
+  </si>
+  <si>
+    <t>閻</t>
+  </si>
+  <si>
+    <t>anhsx</t>
+  </si>
+  <si>
+    <t>錎</t>
+  </si>
+  <si>
+    <t>chsx</t>
+  </si>
+  <si>
+    <t>淊</t>
+  </si>
+  <si>
+    <t>ehsx</t>
+  </si>
+  <si>
+    <t>焰</t>
+  </si>
+  <si>
+    <t>fhsx</t>
+  </si>
+  <si>
+    <t>埳</t>
+  </si>
+  <si>
+    <t>ghsx</t>
+  </si>
+  <si>
+    <t>窞</t>
+  </si>
+  <si>
+    <t>jchsx</t>
+  </si>
+  <si>
+    <t>輡</t>
+  </si>
+  <si>
+    <t>jjhsx</t>
+  </si>
+  <si>
+    <t>蜭</t>
+  </si>
+  <si>
+    <t>lihsx</t>
+  </si>
+  <si>
+    <t>臽</t>
+  </si>
+  <si>
+    <t>hshx</t>
+  </si>
+  <si>
+    <t>oihsx</t>
+  </si>
+  <si>
+    <t>oyhsx</t>
+  </si>
+  <si>
+    <t>惂</t>
+  </si>
+  <si>
+    <t>phsx</t>
+  </si>
+  <si>
+    <t>掐</t>
+  </si>
+  <si>
+    <t>qhsx</t>
+  </si>
+  <si>
+    <t>啗</t>
+  </si>
+  <si>
+    <t>rhsx</t>
+  </si>
+  <si>
+    <t>萏</t>
+  </si>
+  <si>
+    <t>thsx</t>
+  </si>
+  <si>
+    <t>諂</t>
+  </si>
+  <si>
+    <t>yrhsx</t>
+  </si>
+  <si>
+    <t>anshx</t>
+  </si>
+  <si>
+    <t>cshx</t>
+  </si>
+  <si>
+    <t>eshx</t>
+  </si>
+  <si>
+    <t>fshx</t>
+  </si>
+  <si>
+    <t>gshx</t>
+  </si>
+  <si>
+    <t>jcshx</t>
+  </si>
+  <si>
+    <t>jjshx</t>
+  </si>
+  <si>
+    <t>lishx</t>
+  </si>
+  <si>
+    <t>oishx</t>
+  </si>
+  <si>
+    <t>oyshx</t>
+  </si>
+  <si>
+    <t>pshx</t>
+  </si>
+  <si>
+    <t>qshx</t>
+  </si>
+  <si>
+    <t>rshx</t>
+  </si>
+  <si>
+    <t>tshx</t>
+  </si>
+  <si>
+    <t>yrshx</t>
+  </si>
+  <si>
+    <t>燄</t>
+  </si>
+  <si>
+    <t>hxff</t>
+  </si>
+  <si>
+    <t>sxff</t>
+  </si>
+  <si>
+    <t>鵮</t>
+  </si>
+  <si>
+    <t>hxhaf</t>
+  </si>
+  <si>
+    <t>sxhaf</t>
+  </si>
+  <si>
+    <t>欿</t>
+  </si>
+  <si>
+    <t>hxno</t>
+  </si>
+  <si>
+    <t>sxno</t>
+  </si>
+  <si>
+    <t>恙</t>
+  </si>
+  <si>
+    <t>tqp</t>
+  </si>
+  <si>
+    <t>况</t>
+  </si>
+  <si>
+    <t>mmrhu</t>
+  </si>
+  <si>
+    <t>瘹</t>
+  </si>
+  <si>
+    <t>kcpm</t>
   </si>
   <si>
     <t>是否重碼</t>
@@ -9930,8 +10110,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -9951,97 +10131,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10055,9 +10152,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10073,9 +10214,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10087,8 +10228,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10103,7 +10283,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10115,175 +10451,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10306,6 +10486,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -10321,17 +10516,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10341,6 +10532,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10360,37 +10560,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10402,10 +10582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10414,133 +10594,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10872,7 +11052,7 @@
   <sheetPr/>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
@@ -11581,10 +11761,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F1398"/>
+  <dimension ref="A2:F1438"/>
   <sheetViews>
-    <sheetView topLeftCell="A1373" workbookViewId="0">
-      <selection activeCell="C1387" sqref="C1387"/>
+    <sheetView tabSelected="1" topLeftCell="A1412" workbookViewId="0">
+      <selection activeCell="C1427" sqref="C1427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -27618,58 +27798,504 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="1388" spans="2:2">
+    <row r="1388" spans="1:3">
+      <c r="A1388" t="s">
+        <v>2790</v>
+      </c>
       <c r="B1388" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="1389" spans="2:2">
+      <c r="C1388" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:3">
+      <c r="A1389" t="s">
+        <v>2792</v>
+      </c>
       <c r="B1389" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="1390" spans="2:2">
+      <c r="C1389" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:3">
+      <c r="A1390" t="s">
+        <v>2794</v>
+      </c>
       <c r="B1390" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="1391" spans="2:2">
+      <c r="C1390" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:3">
+      <c r="A1391" t="s">
+        <v>2796</v>
+      </c>
       <c r="B1391" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="1392" spans="2:2">
+      <c r="C1391" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:3">
+      <c r="A1392" t="s">
+        <v>2798</v>
+      </c>
       <c r="B1392" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="1393" spans="2:2">
+      <c r="C1392" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:3">
+      <c r="A1393" t="s">
+        <v>2800</v>
+      </c>
       <c r="B1393" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="1394" spans="2:2">
+      <c r="C1393" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:3">
+      <c r="A1394" t="s">
+        <v>2802</v>
+      </c>
       <c r="B1394" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="1395" spans="2:2">
+      <c r="C1394" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:3">
+      <c r="A1395" t="s">
+        <v>2804</v>
+      </c>
       <c r="B1395" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="1396" spans="2:2">
+      <c r="C1395" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:3">
+      <c r="A1396" t="s">
+        <v>2806</v>
+      </c>
       <c r="B1396" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="1397" spans="2:2">
+      <c r="C1396" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:3">
+      <c r="A1397" t="s">
+        <v>1647</v>
+      </c>
       <c r="B1397" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="1398" spans="2:2">
+      <c r="C1397" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:3">
+      <c r="A1398" t="s">
+        <v>1647</v>
+      </c>
       <c r="B1398" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:3">
+      <c r="A1399" t="s">
+        <v>2810</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:3">
+      <c r="A1400" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:3">
+      <c r="A1401" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:3">
+      <c r="A1402" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:3">
+      <c r="A1403" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:3">
+      <c r="A1404" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:3">
+      <c r="A1405" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:3">
+      <c r="A1406" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:3">
+      <c r="A1407" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:3">
+      <c r="A1408" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:3">
+      <c r="A1409" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:3">
+      <c r="A1410" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:3">
+      <c r="A1411" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:3">
+      <c r="A1412" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:3">
+      <c r="A1413" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:3">
+      <c r="A1414" t="s">
+        <v>2810</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:3">
+      <c r="A1415" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:3">
+      <c r="A1416" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:3">
+      <c r="A1417" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:3">
+      <c r="A1418" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:3">
+      <c r="A1419" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:3">
+      <c r="A1420" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:4">
+      <c r="A1421" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>2839</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:3">
+      <c r="A1422" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:4">
+      <c r="A1423" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>2842</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:3">
+      <c r="A1424" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:3">
+      <c r="A1425" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:3">
+      <c r="A1426" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:3">
+      <c r="A1427" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="1428" spans="2:2">
+      <c r="B1428" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1429" spans="2:2">
+      <c r="B1429" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1430" spans="2:2">
+      <c r="B1430" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1431" spans="2:2">
+      <c r="B1431" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1432" spans="2:2">
+      <c r="B1432" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1433" spans="2:2">
+      <c r="B1433" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1434" spans="2:2">
+      <c r="B1434" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1435" spans="2:2">
+      <c r="B1435" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1436" spans="2:2">
+      <c r="B1436" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1437" spans="2:2">
+      <c r="B1437" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1438" spans="2:2">
+      <c r="B1438" t="s">
         <v>164</v>
       </c>
     </row>
@@ -27693,30 +28319,30 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>2790</v>
+        <v>2850</v>
       </c>
       <c r="C1" t="s">
-        <v>2791</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>2792</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2793</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>2794</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>2795</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -27726,72 +28352,72 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>2796</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>2797</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>2798</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>2799</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>2800</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>2801</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>2802</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>2803</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>2804</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>2805</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>2806</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>2807</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>2808</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>2809</v>
+        <v>2869</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
@@ -27799,62 +28425,62 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>2810</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>2811</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>2812</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>2813</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>2814</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>2815</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>2816</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>2817</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>2818</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>2819</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>2820</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>2821</v>
+        <v>2881</v>
       </c>
       <c r="B32" t="s">
         <v>60</v>
@@ -27862,32 +28488,32 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>2822</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>2823</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>2824</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>2825</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>2826</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>2827</v>
+        <v>2887</v>
       </c>
       <c r="B38" t="s">
         <v>60</v>
@@ -27895,7 +28521,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>2828</v>
+        <v>2888</v>
       </c>
       <c r="B39" t="s">
         <v>60</v>
@@ -27903,77 +28529,77 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>2829</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>2830</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>2831</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>2832</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>2833</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>2834</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>2835</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>2836</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>2837</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>2838</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>2839</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>2840</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>2841</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>2842</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>2843</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -27983,57 +28609,57 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>2844</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>2845</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>2846</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>2847</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>2848</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>2849</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>2850</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>2851</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>2852</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>2853</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>2854</v>
+        <v>2914</v>
       </c>
       <c r="B66" t="s">
         <v>60</v>
@@ -28041,27 +28667,27 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>2855</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>2856</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>2857</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>2858</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>2859</v>
+        <v>2919</v>
       </c>
       <c r="B71" t="s">
         <v>64</v>
@@ -28069,32 +28695,32 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>2860</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>2861</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>2862</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>2863</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>2864</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>2865</v>
+        <v>2925</v>
       </c>
       <c r="B77" t="s">
         <v>60</v>
@@ -28102,27 +28728,27 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>2866</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>2867</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>2868</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>2869</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>2870</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -28145,7 +28771,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>2871</v>
+        <v>2931</v>
       </c>
       <c r="B86" t="s">
         <v>60</v>
@@ -28168,7 +28794,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>2872</v>
+        <v>2932</v>
       </c>
       <c r="B90" t="s">
         <v>60</v>
@@ -28176,7 +28802,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>2873</v>
+        <v>2933</v>
       </c>
       <c r="B91" t="s">
         <v>60</v>
@@ -28184,95 +28810,95 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>2874</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>2875</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>2876</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>2877</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>2878</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>2879</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>2880</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>2881</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>2882</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>2883</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>2884</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>2885</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>2886</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>2887</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>2888</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>2889</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>2890</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>2891</v>
+        <v>2951</v>
       </c>
       <c r="B109" t="s">
-        <v>2892</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="110" spans="1:1">
@@ -28282,27 +28908,27 @@
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>2893</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>2894</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>2895</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>2896</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>2897</v>
+        <v>2957</v>
       </c>
       <c r="B115" t="s">
         <v>60</v>
@@ -28310,22 +28936,22 @@
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>2898</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>2899</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>2900</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>2901</v>
+        <v>2961</v>
       </c>
       <c r="B119" t="s">
         <v>64</v>
@@ -28333,7 +28959,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>2902</v>
+        <v>2962</v>
       </c>
       <c r="B120" t="s">
         <v>60</v>
@@ -28341,107 +28967,107 @@
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>2903</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>2904</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>2905</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>2906</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>2907</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>2908</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>2909</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>2910</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>2911</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>2912</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>2913</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>2914</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>2915</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>2916</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>2917</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>2918</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>2919</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>2920</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>2921</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>2922</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>2923</v>
+        <v>2983</v>
       </c>
       <c r="B141" t="s">
         <v>60</v>
@@ -28449,12 +29075,12 @@
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>2924</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>2925</v>
+        <v>2985</v>
       </c>
       <c r="B143" t="s">
         <v>1845</v>
@@ -28462,7 +29088,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>2926</v>
+        <v>2986</v>
       </c>
       <c r="B144" t="s">
         <v>60</v>
@@ -28470,47 +29096,47 @@
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>2927</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>2928</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>2929</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>2930</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>2931</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>2932</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>2933</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>2934</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>2935</v>
+        <v>2995</v>
       </c>
       <c r="B153" t="s">
         <v>60</v>
@@ -28518,17 +29144,17 @@
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>2936</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>2937</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>2938</v>
+        <v>2998</v>
       </c>
       <c r="B156" t="s">
         <v>64</v>
@@ -28536,42 +29162,42 @@
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>2939</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>2940</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>2941</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>2942</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>2943</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>2944</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>2945</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>2946</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="165" spans="1:1">
@@ -28581,7 +29207,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>2947</v>
+        <v>3007</v>
       </c>
       <c r="B166" t="s">
         <v>60</v>
@@ -28589,37 +29215,37 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>2948</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>2949</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>2950</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>2951</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>2952</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>2953</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>2954</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="174" spans="1:1">
@@ -28629,17 +29255,17 @@
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>2955</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>2956</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>2957</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="178" spans="1:1">
@@ -28649,12 +29275,12 @@
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>2958</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>2959</v>
+        <v>3019</v>
       </c>
       <c r="B180" t="s">
         <v>64</v>
@@ -28662,12 +29288,12 @@
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>2960</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>2961</v>
+        <v>3021</v>
       </c>
       <c r="B182" t="s">
         <v>60</v>
@@ -28675,30 +29301,30 @@
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>2962</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>2963</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>2964</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>2965</v>
+        <v>3025</v>
       </c>
       <c r="B186" t="s">
-        <v>2966</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>2967</v>
+        <v>3027</v>
       </c>
       <c r="B187" t="s">
         <v>64</v>
@@ -28706,52 +29332,52 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>2968</v>
+        <v>3028</v>
       </c>
       <c r="B188" t="s">
-        <v>2969</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>2970</v>
+        <v>3030</v>
       </c>
       <c r="B189" t="s">
-        <v>2971</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>2972</v>
+        <v>3032</v>
       </c>
       <c r="B190" t="s">
-        <v>2969</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>2973</v>
+        <v>3033</v>
       </c>
       <c r="B191" t="s">
-        <v>2974</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>2975</v>
+        <v>3035</v>
       </c>
       <c r="B192" t="s">
-        <v>2976</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>2977</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>2978</v>
+        <v>3038</v>
       </c>
       <c r="B194" t="s">
         <v>60</v>
@@ -28759,23 +29385,23 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>2979</v>
+        <v>3039</v>
       </c>
       <c r="B195" t="s">
-        <v>2974</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>2980</v>
+        <v>3040</v>
       </c>
       <c r="B196" t="s">
-        <v>2974</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>2981</v>
+        <v>3041</v>
       </c>
       <c r="B197" t="s">
         <v>60</v>
@@ -28783,25 +29409,25 @@
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>2982</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>2983</v>
+        <v>3043</v>
       </c>
       <c r="B199" t="s">
-        <v>2984</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>2985</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>2986</v>
+        <v>3046</v>
       </c>
       <c r="B201" t="s">
         <v>64</v>
@@ -28809,55 +29435,55 @@
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>2987</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>2988</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>2989</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>2990</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>2991</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>2992</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>2993</v>
+        <v>3053</v>
       </c>
       <c r="B208" t="s">
-        <v>2994</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>2995</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>2996</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>2997</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -28870,17 +29496,17 @@
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>2998</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>2999</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>3000</v>
+        <v>3060</v>
       </c>
       <c r="B215" t="s">
         <v>64</v>
@@ -28888,27 +29514,27 @@
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>3001</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>3002</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>3003</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>3004</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>3005</v>
+        <v>3065</v>
       </c>
       <c r="B220" t="s">
         <v>64</v>
@@ -28916,87 +29542,87 @@
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>3006</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>3007</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>3008</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>3009</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>3010</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>3011</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>3012</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>3013</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>3014</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>3015</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>3016</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>3017</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>3018</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>3019</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>3020</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>3021</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>3022</v>
+        <v>3082</v>
       </c>
       <c r="B237" t="s">
         <v>407</v>
@@ -29004,21 +29630,21 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>3023</v>
+        <v>3083</v>
       </c>
       <c r="B238" t="s">
         <v>1228</v>
       </c>
       <c r="C238" t="s">
-        <v>3024</v>
+        <v>3084</v>
       </c>
       <c r="D238" t="s">
-        <v>3025</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>3026</v>
+        <v>3086</v>
       </c>
       <c r="B239" t="s">
         <v>60</v>
@@ -29026,32 +29652,32 @@
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>3027</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>3028</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>3029</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>3030</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>3031</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>3032</v>
+        <v>3092</v>
       </c>
       <c r="B245" t="s">
         <v>64</v>
@@ -29059,7 +29685,7 @@
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>3033</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="247" spans="1:1">
@@ -29069,12 +29695,12 @@
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>3034</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>3035</v>
+        <v>3095</v>
       </c>
       <c r="B249" t="s">
         <v>64</v>
@@ -29082,7 +29708,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>3036</v>
+        <v>3096</v>
       </c>
       <c r="B250" t="s">
         <v>60</v>
@@ -29090,17 +29716,17 @@
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>3037</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>3038</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>3039</v>
+        <v>3099</v>
       </c>
       <c r="B253" t="s">
         <v>60</v>
@@ -29108,7 +29734,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>3040</v>
+        <v>3100</v>
       </c>
       <c r="B254" t="s">
         <v>1845</v>
@@ -29116,22 +29742,22 @@
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>3041</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>3042</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>3043</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>3044</v>
+        <v>3104</v>
       </c>
       <c r="B258" t="s">
         <v>137</v>
@@ -29139,7 +29765,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>3045</v>
+        <v>3105</v>
       </c>
       <c r="B259" t="s">
         <v>64</v>
@@ -29147,7 +29773,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>3046</v>
+        <v>3106</v>
       </c>
       <c r="B260" t="s">
         <v>137</v>
@@ -29155,27 +29781,27 @@
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>3047</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>3048</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>3049</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>3050</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>3051</v>
+        <v>3111</v>
       </c>
       <c r="B265" t="s">
         <v>64</v>
@@ -29183,7 +29809,7 @@
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>3052</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="267" spans="1:1">
@@ -29193,17 +29819,17 @@
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>3053</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>3054</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>3055</v>
+        <v>3115</v>
       </c>
       <c r="B270" t="s">
         <v>60</v>
@@ -29211,32 +29837,32 @@
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>3056</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>3057</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>3058</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>3059</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>3060</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>3061</v>
+        <v>3121</v>
       </c>
       <c r="B276" t="s">
         <v>1845</v>
@@ -29244,33 +29870,33 @@
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>3062</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>3063</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>3064</v>
+        <v>3124</v>
       </c>
       <c r="B279" t="s">
         <v>60</v>
       </c>
       <c r="C279" t="s">
-        <v>3065</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>3066</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>3067</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="282" spans="1:1">
@@ -29280,7 +29906,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>3068</v>
+        <v>3128</v>
       </c>
       <c r="B283" t="s">
         <v>60</v>
@@ -29327,12 +29953,12 @@
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>3069</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>3070</v>
+        <v>3130</v>
       </c>
       <c r="B291" t="s">
         <v>60</v>
@@ -29340,27 +29966,27 @@
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>3071</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>3072</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>3073</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>3074</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>3075</v>
+        <v>3135</v>
       </c>
       <c r="B296" t="s">
         <v>64</v>
@@ -29368,35 +29994,35 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>3076</v>
+        <v>3136</v>
       </c>
       <c r="B297" t="s">
-        <v>3077</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>3078</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>3079</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>3080</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>3081</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>3082</v>
+        <v>3142</v>
       </c>
       <c r="B302" t="s">
         <v>137</v>
@@ -29404,7 +30030,7 @@
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>3083</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="304" spans="1:1">
@@ -29414,7 +30040,7 @@
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>3084</v>
+        <v>3144</v>
       </c>
     </row>
   </sheetData>
@@ -29436,381 +30062,381 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>3085</v>
+        <v>3145</v>
       </c>
       <c r="C1" t="s">
-        <v>3086</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3087</v>
+        <v>3147</v>
       </c>
       <c r="B2" t="s">
-        <v>3088</v>
+        <v>3148</v>
       </c>
       <c r="C2" t="s">
-        <v>3089</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>3090</v>
+        <v>3150</v>
       </c>
       <c r="C3" t="s">
-        <v>3091</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>3092</v>
+        <v>3152</v>
       </c>
       <c r="C4" t="s">
-        <v>3093</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>3094</v>
+        <v>3154</v>
       </c>
       <c r="C5" t="s">
-        <v>3095</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>3096</v>
+        <v>3156</v>
       </c>
       <c r="C6" t="s">
-        <v>3097</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>3098</v>
+        <v>3158</v>
       </c>
       <c r="C7" t="s">
-        <v>3099</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>3100</v>
+        <v>3160</v>
       </c>
       <c r="C8" t="s">
-        <v>3101</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>3102</v>
+        <v>3162</v>
       </c>
       <c r="C9" t="s">
-        <v>3103</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>3104</v>
+        <v>3164</v>
       </c>
       <c r="C10" t="s">
-        <v>3105</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>3106</v>
+        <v>3166</v>
       </c>
       <c r="C11" t="s">
-        <v>3107</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>3108</v>
+        <v>3168</v>
       </c>
       <c r="C12" t="s">
-        <v>3109</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>3110</v>
+        <v>3170</v>
       </c>
       <c r="C13" t="s">
-        <v>3111</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>3112</v>
+        <v>3172</v>
       </c>
       <c r="C14" t="s">
-        <v>3113</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>3114</v>
+        <v>3174</v>
       </c>
       <c r="C15" t="s">
-        <v>3115</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>3116</v>
+        <v>3176</v>
       </c>
       <c r="C16" t="s">
-        <v>3115</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>3117</v>
+        <v>3177</v>
       </c>
       <c r="C17" t="s">
-        <v>3118</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>3119</v>
+        <v>3179</v>
       </c>
       <c r="C18" t="s">
-        <v>3120</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>3121</v>
+        <v>3181</v>
       </c>
       <c r="C19" t="s">
-        <v>3122</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>3123</v>
+        <v>3183</v>
       </c>
       <c r="C20" t="s">
-        <v>3124</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>3125</v>
+        <v>3185</v>
       </c>
       <c r="C21" t="s">
-        <v>3126</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>3127</v>
+        <v>3187</v>
       </c>
       <c r="C22" t="s">
-        <v>3128</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>3129</v>
+        <v>3189</v>
       </c>
       <c r="C23" t="s">
-        <v>3130</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>3131</v>
+        <v>3191</v>
       </c>
       <c r="C24" t="s">
-        <v>3132</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>3133</v>
+        <v>3193</v>
       </c>
       <c r="C25" t="s">
-        <v>3134</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>3135</v>
+        <v>3195</v>
       </c>
       <c r="C26" t="s">
-        <v>3136</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>3137</v>
+        <v>3197</v>
       </c>
       <c r="C27" t="s">
-        <v>3138</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>3139</v>
+        <v>3199</v>
       </c>
       <c r="C28" t="s">
-        <v>3140</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>3141</v>
+        <v>3201</v>
       </c>
       <c r="C29" t="s">
-        <v>3142</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>3143</v>
+        <v>3203</v>
       </c>
       <c r="C30" t="s">
-        <v>3144</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>3145</v>
+        <v>3205</v>
       </c>
       <c r="C31" t="s">
-        <v>3146</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>3147</v>
+        <v>3207</v>
       </c>
       <c r="C32" t="s">
-        <v>3148</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>3149</v>
+        <v>3209</v>
       </c>
       <c r="C33" t="s">
-        <v>3150</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>3151</v>
+        <v>3211</v>
       </c>
       <c r="C34" t="s">
-        <v>3152</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>3153</v>
+        <v>3213</v>
       </c>
       <c r="C35" t="s">
-        <v>3154</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>3155</v>
+        <v>3215</v>
       </c>
       <c r="C36" t="s">
-        <v>3156</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>3157</v>
+        <v>3217</v>
       </c>
       <c r="C37" t="s">
-        <v>3158</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>3159</v>
+        <v>3219</v>
       </c>
       <c r="C38" t="s">
-        <v>3160</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>3161</v>
+        <v>3221</v>
       </c>
       <c r="C39" t="s">
-        <v>3162</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>3163</v>
+        <v>3223</v>
       </c>
       <c r="C40" t="s">
-        <v>3164</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>3165</v>
+        <v>3225</v>
       </c>
       <c r="C41" t="s">
-        <v>3166</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>3167</v>
+        <v>3227</v>
       </c>
       <c r="C42" t="s">
-        <v>3168</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>3169</v>
+        <v>3229</v>
       </c>
       <c r="C43" t="s">
-        <v>3170</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>3171</v>
+        <v>3231</v>
       </c>
       <c r="C44" t="s">
-        <v>3172</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
-        <v>3173</v>
+        <v>3233</v>
       </c>
       <c r="C45" t="s">
-        <v>3174</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>3175</v>
+        <v>3235</v>
       </c>
       <c r="C46" t="s">
-        <v>3176</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" t="s">
-        <v>3177</v>
+        <v>3237</v>
       </c>
       <c r="C47" t="s">
-        <v>3178</v>
+        <v>3238</v>
       </c>
     </row>
   </sheetData>
@@ -29832,10 +30458,10 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>3179</v>
+        <v>3239</v>
       </c>
       <c r="C1" t="s">
-        <v>3180</v>
+        <v>3240</v>
       </c>
     </row>
   </sheetData>
@@ -29857,7 +30483,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>3181</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -29894,112 +30520,112 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>3182</v>
+        <v>3242</v>
       </c>
       <c r="C1" t="s">
-        <v>3183</v>
+        <v>3243</v>
       </c>
       <c r="D1" t="s">
-        <v>3184</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3185</v>
+        <v>3245</v>
       </c>
       <c r="B2" t="s">
         <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>3186</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3187</v>
+        <v>3247</v>
       </c>
       <c r="B3" t="s">
         <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>3188</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3189</v>
+        <v>3249</v>
       </c>
       <c r="B4" t="s">
         <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>3190</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3191</v>
+        <v>3251</v>
       </c>
       <c r="B5" t="s">
         <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>3192</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3193</v>
+        <v>3253</v>
       </c>
       <c r="B6" t="s">
         <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>3194</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3195</v>
+        <v>3255</v>
       </c>
       <c r="B7" t="s">
         <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>3196</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3197</v>
+        <v>3257</v>
       </c>
       <c r="B8" t="s">
         <v>164</v>
       </c>
       <c r="C8" t="s">
-        <v>3198</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3199</v>
+        <v>3259</v>
       </c>
       <c r="B9" t="s">
         <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>3200</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>3201</v>
+        <v>3261</v>
       </c>
       <c r="B10" t="s">
         <v>164</v>
       </c>
       <c r="C10" t="s">
-        <v>3202</v>
+        <v>3262</v>
       </c>
       <c r="D10" t="s">
         <v>60</v>
@@ -30007,101 +30633,101 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3203</v>
+        <v>3263</v>
       </c>
       <c r="B11" t="s">
         <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>3204</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>3205</v>
+        <v>3265</v>
       </c>
       <c r="B12" t="s">
         <v>164</v>
       </c>
       <c r="C12" t="s">
-        <v>3206</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>3207</v>
+        <v>3267</v>
       </c>
       <c r="B13" t="s">
         <v>164</v>
       </c>
       <c r="C13" t="s">
-        <v>3208</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>3209</v>
+        <v>3269</v>
       </c>
       <c r="B14" t="s">
         <v>164</v>
       </c>
       <c r="C14" t="s">
-        <v>3210</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3211</v>
+        <v>3271</v>
       </c>
       <c r="B15" t="s">
         <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>3212</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3213</v>
+        <v>3273</v>
       </c>
       <c r="B16" t="s">
         <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>3214</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>3215</v>
+        <v>3275</v>
       </c>
       <c r="B17" t="s">
         <v>164</v>
       </c>
       <c r="C17" t="s">
-        <v>3216</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>3217</v>
+        <v>3277</v>
       </c>
       <c r="B18" t="s">
         <v>164</v>
       </c>
       <c r="C18" t="s">
-        <v>3218</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>3219</v>
+        <v>3279</v>
       </c>
       <c r="B19" t="s">
         <v>164</v>
       </c>
       <c r="C19" t="s">
-        <v>3220</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -30112,7 +30738,7 @@
         <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>3221</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -30123,62 +30749,62 @@
         <v>164</v>
       </c>
       <c r="C21" t="s">
-        <v>3222</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3223</v>
+        <v>3283</v>
       </c>
       <c r="B22" t="s">
         <v>164</v>
       </c>
       <c r="C22" t="s">
-        <v>3224</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>3225</v>
+        <v>3285</v>
       </c>
       <c r="B23" t="s">
         <v>164</v>
       </c>
       <c r="C23" t="s">
-        <v>3226</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>3227</v>
+        <v>3287</v>
       </c>
       <c r="B24" t="s">
         <v>164</v>
       </c>
       <c r="C24" t="s">
-        <v>3228</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3229</v>
+        <v>3289</v>
       </c>
       <c r="B25" t="s">
         <v>164</v>
       </c>
       <c r="C25" t="s">
-        <v>3230</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>3231</v>
+        <v>3291</v>
       </c>
       <c r="B26" t="s">
         <v>164</v>
       </c>
       <c r="C26" t="s">
-        <v>3232</v>
+        <v>3292</v>
       </c>
       <c r="D26" t="s">
         <v>60</v>
@@ -30186,35 +30812,35 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>3233</v>
+        <v>3293</v>
       </c>
       <c r="B27" t="s">
         <v>164</v>
       </c>
       <c r="C27" t="s">
-        <v>3234</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>3235</v>
+        <v>3295</v>
       </c>
       <c r="B28" t="s">
         <v>164</v>
       </c>
       <c r="C28" t="s">
-        <v>3236</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>3237</v>
+        <v>3297</v>
       </c>
       <c r="B29" t="s">
         <v>164</v>
       </c>
       <c r="C29" t="s">
-        <v>3238</v>
+        <v>3298</v>
       </c>
       <c r="D29" t="s">
         <v>60</v>
@@ -30222,68 +30848,68 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>3239</v>
+        <v>3299</v>
       </c>
       <c r="B30" t="s">
         <v>164</v>
       </c>
       <c r="C30" t="s">
-        <v>3240</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3241</v>
+        <v>3301</v>
       </c>
       <c r="B31" t="s">
         <v>164</v>
       </c>
       <c r="C31" t="s">
-        <v>3242</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>3243</v>
+        <v>3303</v>
       </c>
       <c r="B32" t="s">
         <v>164</v>
       </c>
       <c r="C32" t="s">
-        <v>3244</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>3245</v>
+        <v>3305</v>
       </c>
       <c r="B33" t="s">
         <v>164</v>
       </c>
       <c r="C33" t="s">
-        <v>3246</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>3247</v>
+        <v>3307</v>
       </c>
       <c r="B34" t="s">
         <v>164</v>
       </c>
       <c r="C34" t="s">
-        <v>3248</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>3249</v>
+        <v>3309</v>
       </c>
       <c r="B35" t="s">
         <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>3250</v>
+        <v>3310</v>
       </c>
       <c r="D35" t="s">
         <v>60</v>
@@ -30291,57 +30917,57 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>3251</v>
+        <v>3311</v>
       </c>
       <c r="B36" t="s">
         <v>164</v>
       </c>
       <c r="C36" t="s">
-        <v>3252</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>3253</v>
+        <v>3313</v>
       </c>
       <c r="B37" t="s">
         <v>164</v>
       </c>
       <c r="C37" t="s">
-        <v>3254</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>3255</v>
+        <v>3315</v>
       </c>
       <c r="B38" t="s">
         <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>3256</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>3257</v>
+        <v>3317</v>
       </c>
       <c r="B39" t="s">
         <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>3258</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>3259</v>
+        <v>3319</v>
       </c>
       <c r="B40" t="s">
         <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>3260</v>
+        <v>3320</v>
       </c>
       <c r="D40" t="s">
         <v>60</v>
@@ -30349,13 +30975,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>3261</v>
+        <v>3321</v>
       </c>
       <c r="B41" t="s">
         <v>164</v>
       </c>
       <c r="C41" t="s">
-        <v>3260</v>
+        <v>3320</v>
       </c>
       <c r="D41" t="s">
         <v>407</v>
@@ -30363,68 +30989,68 @@
     </row>
     <row r="42" ht="18.75" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>3262</v>
+        <v>3322</v>
       </c>
       <c r="B42" t="s">
         <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>3263</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>3264</v>
+        <v>3324</v>
       </c>
       <c r="B43" t="s">
         <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>3265</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>3266</v>
+        <v>3326</v>
       </c>
       <c r="B44" t="s">
         <v>164</v>
       </c>
       <c r="C44" t="s">
-        <v>3267</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>3268</v>
+        <v>3328</v>
       </c>
       <c r="B45" t="s">
         <v>164</v>
       </c>
       <c r="C45" t="s">
-        <v>3269</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>3270</v>
+        <v>3330</v>
       </c>
       <c r="B46" t="s">
         <v>164</v>
       </c>
       <c r="C46" t="s">
-        <v>3271</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>3272</v>
+        <v>3332</v>
       </c>
       <c r="B47" t="s">
         <v>164</v>
       </c>
       <c r="C47" t="s">
-        <v>3271</v>
+        <v>3331</v>
       </c>
       <c r="D47" t="s">
         <v>60</v>
@@ -30432,123 +31058,123 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>3273</v>
+        <v>3333</v>
       </c>
       <c r="B48" t="s">
         <v>164</v>
       </c>
       <c r="C48" t="s">
-        <v>3274</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>3275</v>
+        <v>3335</v>
       </c>
       <c r="B49" t="s">
         <v>164</v>
       </c>
       <c r="C49" t="s">
-        <v>3276</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>3277</v>
+        <v>3337</v>
       </c>
       <c r="B50" t="s">
         <v>164</v>
       </c>
       <c r="C50" t="s">
-        <v>3278</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>3279</v>
+        <v>3339</v>
       </c>
       <c r="B51" t="s">
         <v>164</v>
       </c>
       <c r="C51" t="s">
-        <v>3280</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>3281</v>
+        <v>3341</v>
       </c>
       <c r="B52" t="s">
         <v>164</v>
       </c>
       <c r="C52" t="s">
-        <v>3282</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>3283</v>
+        <v>3343</v>
       </c>
       <c r="B53" t="s">
         <v>164</v>
       </c>
       <c r="C53" t="s">
-        <v>3284</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>3285</v>
+        <v>3345</v>
       </c>
       <c r="B54" t="s">
         <v>164</v>
       </c>
       <c r="C54" t="s">
-        <v>3286</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>3287</v>
+        <v>3347</v>
       </c>
       <c r="B55" t="s">
         <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>3288</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>3289</v>
+        <v>3349</v>
       </c>
       <c r="B56" t="s">
         <v>164</v>
       </c>
       <c r="C56" t="s">
-        <v>3290</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>3291</v>
+        <v>3351</v>
       </c>
       <c r="B57" t="s">
         <v>164</v>
       </c>
       <c r="C57" t="s">
-        <v>3292</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>3293</v>
+        <v>3353</v>
       </c>
       <c r="B58" t="s">
         <v>164</v>
       </c>
       <c r="C58" t="s">
-        <v>3294</v>
+        <v>3354</v>
       </c>
       <c r="D58" t="s">
         <v>60</v>
@@ -30556,13 +31182,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>3295</v>
+        <v>3355</v>
       </c>
       <c r="B59" t="s">
         <v>164</v>
       </c>
       <c r="C59" t="s">
-        <v>3296</v>
+        <v>3356</v>
       </c>
       <c r="D59" t="s">
         <v>60</v>
@@ -30570,7 +31196,7 @@
     </row>
     <row r="60" ht="18.75" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>3297</v>
+        <v>3357</v>
       </c>
       <c r="B60" t="s">
         <v>164</v>
@@ -30584,18 +31210,18 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>3298</v>
+        <v>3358</v>
       </c>
       <c r="B61" t="s">
         <v>164</v>
       </c>
       <c r="C61" t="s">
-        <v>3299</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>3300</v>
+        <v>3360</v>
       </c>
       <c r="B62" t="s">
         <v>164</v>

--- a/編碼修改記錄.xlsx
+++ b/編碼修改記錄.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369">
   <si>
     <t>汉字</t>
   </si>
@@ -8570,6 +8570,30 @@
   </si>
   <si>
     <t>kcpm</t>
+  </si>
+  <si>
+    <t>mrhkp</t>
+  </si>
+  <si>
+    <t>llme</t>
+  </si>
+  <si>
+    <t>mfvik</t>
+  </si>
+  <si>
+    <t>mfhg</t>
+  </si>
+  <si>
+    <t>雇</t>
+  </si>
+  <si>
+    <t>msog</t>
+  </si>
+  <si>
+    <t>mfhgr</t>
+  </si>
+  <si>
+    <t>llomv</t>
   </si>
   <si>
     <t>是否重碼</t>
@@ -10144,30 +10168,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -10175,8 +10175,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10198,7 +10221,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10213,18 +10268,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10237,38 +10284,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10283,103 +10307,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10391,61 +10325,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10463,7 +10349,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10477,11 +10501,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10501,21 +10564,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -10523,24 +10571,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10560,17 +10590,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10582,10 +10606,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10594,67 +10618,85 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10663,40 +10705,10 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10708,19 +10720,31 @@
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11764,7 +11788,7 @@
   <dimension ref="A2:F1438"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1412" workbookViewId="0">
-      <selection activeCell="C1427" sqref="C1427"/>
+      <selection activeCell="B1431" sqref="B1431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -28244,39 +28268,81 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="1428" spans="2:2">
+    <row r="1428" spans="1:3">
+      <c r="A1428" t="s">
+        <v>584</v>
+      </c>
       <c r="B1428" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="1429" spans="2:2">
+      <c r="C1428" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:3">
+      <c r="A1429" t="s">
+        <v>1195</v>
+      </c>
       <c r="B1429" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="1430" spans="2:2">
+      <c r="C1429" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:3">
+      <c r="A1430" t="s">
+        <v>667</v>
+      </c>
       <c r="B1430" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="1431" spans="2:2">
+      <c r="C1430" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:3">
+      <c r="A1431" t="s">
+        <v>663</v>
+      </c>
       <c r="B1431" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="1432" spans="2:2">
+      <c r="C1431" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:3">
+      <c r="A1432" t="s">
+        <v>2854</v>
+      </c>
       <c r="B1432" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="1433" spans="2:2">
+      <c r="C1432" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:3">
+      <c r="A1433" t="s">
+        <v>713</v>
+      </c>
       <c r="B1433" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="1434" spans="2:2">
+      <c r="C1433" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:3">
+      <c r="A1434" t="s">
+        <v>1201</v>
+      </c>
       <c r="B1434" t="s">
         <v>164</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>2857</v>
       </c>
     </row>
     <row r="1435" spans="2:2">
@@ -28311,38 +28377,38 @@
   <sheetPr/>
   <dimension ref="A1:D305"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>2850</v>
+        <v>2858</v>
       </c>
       <c r="C1" t="s">
-        <v>2851</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>2852</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2853</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>2854</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>2855</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -28352,72 +28418,72 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>2856</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>2857</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>2858</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>2859</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>2860</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>2861</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>2862</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>2863</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>2864</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>2865</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>2866</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>2867</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>2868</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>2869</v>
+        <v>2877</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
@@ -28425,62 +28491,62 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>2870</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>2871</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>2872</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>2873</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>2874</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>2875</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>2876</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>2877</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>2878</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>2879</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>2880</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>2881</v>
+        <v>2889</v>
       </c>
       <c r="B32" t="s">
         <v>60</v>
@@ -28488,32 +28554,32 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>2882</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>2883</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>2884</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>2885</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>2886</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>2887</v>
+        <v>2895</v>
       </c>
       <c r="B38" t="s">
         <v>60</v>
@@ -28521,7 +28587,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>2888</v>
+        <v>2896</v>
       </c>
       <c r="B39" t="s">
         <v>60</v>
@@ -28529,77 +28595,77 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>2889</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>2890</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>2891</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>2892</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>2893</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>2894</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>2895</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>2896</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>2897</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>2898</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>2899</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>2900</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>2901</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>2902</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>2903</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -28609,57 +28675,57 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>2904</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>2905</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>2906</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>2907</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>2908</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>2909</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>2910</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>2911</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>2912</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>2913</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>2914</v>
+        <v>2922</v>
       </c>
       <c r="B66" t="s">
         <v>60</v>
@@ -28667,27 +28733,27 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>2915</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>2916</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>2917</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>2918</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>2919</v>
+        <v>2927</v>
       </c>
       <c r="B71" t="s">
         <v>64</v>
@@ -28695,32 +28761,32 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>2920</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>2921</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>2922</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>2923</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>2924</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>2925</v>
+        <v>2933</v>
       </c>
       <c r="B77" t="s">
         <v>60</v>
@@ -28728,27 +28794,27 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>2926</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>2927</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>2928</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>2929</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>2930</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -28771,7 +28837,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>2931</v>
+        <v>2939</v>
       </c>
       <c r="B86" t="s">
         <v>60</v>
@@ -28794,7 +28860,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>2932</v>
+        <v>2940</v>
       </c>
       <c r="B90" t="s">
         <v>60</v>
@@ -28802,7 +28868,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>2933</v>
+        <v>2941</v>
       </c>
       <c r="B91" t="s">
         <v>60</v>
@@ -28810,95 +28876,95 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>2934</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>2935</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>2936</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>2937</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>2938</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>2939</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>2940</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>2941</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>2942</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>2943</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>2944</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>2945</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>2946</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>2947</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>2948</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>2949</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>2950</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>2951</v>
+        <v>2959</v>
       </c>
       <c r="B109" t="s">
-        <v>2952</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="110" spans="1:1">
@@ -28908,27 +28974,27 @@
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>2953</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>2954</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>2955</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>2956</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>2957</v>
+        <v>2965</v>
       </c>
       <c r="B115" t="s">
         <v>60</v>
@@ -28936,22 +29002,22 @@
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>2958</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>2959</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>2960</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>2961</v>
+        <v>2969</v>
       </c>
       <c r="B119" t="s">
         <v>64</v>
@@ -28959,7 +29025,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>2962</v>
+        <v>2970</v>
       </c>
       <c r="B120" t="s">
         <v>60</v>
@@ -28967,107 +29033,107 @@
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>2963</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>2964</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>2965</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>2966</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>2967</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>2968</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>2969</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>2970</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>2971</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>2972</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>2973</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>2974</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>2975</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>2976</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>2977</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>2978</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>2979</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>2980</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>2981</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>2982</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>2983</v>
+        <v>2991</v>
       </c>
       <c r="B141" t="s">
         <v>60</v>
@@ -29075,12 +29141,12 @@
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>2984</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>2985</v>
+        <v>2993</v>
       </c>
       <c r="B143" t="s">
         <v>1845</v>
@@ -29088,7 +29154,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>2986</v>
+        <v>2994</v>
       </c>
       <c r="B144" t="s">
         <v>60</v>
@@ -29096,47 +29162,47 @@
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>2987</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>2988</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>2989</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>2990</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>2991</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>2992</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>2993</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>2994</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>2995</v>
+        <v>3003</v>
       </c>
       <c r="B153" t="s">
         <v>60</v>
@@ -29144,17 +29210,17 @@
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>2996</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>2997</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>2998</v>
+        <v>3006</v>
       </c>
       <c r="B156" t="s">
         <v>64</v>
@@ -29162,42 +29228,42 @@
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>2999</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>3001</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>3002</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>3003</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>3004</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>3005</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>3006</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="165" spans="1:1">
@@ -29207,7 +29273,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>3007</v>
+        <v>3015</v>
       </c>
       <c r="B166" t="s">
         <v>60</v>
@@ -29215,37 +29281,37 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>3008</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>3009</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>3010</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>3011</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>3012</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>3013</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>3014</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="174" spans="1:1">
@@ -29255,17 +29321,17 @@
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>3015</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>3016</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>3017</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="178" spans="1:1">
@@ -29275,12 +29341,12 @@
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>3018</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>3019</v>
+        <v>3027</v>
       </c>
       <c r="B180" t="s">
         <v>64</v>
@@ -29288,12 +29354,12 @@
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>3020</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>3021</v>
+        <v>3029</v>
       </c>
       <c r="B182" t="s">
         <v>60</v>
@@ -29301,30 +29367,30 @@
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>3022</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>3023</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>3024</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>3025</v>
+        <v>3033</v>
       </c>
       <c r="B186" t="s">
-        <v>3026</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>3027</v>
+        <v>3035</v>
       </c>
       <c r="B187" t="s">
         <v>64</v>
@@ -29332,52 +29398,52 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>3028</v>
+        <v>3036</v>
       </c>
       <c r="B188" t="s">
-        <v>3029</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>3030</v>
+        <v>3038</v>
       </c>
       <c r="B189" t="s">
-        <v>3031</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>3032</v>
+        <v>3040</v>
       </c>
       <c r="B190" t="s">
-        <v>3029</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>3033</v>
+        <v>3041</v>
       </c>
       <c r="B191" t="s">
-        <v>3034</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>3035</v>
+        <v>3043</v>
       </c>
       <c r="B192" t="s">
-        <v>3036</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>3037</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>3038</v>
+        <v>3046</v>
       </c>
       <c r="B194" t="s">
         <v>60</v>
@@ -29385,23 +29451,23 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>3039</v>
+        <v>3047</v>
       </c>
       <c r="B195" t="s">
-        <v>3034</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>3040</v>
+        <v>3048</v>
       </c>
       <c r="B196" t="s">
-        <v>3034</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>3041</v>
+        <v>3049</v>
       </c>
       <c r="B197" t="s">
         <v>60</v>
@@ -29409,25 +29475,25 @@
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>3042</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>3043</v>
+        <v>3051</v>
       </c>
       <c r="B199" t="s">
-        <v>3044</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>3045</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>3046</v>
+        <v>3054</v>
       </c>
       <c r="B201" t="s">
         <v>64</v>
@@ -29435,55 +29501,55 @@
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>3047</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>3048</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>3049</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>3050</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>3051</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>3052</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>3053</v>
+        <v>3061</v>
       </c>
       <c r="B208" t="s">
-        <v>3054</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>3055</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>3056</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>3057</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -29496,17 +29562,17 @@
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>3058</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>3059</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>3060</v>
+        <v>3068</v>
       </c>
       <c r="B215" t="s">
         <v>64</v>
@@ -29514,27 +29580,27 @@
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>3061</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>3062</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>3063</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>3064</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>3065</v>
+        <v>3073</v>
       </c>
       <c r="B220" t="s">
         <v>64</v>
@@ -29542,87 +29608,87 @@
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>3066</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>3067</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>3068</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>3069</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>3070</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>3071</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>3072</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>3073</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>3074</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>3075</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>3076</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>3077</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>3078</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>3079</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>3080</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>3081</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>3082</v>
+        <v>3090</v>
       </c>
       <c r="B237" t="s">
         <v>407</v>
@@ -29630,21 +29696,21 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>3083</v>
+        <v>3091</v>
       </c>
       <c r="B238" t="s">
         <v>1228</v>
       </c>
       <c r="C238" t="s">
-        <v>3084</v>
+        <v>3092</v>
       </c>
       <c r="D238" t="s">
-        <v>3085</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>3086</v>
+        <v>3094</v>
       </c>
       <c r="B239" t="s">
         <v>60</v>
@@ -29652,32 +29718,32 @@
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>3087</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>3088</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>3089</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>3090</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>3091</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>3092</v>
+        <v>3100</v>
       </c>
       <c r="B245" t="s">
         <v>64</v>
@@ -29685,7 +29751,7 @@
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>3093</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="247" spans="1:1">
@@ -29695,12 +29761,12 @@
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>3094</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>3095</v>
+        <v>3103</v>
       </c>
       <c r="B249" t="s">
         <v>64</v>
@@ -29708,7 +29774,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>3096</v>
+        <v>3104</v>
       </c>
       <c r="B250" t="s">
         <v>60</v>
@@ -29716,17 +29782,17 @@
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>3097</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>3098</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>3099</v>
+        <v>3107</v>
       </c>
       <c r="B253" t="s">
         <v>60</v>
@@ -29734,7 +29800,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>3100</v>
+        <v>3108</v>
       </c>
       <c r="B254" t="s">
         <v>1845</v>
@@ -29742,22 +29808,22 @@
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>3101</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>3102</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>3103</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>3104</v>
+        <v>3112</v>
       </c>
       <c r="B258" t="s">
         <v>137</v>
@@ -29765,7 +29831,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>3105</v>
+        <v>3113</v>
       </c>
       <c r="B259" t="s">
         <v>64</v>
@@ -29773,7 +29839,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>3106</v>
+        <v>3114</v>
       </c>
       <c r="B260" t="s">
         <v>137</v>
@@ -29781,27 +29847,27 @@
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>3107</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>3108</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>3109</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>3110</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>3111</v>
+        <v>3119</v>
       </c>
       <c r="B265" t="s">
         <v>64</v>
@@ -29809,7 +29875,7 @@
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>3112</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="267" spans="1:1">
@@ -29819,17 +29885,17 @@
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>3113</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>3114</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>3115</v>
+        <v>3123</v>
       </c>
       <c r="B270" t="s">
         <v>60</v>
@@ -29837,32 +29903,32 @@
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>3116</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>3117</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>3118</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>3119</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>3120</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>3121</v>
+        <v>3129</v>
       </c>
       <c r="B276" t="s">
         <v>1845</v>
@@ -29870,33 +29936,33 @@
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>3122</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>3123</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>3124</v>
+        <v>3132</v>
       </c>
       <c r="B279" t="s">
         <v>60</v>
       </c>
       <c r="C279" t="s">
-        <v>3125</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>3126</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>3127</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="282" spans="1:1">
@@ -29906,7 +29972,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>3128</v>
+        <v>3136</v>
       </c>
       <c r="B283" t="s">
         <v>60</v>
@@ -29953,12 +30019,12 @@
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>3129</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>3130</v>
+        <v>3138</v>
       </c>
       <c r="B291" t="s">
         <v>60</v>
@@ -29966,27 +30032,27 @@
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>3131</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>3132</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>3133</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>3134</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>3135</v>
+        <v>3143</v>
       </c>
       <c r="B296" t="s">
         <v>64</v>
@@ -29994,35 +30060,35 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>3136</v>
+        <v>3144</v>
       </c>
       <c r="B297" t="s">
-        <v>3137</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>3138</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>3139</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>3140</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>3141</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>3142</v>
+        <v>3150</v>
       </c>
       <c r="B302" t="s">
         <v>137</v>
@@ -30030,7 +30096,7 @@
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>3143</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="304" spans="1:1">
@@ -30040,7 +30106,7 @@
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>3144</v>
+        <v>3152</v>
       </c>
     </row>
   </sheetData>
@@ -30062,381 +30128,381 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>3145</v>
+        <v>3153</v>
       </c>
       <c r="C1" t="s">
-        <v>3146</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3147</v>
+        <v>3155</v>
       </c>
       <c r="B2" t="s">
-        <v>3148</v>
+        <v>3156</v>
       </c>
       <c r="C2" t="s">
-        <v>3149</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>3150</v>
+        <v>3158</v>
       </c>
       <c r="C3" t="s">
-        <v>3151</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>3152</v>
+        <v>3160</v>
       </c>
       <c r="C4" t="s">
-        <v>3153</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>3154</v>
+        <v>3162</v>
       </c>
       <c r="C5" t="s">
-        <v>3155</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>3156</v>
+        <v>3164</v>
       </c>
       <c r="C6" t="s">
-        <v>3157</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>3158</v>
+        <v>3166</v>
       </c>
       <c r="C7" t="s">
-        <v>3159</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>3160</v>
+        <v>3168</v>
       </c>
       <c r="C8" t="s">
-        <v>3161</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>3162</v>
+        <v>3170</v>
       </c>
       <c r="C9" t="s">
-        <v>3163</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>3164</v>
+        <v>3172</v>
       </c>
       <c r="C10" t="s">
-        <v>3165</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>3166</v>
+        <v>3174</v>
       </c>
       <c r="C11" t="s">
-        <v>3167</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>3168</v>
+        <v>3176</v>
       </c>
       <c r="C12" t="s">
-        <v>3169</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>3170</v>
+        <v>3178</v>
       </c>
       <c r="C13" t="s">
-        <v>3171</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>3172</v>
+        <v>3180</v>
       </c>
       <c r="C14" t="s">
-        <v>3173</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>3174</v>
+        <v>3182</v>
       </c>
       <c r="C15" t="s">
-        <v>3175</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>3176</v>
+        <v>3184</v>
       </c>
       <c r="C16" t="s">
-        <v>3175</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>3177</v>
+        <v>3185</v>
       </c>
       <c r="C17" t="s">
-        <v>3178</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>3179</v>
+        <v>3187</v>
       </c>
       <c r="C18" t="s">
-        <v>3180</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>3181</v>
+        <v>3189</v>
       </c>
       <c r="C19" t="s">
-        <v>3182</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>3183</v>
+        <v>3191</v>
       </c>
       <c r="C20" t="s">
-        <v>3184</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>3185</v>
+        <v>3193</v>
       </c>
       <c r="C21" t="s">
-        <v>3186</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>3187</v>
+        <v>3195</v>
       </c>
       <c r="C22" t="s">
-        <v>3188</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>3189</v>
+        <v>3197</v>
       </c>
       <c r="C23" t="s">
-        <v>3190</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>3191</v>
+        <v>3199</v>
       </c>
       <c r="C24" t="s">
-        <v>3192</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>3193</v>
+        <v>3201</v>
       </c>
       <c r="C25" t="s">
-        <v>3194</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>3195</v>
+        <v>3203</v>
       </c>
       <c r="C26" t="s">
-        <v>3196</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>3197</v>
+        <v>3205</v>
       </c>
       <c r="C27" t="s">
-        <v>3198</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>3199</v>
+        <v>3207</v>
       </c>
       <c r="C28" t="s">
-        <v>3200</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>3201</v>
+        <v>3209</v>
       </c>
       <c r="C29" t="s">
-        <v>3202</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>3203</v>
+        <v>3211</v>
       </c>
       <c r="C30" t="s">
-        <v>3204</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>3205</v>
+        <v>3213</v>
       </c>
       <c r="C31" t="s">
-        <v>3206</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>3207</v>
+        <v>3215</v>
       </c>
       <c r="C32" t="s">
-        <v>3208</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>3209</v>
+        <v>3217</v>
       </c>
       <c r="C33" t="s">
-        <v>3210</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>3211</v>
+        <v>3219</v>
       </c>
       <c r="C34" t="s">
-        <v>3212</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>3213</v>
+        <v>3221</v>
       </c>
       <c r="C35" t="s">
-        <v>3214</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>3215</v>
+        <v>3223</v>
       </c>
       <c r="C36" t="s">
-        <v>3216</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>3217</v>
+        <v>3225</v>
       </c>
       <c r="C37" t="s">
-        <v>3218</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>3219</v>
+        <v>3227</v>
       </c>
       <c r="C38" t="s">
-        <v>3220</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>3221</v>
+        <v>3229</v>
       </c>
       <c r="C39" t="s">
-        <v>3222</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>3223</v>
+        <v>3231</v>
       </c>
       <c r="C40" t="s">
-        <v>3224</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>3225</v>
+        <v>3233</v>
       </c>
       <c r="C41" t="s">
-        <v>3226</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>3227</v>
+        <v>3235</v>
       </c>
       <c r="C42" t="s">
-        <v>3228</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>3229</v>
+        <v>3237</v>
       </c>
       <c r="C43" t="s">
-        <v>3230</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>3231</v>
+        <v>3239</v>
       </c>
       <c r="C44" t="s">
-        <v>3232</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
-        <v>3233</v>
+        <v>3241</v>
       </c>
       <c r="C45" t="s">
-        <v>3234</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>3235</v>
+        <v>3243</v>
       </c>
       <c r="C46" t="s">
-        <v>3236</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" t="s">
-        <v>3237</v>
+        <v>3245</v>
       </c>
       <c r="C47" t="s">
-        <v>3238</v>
+        <v>3246</v>
       </c>
     </row>
   </sheetData>
@@ -30458,10 +30524,10 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>3239</v>
+        <v>3247</v>
       </c>
       <c r="C1" t="s">
-        <v>3240</v>
+        <v>3248</v>
       </c>
     </row>
   </sheetData>
@@ -30483,7 +30549,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>3241</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -30520,112 +30586,112 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>3242</v>
+        <v>3250</v>
       </c>
       <c r="C1" t="s">
-        <v>3243</v>
+        <v>3251</v>
       </c>
       <c r="D1" t="s">
-        <v>3244</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3245</v>
+        <v>3253</v>
       </c>
       <c r="B2" t="s">
         <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>3246</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3247</v>
+        <v>3255</v>
       </c>
       <c r="B3" t="s">
         <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>3248</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3249</v>
+        <v>3257</v>
       </c>
       <c r="B4" t="s">
         <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>3250</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3251</v>
+        <v>3259</v>
       </c>
       <c r="B5" t="s">
         <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>3252</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3253</v>
+        <v>3261</v>
       </c>
       <c r="B6" t="s">
         <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>3254</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3255</v>
+        <v>3263</v>
       </c>
       <c r="B7" t="s">
         <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>3256</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3257</v>
+        <v>3265</v>
       </c>
       <c r="B8" t="s">
         <v>164</v>
       </c>
       <c r="C8" t="s">
-        <v>3258</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3259</v>
+        <v>3267</v>
       </c>
       <c r="B9" t="s">
         <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>3260</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>3261</v>
+        <v>3269</v>
       </c>
       <c r="B10" t="s">
         <v>164</v>
       </c>
       <c r="C10" t="s">
-        <v>3262</v>
+        <v>3270</v>
       </c>
       <c r="D10" t="s">
         <v>60</v>
@@ -30633,101 +30699,101 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3263</v>
+        <v>3271</v>
       </c>
       <c r="B11" t="s">
         <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>3264</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>3265</v>
+        <v>3273</v>
       </c>
       <c r="B12" t="s">
         <v>164</v>
       </c>
       <c r="C12" t="s">
-        <v>3266</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>3267</v>
+        <v>3275</v>
       </c>
       <c r="B13" t="s">
         <v>164</v>
       </c>
       <c r="C13" t="s">
-        <v>3268</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>3269</v>
+        <v>3277</v>
       </c>
       <c r="B14" t="s">
         <v>164</v>
       </c>
       <c r="C14" t="s">
-        <v>3270</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3271</v>
+        <v>3279</v>
       </c>
       <c r="B15" t="s">
         <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>3272</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3273</v>
+        <v>3281</v>
       </c>
       <c r="B16" t="s">
         <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>3274</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>3275</v>
+        <v>3283</v>
       </c>
       <c r="B17" t="s">
         <v>164</v>
       </c>
       <c r="C17" t="s">
-        <v>3276</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>3277</v>
+        <v>3285</v>
       </c>
       <c r="B18" t="s">
         <v>164</v>
       </c>
       <c r="C18" t="s">
-        <v>3278</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>3279</v>
+        <v>3287</v>
       </c>
       <c r="B19" t="s">
         <v>164</v>
       </c>
       <c r="C19" t="s">
-        <v>3280</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -30738,7 +30804,7 @@
         <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>3281</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -30749,62 +30815,62 @@
         <v>164</v>
       </c>
       <c r="C21" t="s">
-        <v>3282</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3283</v>
+        <v>3291</v>
       </c>
       <c r="B22" t="s">
         <v>164</v>
       </c>
       <c r="C22" t="s">
-        <v>3284</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>3285</v>
+        <v>3293</v>
       </c>
       <c r="B23" t="s">
         <v>164</v>
       </c>
       <c r="C23" t="s">
-        <v>3286</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>3287</v>
+        <v>3295</v>
       </c>
       <c r="B24" t="s">
         <v>164</v>
       </c>
       <c r="C24" t="s">
-        <v>3288</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3289</v>
+        <v>3297</v>
       </c>
       <c r="B25" t="s">
         <v>164</v>
       </c>
       <c r="C25" t="s">
-        <v>3290</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>3291</v>
+        <v>3299</v>
       </c>
       <c r="B26" t="s">
         <v>164</v>
       </c>
       <c r="C26" t="s">
-        <v>3292</v>
+        <v>3300</v>
       </c>
       <c r="D26" t="s">
         <v>60</v>
@@ -30812,35 +30878,35 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>3293</v>
+        <v>3301</v>
       </c>
       <c r="B27" t="s">
         <v>164</v>
       </c>
       <c r="C27" t="s">
-        <v>3294</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>3295</v>
+        <v>3303</v>
       </c>
       <c r="B28" t="s">
         <v>164</v>
       </c>
       <c r="C28" t="s">
-        <v>3296</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>3297</v>
+        <v>3305</v>
       </c>
       <c r="B29" t="s">
         <v>164</v>
       </c>
       <c r="C29" t="s">
-        <v>3298</v>
+        <v>3306</v>
       </c>
       <c r="D29" t="s">
         <v>60</v>
@@ -30848,68 +30914,68 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>3299</v>
+        <v>3307</v>
       </c>
       <c r="B30" t="s">
         <v>164</v>
       </c>
       <c r="C30" t="s">
-        <v>3300</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3301</v>
+        <v>3309</v>
       </c>
       <c r="B31" t="s">
         <v>164</v>
       </c>
       <c r="C31" t="s">
-        <v>3302</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>3303</v>
+        <v>3311</v>
       </c>
       <c r="B32" t="s">
         <v>164</v>
       </c>
       <c r="C32" t="s">
-        <v>3304</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>3305</v>
+        <v>3313</v>
       </c>
       <c r="B33" t="s">
         <v>164</v>
       </c>
       <c r="C33" t="s">
-        <v>3306</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="B34" t="s">
         <v>164</v>
       </c>
       <c r="C34" t="s">
-        <v>3308</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>3309</v>
+        <v>3317</v>
       </c>
       <c r="B35" t="s">
         <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>3310</v>
+        <v>3318</v>
       </c>
       <c r="D35" t="s">
         <v>60</v>
@@ -30917,57 +30983,57 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>3311</v>
+        <v>3319</v>
       </c>
       <c r="B36" t="s">
         <v>164</v>
       </c>
       <c r="C36" t="s">
-        <v>3312</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>3313</v>
+        <v>3321</v>
       </c>
       <c r="B37" t="s">
         <v>164</v>
       </c>
       <c r="C37" t="s">
-        <v>3314</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>3315</v>
+        <v>3323</v>
       </c>
       <c r="B38" t="s">
         <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>3316</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>3317</v>
+        <v>3325</v>
       </c>
       <c r="B39" t="s">
         <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>3318</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>3319</v>
+        <v>3327</v>
       </c>
       <c r="B40" t="s">
         <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>3320</v>
+        <v>3328</v>
       </c>
       <c r="D40" t="s">
         <v>60</v>
@@ -30975,13 +31041,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>3321</v>
+        <v>3329</v>
       </c>
       <c r="B41" t="s">
         <v>164</v>
       </c>
       <c r="C41" t="s">
-        <v>3320</v>
+        <v>3328</v>
       </c>
       <c r="D41" t="s">
         <v>407</v>
@@ -30989,68 +31055,68 @@
     </row>
     <row r="42" ht="18.75" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>3322</v>
+        <v>3330</v>
       </c>
       <c r="B42" t="s">
         <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>3323</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>3324</v>
+        <v>3332</v>
       </c>
       <c r="B43" t="s">
         <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>3325</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>3326</v>
+        <v>3334</v>
       </c>
       <c r="B44" t="s">
         <v>164</v>
       </c>
       <c r="C44" t="s">
-        <v>3327</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>3328</v>
+        <v>3336</v>
       </c>
       <c r="B45" t="s">
         <v>164</v>
       </c>
       <c r="C45" t="s">
-        <v>3329</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>3330</v>
+        <v>3338</v>
       </c>
       <c r="B46" t="s">
         <v>164</v>
       </c>
       <c r="C46" t="s">
-        <v>3331</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>3332</v>
+        <v>3340</v>
       </c>
       <c r="B47" t="s">
         <v>164</v>
       </c>
       <c r="C47" t="s">
-        <v>3331</v>
+        <v>3339</v>
       </c>
       <c r="D47" t="s">
         <v>60</v>
@@ -31058,123 +31124,123 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>3333</v>
+        <v>3341</v>
       </c>
       <c r="B48" t="s">
         <v>164</v>
       </c>
       <c r="C48" t="s">
-        <v>3334</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>3335</v>
+        <v>3343</v>
       </c>
       <c r="B49" t="s">
         <v>164</v>
       </c>
       <c r="C49" t="s">
-        <v>3336</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>3337</v>
+        <v>3345</v>
       </c>
       <c r="B50" t="s">
         <v>164</v>
       </c>
       <c r="C50" t="s">
-        <v>3338</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>3339</v>
+        <v>3347</v>
       </c>
       <c r="B51" t="s">
         <v>164</v>
       </c>
       <c r="C51" t="s">
-        <v>3340</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>3341</v>
+        <v>3349</v>
       </c>
       <c r="B52" t="s">
         <v>164</v>
       </c>
       <c r="C52" t="s">
-        <v>3342</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>3343</v>
+        <v>3351</v>
       </c>
       <c r="B53" t="s">
         <v>164</v>
       </c>
       <c r="C53" t="s">
-        <v>3344</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>3345</v>
+        <v>3353</v>
       </c>
       <c r="B54" t="s">
         <v>164</v>
       </c>
       <c r="C54" t="s">
-        <v>3346</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>3347</v>
+        <v>3355</v>
       </c>
       <c r="B55" t="s">
         <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>3348</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>3349</v>
+        <v>3357</v>
       </c>
       <c r="B56" t="s">
         <v>164</v>
       </c>
       <c r="C56" t="s">
-        <v>3350</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>3351</v>
+        <v>3359</v>
       </c>
       <c r="B57" t="s">
         <v>164</v>
       </c>
       <c r="C57" t="s">
-        <v>3352</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>3353</v>
+        <v>3361</v>
       </c>
       <c r="B58" t="s">
         <v>164</v>
       </c>
       <c r="C58" t="s">
-        <v>3354</v>
+        <v>3362</v>
       </c>
       <c r="D58" t="s">
         <v>60</v>
@@ -31182,13 +31248,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>3355</v>
+        <v>3363</v>
       </c>
       <c r="B59" t="s">
         <v>164</v>
       </c>
       <c r="C59" t="s">
-        <v>3356</v>
+        <v>3364</v>
       </c>
       <c r="D59" t="s">
         <v>60</v>
@@ -31196,7 +31262,7 @@
     </row>
     <row r="60" ht="18.75" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>3357</v>
+        <v>3365</v>
       </c>
       <c r="B60" t="s">
         <v>164</v>
@@ -31210,18 +31276,18 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>3358</v>
+        <v>3366</v>
       </c>
       <c r="B61" t="s">
         <v>164</v>
       </c>
       <c r="C61" t="s">
-        <v>3359</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>3360</v>
+        <v>3368</v>
       </c>
       <c r="B62" t="s">
         <v>164</v>

--- a/編碼修改記錄.xlsx
+++ b/編碼修改記錄.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3434">
   <si>
     <t>汉字</t>
   </si>
@@ -8720,6 +8720,78 @@
   </si>
   <si>
     <t>yshi</t>
+  </si>
+  <si>
+    <t>鶸</t>
+  </si>
+  <si>
+    <t>nhnhf</t>
+  </si>
+  <si>
+    <t>弱</t>
+  </si>
+  <si>
+    <t>nhnhh</t>
+  </si>
+  <si>
+    <t>榒</t>
+  </si>
+  <si>
+    <t>dnhh</t>
+  </si>
+  <si>
+    <t>溺</t>
+  </si>
+  <si>
+    <t>enhh</t>
+  </si>
+  <si>
+    <t>糑</t>
+  </si>
+  <si>
+    <t>fdnhh</t>
+  </si>
+  <si>
+    <t>篛</t>
+  </si>
+  <si>
+    <t>hnhh</t>
+  </si>
+  <si>
+    <t>鰯</t>
+  </si>
+  <si>
+    <t>nfnhh</t>
+  </si>
+  <si>
+    <t>愵</t>
+  </si>
+  <si>
+    <t>pnhh</t>
+  </si>
+  <si>
+    <t>搦</t>
+  </si>
+  <si>
+    <t>qnhh</t>
+  </si>
+  <si>
+    <t>蒻</t>
+  </si>
+  <si>
+    <t>tnhh</t>
+  </si>
+  <si>
+    <t>嵶</t>
+  </si>
+  <si>
+    <t>unhh</t>
+  </si>
+  <si>
+    <t>嫋</t>
+  </si>
+  <si>
+    <t>vnhh</t>
   </si>
   <si>
     <t>是否重碼</t>
@@ -10284,8 +10356,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10306,33 +10431,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10344,22 +10447,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -10375,11 +10462,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10390,31 +10477,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -10430,73 +10502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10514,7 +10520,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10526,13 +10592,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10550,19 +10634,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10574,43 +10664,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10624,11 +10696,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10650,59 +10743,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10721,6 +10764,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -10729,10 +10801,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10741,133 +10813,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11199,8 +11271,8 @@
   <sheetPr/>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -11925,10 +11997,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F1472"/>
+  <dimension ref="A2:F1480"/>
   <sheetViews>
-    <sheetView topLeftCell="A1443" workbookViewId="0">
-      <selection activeCell="D1459" sqref="D1459"/>
+    <sheetView tabSelected="1" topLeftCell="A1458" workbookViewId="0">
+      <selection activeCell="C1471" sqref="C1471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -28766,68 +28838,183 @@
         <v>64</v>
       </c>
     </row>
-    <row r="1460" spans="2:2">
+    <row r="1460" spans="1:3">
+      <c r="A1460" t="s">
+        <v>2900</v>
+      </c>
       <c r="B1460" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="1461" spans="2:2">
+      <c r="C1460" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:4">
+      <c r="A1461" t="s">
+        <v>2902</v>
+      </c>
       <c r="B1461" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="1462" spans="2:2">
+      <c r="C1461" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D1461" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:3">
+      <c r="A1462" t="s">
+        <v>2904</v>
+      </c>
       <c r="B1462" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="1463" spans="2:2">
+      <c r="C1462" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:3">
+      <c r="A1463" t="s">
+        <v>2906</v>
+      </c>
       <c r="B1463" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="1464" spans="2:2">
+      <c r="C1463" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:3">
+      <c r="A1464" t="s">
+        <v>2908</v>
+      </c>
       <c r="B1464" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="1465" spans="2:2">
+      <c r="C1464" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:3">
+      <c r="A1465" t="s">
+        <v>2910</v>
+      </c>
       <c r="B1465" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="1466" spans="2:2">
+      <c r="C1465" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:3">
+      <c r="A1466" t="s">
+        <v>2912</v>
+      </c>
       <c r="B1466" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="1467" spans="2:2">
+      <c r="C1466" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:3">
+      <c r="A1467" t="s">
+        <v>2914</v>
+      </c>
       <c r="B1467" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="1468" spans="2:2">
+      <c r="C1467" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:3">
+      <c r="A1468" t="s">
+        <v>2916</v>
+      </c>
       <c r="B1468" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="1469" spans="2:2">
+      <c r="C1468" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:3">
+      <c r="A1469" t="s">
+        <v>2918</v>
+      </c>
       <c r="B1469" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="1470" spans="2:2">
+      <c r="C1469" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:3">
+      <c r="A1470" t="s">
+        <v>2920</v>
+      </c>
       <c r="B1470" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="1471" spans="2:2">
+      <c r="C1470" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:3">
+      <c r="A1471" t="s">
+        <v>2922</v>
+      </c>
       <c r="B1471" t="s">
         <v>167</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>2923</v>
       </c>
     </row>
     <row r="1472" spans="2:2">
       <c r="B1472" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1473" spans="2:2">
+      <c r="B1473" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1474" spans="2:2">
+      <c r="B1474" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1475" spans="2:2">
+      <c r="B1475" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1476" spans="2:2">
+      <c r="B1476" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1477" spans="2:2">
+      <c r="B1477" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1478" spans="2:2">
+      <c r="B1478" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1479" spans="2:2">
+      <c r="B1479" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1480" spans="2:2">
+      <c r="B1480" t="s">
         <v>167</v>
       </c>
     </row>
@@ -28851,30 +29038,30 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>2900</v>
+        <v>2924</v>
       </c>
       <c r="C1" t="s">
-        <v>2901</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>2902</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2903</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>2904</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>2905</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -28884,72 +29071,72 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>2906</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>2907</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>2908</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>2909</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>2910</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>2911</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>2912</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>2913</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>2914</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>2915</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>2916</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>2917</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>2918</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>2919</v>
+        <v>2943</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
@@ -28957,62 +29144,62 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>2920</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>2921</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>2922</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>2923</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>2924</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>2925</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>2926</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>2927</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>2928</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>2929</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>2930</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>2931</v>
+        <v>2955</v>
       </c>
       <c r="B32" t="s">
         <v>60</v>
@@ -29020,32 +29207,32 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>2932</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>2933</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>2934</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>2935</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>2936</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>2937</v>
+        <v>2961</v>
       </c>
       <c r="B38" t="s">
         <v>60</v>
@@ -29053,7 +29240,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>2938</v>
+        <v>2962</v>
       </c>
       <c r="B39" t="s">
         <v>60</v>
@@ -29061,77 +29248,77 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>2939</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>2940</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>2941</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>2942</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>2943</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>2944</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>2945</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>2946</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>2947</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>2948</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>2949</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>2950</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>2951</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>2952</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>2953</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -29141,57 +29328,57 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>2954</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>2955</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>2956</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>2957</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>2958</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>2959</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>2960</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>2961</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>2962</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>2963</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>2964</v>
+        <v>2988</v>
       </c>
       <c r="B66" t="s">
         <v>60</v>
@@ -29199,27 +29386,27 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>2965</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>2966</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>2967</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>2968</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>2969</v>
+        <v>2993</v>
       </c>
       <c r="B71" t="s">
         <v>64</v>
@@ -29227,32 +29414,32 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>2970</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>2971</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>2972</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>2973</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>2974</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>2975</v>
+        <v>2999</v>
       </c>
       <c r="B77" t="s">
         <v>60</v>
@@ -29260,27 +29447,27 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>2976</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>2977</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>2978</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>2979</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>2980</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -29303,7 +29490,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>2981</v>
+        <v>3005</v>
       </c>
       <c r="B86" t="s">
         <v>60</v>
@@ -29326,7 +29513,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>2982</v>
+        <v>3006</v>
       </c>
       <c r="B90" t="s">
         <v>60</v>
@@ -29334,7 +29521,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>2983</v>
+        <v>3007</v>
       </c>
       <c r="B91" t="s">
         <v>60</v>
@@ -29342,95 +29529,95 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>2984</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>2985</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>2986</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>2987</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>2988</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>2989</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>2990</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>2991</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>2992</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>2993</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>2994</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>2995</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>2996</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>2997</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>2998</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>2999</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>3000</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>3001</v>
+        <v>3025</v>
       </c>
       <c r="B109" t="s">
-        <v>3002</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="110" spans="1:1">
@@ -29440,27 +29627,27 @@
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>3003</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>3004</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>3005</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>3006</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>3007</v>
+        <v>3031</v>
       </c>
       <c r="B115" t="s">
         <v>60</v>
@@ -29468,22 +29655,22 @@
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>3008</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>3009</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>3010</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>3011</v>
+        <v>3035</v>
       </c>
       <c r="B119" t="s">
         <v>64</v>
@@ -29491,7 +29678,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>3012</v>
+        <v>3036</v>
       </c>
       <c r="B120" t="s">
         <v>60</v>
@@ -29499,107 +29686,107 @@
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>3013</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>3014</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>3015</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>3016</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>3017</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>3018</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>3019</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>3020</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>3021</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>3022</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>3023</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>3024</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>3025</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>3026</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>3027</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>3028</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>3029</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>3030</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>3031</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>3032</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>3033</v>
+        <v>3057</v>
       </c>
       <c r="B141" t="s">
         <v>60</v>
@@ -29607,12 +29794,12 @@
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>3034</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>3035</v>
+        <v>3059</v>
       </c>
       <c r="B143" t="s">
         <v>1848</v>
@@ -29620,7 +29807,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>3036</v>
+        <v>3060</v>
       </c>
       <c r="B144" t="s">
         <v>60</v>
@@ -29628,47 +29815,47 @@
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>3037</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>3038</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>3039</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>3040</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>3041</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>3042</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>3043</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>3044</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>3045</v>
+        <v>3069</v>
       </c>
       <c r="B153" t="s">
         <v>60</v>
@@ -29676,17 +29863,17 @@
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>3046</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>3047</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>3048</v>
+        <v>3072</v>
       </c>
       <c r="B156" t="s">
         <v>64</v>
@@ -29694,42 +29881,42 @@
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>3049</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>3050</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>3051</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>3052</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>3053</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>3054</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>3055</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>3056</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="165" spans="1:1">
@@ -29739,7 +29926,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>3057</v>
+        <v>3081</v>
       </c>
       <c r="B166" t="s">
         <v>60</v>
@@ -29747,37 +29934,37 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>3058</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>3059</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>3060</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>3061</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>3062</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>3063</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>3064</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="174" spans="1:1">
@@ -29787,17 +29974,17 @@
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>3065</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>3066</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>3067</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="178" spans="1:1">
@@ -29807,12 +29994,12 @@
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>3068</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>3069</v>
+        <v>3093</v>
       </c>
       <c r="B180" t="s">
         <v>64</v>
@@ -29820,12 +30007,12 @@
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>3070</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>3071</v>
+        <v>3095</v>
       </c>
       <c r="B182" t="s">
         <v>60</v>
@@ -29833,30 +30020,30 @@
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>3072</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>3073</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>3074</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>3075</v>
+        <v>3099</v>
       </c>
       <c r="B186" t="s">
-        <v>3076</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>3077</v>
+        <v>3101</v>
       </c>
       <c r="B187" t="s">
         <v>64</v>
@@ -29864,52 +30051,52 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>3078</v>
+        <v>3102</v>
       </c>
       <c r="B188" t="s">
-        <v>3079</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>3080</v>
+        <v>3104</v>
       </c>
       <c r="B189" t="s">
-        <v>3081</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>3082</v>
+        <v>3106</v>
       </c>
       <c r="B190" t="s">
-        <v>3079</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>3083</v>
+        <v>3107</v>
       </c>
       <c r="B191" t="s">
-        <v>3084</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>3085</v>
+        <v>3109</v>
       </c>
       <c r="B192" t="s">
-        <v>3086</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>3087</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>3088</v>
+        <v>3112</v>
       </c>
       <c r="B194" t="s">
         <v>60</v>
@@ -29917,23 +30104,23 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>3089</v>
+        <v>3113</v>
       </c>
       <c r="B195" t="s">
-        <v>3084</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>3090</v>
+        <v>3114</v>
       </c>
       <c r="B196" t="s">
-        <v>3084</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>3091</v>
+        <v>3115</v>
       </c>
       <c r="B197" t="s">
         <v>60</v>
@@ -29941,25 +30128,25 @@
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>3092</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>3093</v>
+        <v>3117</v>
       </c>
       <c r="B199" t="s">
-        <v>3094</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>3095</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>3096</v>
+        <v>3120</v>
       </c>
       <c r="B201" t="s">
         <v>64</v>
@@ -29967,55 +30154,55 @@
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>3097</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>3098</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>3099</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>3100</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>3101</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>3102</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>3103</v>
+        <v>3127</v>
       </c>
       <c r="B208" t="s">
-        <v>3104</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>3105</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>3106</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>3107</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -30028,17 +30215,17 @@
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>3108</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>3109</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>3110</v>
+        <v>3134</v>
       </c>
       <c r="B215" t="s">
         <v>64</v>
@@ -30046,27 +30233,27 @@
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>3111</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>3112</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>3113</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>3114</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>3115</v>
+        <v>3139</v>
       </c>
       <c r="B220" t="s">
         <v>64</v>
@@ -30074,87 +30261,87 @@
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>3116</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>3117</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>3118</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>3119</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>3120</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>3121</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>3122</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>3123</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>3124</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>3125</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>3126</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>3127</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>3128</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>3129</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>3130</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>3131</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>3132</v>
+        <v>3156</v>
       </c>
       <c r="B237" t="s">
         <v>410</v>
@@ -30162,21 +30349,21 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>3133</v>
+        <v>3157</v>
       </c>
       <c r="B238" t="s">
         <v>1231</v>
       </c>
       <c r="C238" t="s">
-        <v>3134</v>
+        <v>3158</v>
       </c>
       <c r="D238" t="s">
-        <v>3135</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>3136</v>
+        <v>3160</v>
       </c>
       <c r="B239" t="s">
         <v>60</v>
@@ -30184,32 +30371,32 @@
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>3137</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>3138</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>3139</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>3140</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>3141</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>3142</v>
+        <v>3166</v>
       </c>
       <c r="B245" t="s">
         <v>64</v>
@@ -30217,7 +30404,7 @@
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>3143</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="247" spans="1:1">
@@ -30227,12 +30414,12 @@
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>3144</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>3145</v>
+        <v>3169</v>
       </c>
       <c r="B249" t="s">
         <v>64</v>
@@ -30240,7 +30427,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>3146</v>
+        <v>3170</v>
       </c>
       <c r="B250" t="s">
         <v>60</v>
@@ -30248,17 +30435,17 @@
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>3147</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>3148</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>3149</v>
+        <v>3173</v>
       </c>
       <c r="B253" t="s">
         <v>60</v>
@@ -30266,7 +30453,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>3150</v>
+        <v>3174</v>
       </c>
       <c r="B254" t="s">
         <v>1848</v>
@@ -30274,22 +30461,22 @@
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>3151</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>3152</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>3153</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>3154</v>
+        <v>3178</v>
       </c>
       <c r="B258" t="s">
         <v>137</v>
@@ -30297,7 +30484,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>3155</v>
+        <v>3179</v>
       </c>
       <c r="B259" t="s">
         <v>64</v>
@@ -30305,7 +30492,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>3156</v>
+        <v>3180</v>
       </c>
       <c r="B260" t="s">
         <v>137</v>
@@ -30313,27 +30500,27 @@
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>3157</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>3158</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>3159</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>3160</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>3161</v>
+        <v>3185</v>
       </c>
       <c r="B265" t="s">
         <v>64</v>
@@ -30341,7 +30528,7 @@
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>3162</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="267" spans="1:1">
@@ -30351,17 +30538,17 @@
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>3163</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>3164</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>3165</v>
+        <v>3189</v>
       </c>
       <c r="B270" t="s">
         <v>60</v>
@@ -30369,32 +30556,32 @@
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>3166</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>3167</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>3168</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>3169</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>3170</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>3171</v>
+        <v>3195</v>
       </c>
       <c r="B276" t="s">
         <v>1848</v>
@@ -30402,28 +30589,28 @@
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>3172</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>3173</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>3174</v>
+        <v>3198</v>
       </c>
       <c r="B279" t="s">
         <v>60</v>
       </c>
       <c r="C279" t="s">
-        <v>3175</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>3176</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="281" spans="1:1">
@@ -30438,7 +30625,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>3177</v>
+        <v>3201</v>
       </c>
       <c r="B283" t="s">
         <v>60</v>
@@ -30485,12 +30672,12 @@
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>3178</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>3179</v>
+        <v>3203</v>
       </c>
       <c r="B291" t="s">
         <v>60</v>
@@ -30498,27 +30685,27 @@
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>3180</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>3181</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>3182</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>3183</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>3184</v>
+        <v>3208</v>
       </c>
       <c r="B296" t="s">
         <v>64</v>
@@ -30526,35 +30713,35 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>3185</v>
+        <v>3209</v>
       </c>
       <c r="B297" t="s">
-        <v>3186</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>3187</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>3188</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>3189</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>3190</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>3191</v>
+        <v>3215</v>
       </c>
       <c r="B302" t="s">
         <v>137</v>
@@ -30562,7 +30749,7 @@
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>3192</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="304" spans="1:1">
@@ -30572,7 +30759,7 @@
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>3193</v>
+        <v>3217</v>
       </c>
     </row>
   </sheetData>
@@ -30594,381 +30781,381 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>3194</v>
+        <v>3218</v>
       </c>
       <c r="C1" t="s">
-        <v>3195</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3196</v>
+        <v>3220</v>
       </c>
       <c r="B2" t="s">
-        <v>3197</v>
+        <v>3221</v>
       </c>
       <c r="C2" t="s">
-        <v>3198</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>3199</v>
+        <v>3223</v>
       </c>
       <c r="C3" t="s">
-        <v>3200</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>3201</v>
+        <v>3225</v>
       </c>
       <c r="C4" t="s">
-        <v>3202</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>3203</v>
+        <v>3227</v>
       </c>
       <c r="C5" t="s">
-        <v>3204</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>3205</v>
+        <v>3229</v>
       </c>
       <c r="C6" t="s">
-        <v>3206</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>3207</v>
+        <v>3231</v>
       </c>
       <c r="C7" t="s">
-        <v>3208</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>3209</v>
+        <v>3233</v>
       </c>
       <c r="C8" t="s">
-        <v>3210</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>3211</v>
+        <v>3235</v>
       </c>
       <c r="C9" t="s">
-        <v>3212</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>3213</v>
+        <v>3237</v>
       </c>
       <c r="C10" t="s">
-        <v>3214</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>3215</v>
+        <v>3239</v>
       </c>
       <c r="C11" t="s">
-        <v>3216</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>3217</v>
+        <v>3241</v>
       </c>
       <c r="C12" t="s">
-        <v>3218</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>3219</v>
+        <v>3243</v>
       </c>
       <c r="C13" t="s">
-        <v>3220</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>3221</v>
+        <v>3245</v>
       </c>
       <c r="C14" t="s">
-        <v>3222</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>3223</v>
+        <v>3247</v>
       </c>
       <c r="C15" t="s">
-        <v>3224</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>3225</v>
+        <v>3249</v>
       </c>
       <c r="C16" t="s">
-        <v>3224</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>3226</v>
+        <v>3250</v>
       </c>
       <c r="C17" t="s">
-        <v>3227</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>3228</v>
+        <v>3252</v>
       </c>
       <c r="C18" t="s">
-        <v>3229</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>3230</v>
+        <v>3254</v>
       </c>
       <c r="C19" t="s">
-        <v>3231</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>3232</v>
+        <v>3256</v>
       </c>
       <c r="C20" t="s">
-        <v>3233</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>3234</v>
+        <v>3258</v>
       </c>
       <c r="C21" t="s">
-        <v>3235</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>3236</v>
+        <v>3260</v>
       </c>
       <c r="C22" t="s">
-        <v>3237</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>3238</v>
+        <v>3262</v>
       </c>
       <c r="C23" t="s">
-        <v>3239</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>3240</v>
+        <v>3264</v>
       </c>
       <c r="C24" t="s">
-        <v>3241</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>3242</v>
+        <v>3266</v>
       </c>
       <c r="C25" t="s">
-        <v>3243</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>3244</v>
+        <v>3268</v>
       </c>
       <c r="C26" t="s">
-        <v>3245</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>3246</v>
+        <v>3270</v>
       </c>
       <c r="C27" t="s">
-        <v>3247</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>3248</v>
+        <v>3272</v>
       </c>
       <c r="C28" t="s">
-        <v>3249</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>3250</v>
+        <v>3274</v>
       </c>
       <c r="C29" t="s">
-        <v>3251</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>3252</v>
+        <v>3276</v>
       </c>
       <c r="C30" t="s">
-        <v>3253</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>3254</v>
+        <v>3278</v>
       </c>
       <c r="C31" t="s">
-        <v>3255</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>3256</v>
+        <v>3280</v>
       </c>
       <c r="C32" t="s">
-        <v>3257</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>3258</v>
+        <v>3282</v>
       </c>
       <c r="C33" t="s">
-        <v>3259</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>3260</v>
+        <v>3284</v>
       </c>
       <c r="C34" t="s">
-        <v>3261</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>3262</v>
+        <v>3286</v>
       </c>
       <c r="C35" t="s">
-        <v>3263</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>3264</v>
+        <v>3288</v>
       </c>
       <c r="C36" t="s">
-        <v>3265</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>3266</v>
+        <v>3290</v>
       </c>
       <c r="C37" t="s">
-        <v>3267</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>3268</v>
+        <v>3292</v>
       </c>
       <c r="C38" t="s">
-        <v>3269</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>3270</v>
+        <v>3294</v>
       </c>
       <c r="C39" t="s">
-        <v>3271</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>3272</v>
+        <v>3296</v>
       </c>
       <c r="C40" t="s">
-        <v>3273</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>3274</v>
+        <v>3298</v>
       </c>
       <c r="C41" t="s">
-        <v>3275</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>3276</v>
+        <v>3300</v>
       </c>
       <c r="C42" t="s">
-        <v>3277</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>3278</v>
+        <v>3302</v>
       </c>
       <c r="C43" t="s">
-        <v>3279</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>3280</v>
+        <v>3304</v>
       </c>
       <c r="C44" t="s">
-        <v>3281</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
-        <v>3282</v>
+        <v>3306</v>
       </c>
       <c r="C45" t="s">
-        <v>3283</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>3284</v>
+        <v>3308</v>
       </c>
       <c r="C46" t="s">
-        <v>3285</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" t="s">
-        <v>3286</v>
+        <v>3310</v>
       </c>
       <c r="C47" t="s">
-        <v>3287</v>
+        <v>3311</v>
       </c>
     </row>
   </sheetData>
@@ -30990,10 +31177,10 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>3288</v>
+        <v>3312</v>
       </c>
       <c r="C1" t="s">
-        <v>3289</v>
+        <v>3313</v>
       </c>
     </row>
   </sheetData>
@@ -31015,7 +31202,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>3290</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -31052,112 +31239,112 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>3291</v>
+        <v>3315</v>
       </c>
       <c r="C1" t="s">
-        <v>3292</v>
+        <v>3316</v>
       </c>
       <c r="D1" t="s">
-        <v>3293</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3294</v>
+        <v>3318</v>
       </c>
       <c r="B2" t="s">
         <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>3295</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3296</v>
+        <v>3320</v>
       </c>
       <c r="B3" t="s">
         <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>3297</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3298</v>
+        <v>3322</v>
       </c>
       <c r="B4" t="s">
         <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>3299</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3300</v>
+        <v>3324</v>
       </c>
       <c r="B5" t="s">
         <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>3301</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3302</v>
+        <v>3326</v>
       </c>
       <c r="B6" t="s">
         <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>3303</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3304</v>
+        <v>3328</v>
       </c>
       <c r="B7" t="s">
         <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>3305</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3306</v>
+        <v>3330</v>
       </c>
       <c r="B8" t="s">
         <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>3307</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3308</v>
+        <v>3332</v>
       </c>
       <c r="B9" t="s">
         <v>167</v>
       </c>
       <c r="C9" t="s">
-        <v>3309</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>3310</v>
+        <v>3334</v>
       </c>
       <c r="B10" t="s">
         <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>3311</v>
+        <v>3335</v>
       </c>
       <c r="D10" t="s">
         <v>60</v>
@@ -31165,101 +31352,101 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3312</v>
+        <v>3336</v>
       </c>
       <c r="B11" t="s">
         <v>167</v>
       </c>
       <c r="C11" t="s">
-        <v>3313</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>3314</v>
+        <v>3338</v>
       </c>
       <c r="B12" t="s">
         <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>3315</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>3316</v>
+        <v>3340</v>
       </c>
       <c r="B13" t="s">
         <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>3317</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>3318</v>
+        <v>3342</v>
       </c>
       <c r="B14" t="s">
         <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>3319</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3320</v>
+        <v>3344</v>
       </c>
       <c r="B15" t="s">
         <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>3321</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3322</v>
+        <v>3346</v>
       </c>
       <c r="B16" t="s">
         <v>167</v>
       </c>
       <c r="C16" t="s">
-        <v>3323</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>3324</v>
+        <v>3348</v>
       </c>
       <c r="B17" t="s">
         <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>3325</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>3326</v>
+        <v>3350</v>
       </c>
       <c r="B18" t="s">
         <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>3327</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>3328</v>
+        <v>3352</v>
       </c>
       <c r="B19" t="s">
         <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>3329</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -31270,7 +31457,7 @@
         <v>167</v>
       </c>
       <c r="C20" t="s">
-        <v>3330</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -31281,62 +31468,62 @@
         <v>167</v>
       </c>
       <c r="C21" t="s">
-        <v>3331</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3332</v>
+        <v>3356</v>
       </c>
       <c r="B22" t="s">
         <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>3333</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>3334</v>
+        <v>3358</v>
       </c>
       <c r="B23" t="s">
         <v>167</v>
       </c>
       <c r="C23" t="s">
-        <v>3335</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>3336</v>
+        <v>3360</v>
       </c>
       <c r="B24" t="s">
         <v>167</v>
       </c>
       <c r="C24" t="s">
-        <v>3337</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3338</v>
+        <v>3362</v>
       </c>
       <c r="B25" t="s">
         <v>167</v>
       </c>
       <c r="C25" t="s">
-        <v>3339</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>3340</v>
+        <v>3364</v>
       </c>
       <c r="B26" t="s">
         <v>167</v>
       </c>
       <c r="C26" t="s">
-        <v>3341</v>
+        <v>3365</v>
       </c>
       <c r="D26" t="s">
         <v>60</v>
@@ -31344,35 +31531,35 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>3342</v>
+        <v>3366</v>
       </c>
       <c r="B27" t="s">
         <v>167</v>
       </c>
       <c r="C27" t="s">
-        <v>3343</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>3344</v>
+        <v>3368</v>
       </c>
       <c r="B28" t="s">
         <v>167</v>
       </c>
       <c r="C28" t="s">
-        <v>3345</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>3346</v>
+        <v>3370</v>
       </c>
       <c r="B29" t="s">
         <v>167</v>
       </c>
       <c r="C29" t="s">
-        <v>3347</v>
+        <v>3371</v>
       </c>
       <c r="D29" t="s">
         <v>60</v>
@@ -31380,68 +31567,68 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>3348</v>
+        <v>3372</v>
       </c>
       <c r="B30" t="s">
         <v>167</v>
       </c>
       <c r="C30" t="s">
-        <v>3349</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3350</v>
+        <v>3374</v>
       </c>
       <c r="B31" t="s">
         <v>167</v>
       </c>
       <c r="C31" t="s">
-        <v>3351</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>3352</v>
+        <v>3376</v>
       </c>
       <c r="B32" t="s">
         <v>167</v>
       </c>
       <c r="C32" t="s">
-        <v>3353</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>3354</v>
+        <v>3378</v>
       </c>
       <c r="B33" t="s">
         <v>167</v>
       </c>
       <c r="C33" t="s">
-        <v>3355</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>3356</v>
+        <v>3380</v>
       </c>
       <c r="B34" t="s">
         <v>167</v>
       </c>
       <c r="C34" t="s">
-        <v>3357</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>3358</v>
+        <v>3382</v>
       </c>
       <c r="B35" t="s">
         <v>167</v>
       </c>
       <c r="C35" t="s">
-        <v>3359</v>
+        <v>3383</v>
       </c>
       <c r="D35" t="s">
         <v>60</v>
@@ -31449,57 +31636,57 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>3360</v>
+        <v>3384</v>
       </c>
       <c r="B36" t="s">
         <v>167</v>
       </c>
       <c r="C36" t="s">
-        <v>3361</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>3362</v>
+        <v>3386</v>
       </c>
       <c r="B37" t="s">
         <v>167</v>
       </c>
       <c r="C37" t="s">
-        <v>3363</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>3364</v>
+        <v>3388</v>
       </c>
       <c r="B38" t="s">
         <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>3365</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>3366</v>
+        <v>3390</v>
       </c>
       <c r="B39" t="s">
         <v>167</v>
       </c>
       <c r="C39" t="s">
-        <v>3367</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>3368</v>
+        <v>3392</v>
       </c>
       <c r="B40" t="s">
         <v>167</v>
       </c>
       <c r="C40" t="s">
-        <v>3369</v>
+        <v>3393</v>
       </c>
       <c r="D40" t="s">
         <v>60</v>
@@ -31507,13 +31694,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>3370</v>
+        <v>3394</v>
       </c>
       <c r="B41" t="s">
         <v>167</v>
       </c>
       <c r="C41" t="s">
-        <v>3369</v>
+        <v>3393</v>
       </c>
       <c r="D41" t="s">
         <v>410</v>
@@ -31521,68 +31708,68 @@
     </row>
     <row r="42" ht="18.75" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>3371</v>
+        <v>3395</v>
       </c>
       <c r="B42" t="s">
         <v>167</v>
       </c>
       <c r="C42" t="s">
-        <v>3372</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>3373</v>
+        <v>3397</v>
       </c>
       <c r="B43" t="s">
         <v>167</v>
       </c>
       <c r="C43" t="s">
-        <v>3374</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>3375</v>
+        <v>3399</v>
       </c>
       <c r="B44" t="s">
         <v>167</v>
       </c>
       <c r="C44" t="s">
-        <v>3376</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>3377</v>
+        <v>3401</v>
       </c>
       <c r="B45" t="s">
         <v>167</v>
       </c>
       <c r="C45" t="s">
-        <v>3378</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>3379</v>
+        <v>3403</v>
       </c>
       <c r="B46" t="s">
         <v>167</v>
       </c>
       <c r="C46" t="s">
-        <v>3380</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>3381</v>
+        <v>3405</v>
       </c>
       <c r="B47" t="s">
         <v>167</v>
       </c>
       <c r="C47" t="s">
-        <v>3380</v>
+        <v>3404</v>
       </c>
       <c r="D47" t="s">
         <v>60</v>
@@ -31590,123 +31777,123 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>3382</v>
+        <v>3406</v>
       </c>
       <c r="B48" t="s">
         <v>167</v>
       </c>
       <c r="C48" t="s">
-        <v>3383</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>3384</v>
+        <v>3408</v>
       </c>
       <c r="B49" t="s">
         <v>167</v>
       </c>
       <c r="C49" t="s">
-        <v>3385</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>3386</v>
+        <v>3410</v>
       </c>
       <c r="B50" t="s">
         <v>167</v>
       </c>
       <c r="C50" t="s">
-        <v>3387</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>3388</v>
+        <v>3412</v>
       </c>
       <c r="B51" t="s">
         <v>167</v>
       </c>
       <c r="C51" t="s">
-        <v>3389</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>3390</v>
+        <v>3414</v>
       </c>
       <c r="B52" t="s">
         <v>167</v>
       </c>
       <c r="C52" t="s">
-        <v>3391</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>3392</v>
+        <v>3416</v>
       </c>
       <c r="B53" t="s">
         <v>167</v>
       </c>
       <c r="C53" t="s">
-        <v>3393</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>3394</v>
+        <v>3418</v>
       </c>
       <c r="B54" t="s">
         <v>167</v>
       </c>
       <c r="C54" t="s">
-        <v>3395</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>3396</v>
+        <v>3420</v>
       </c>
       <c r="B55" t="s">
         <v>167</v>
       </c>
       <c r="C55" t="s">
-        <v>3397</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>3398</v>
+        <v>3422</v>
       </c>
       <c r="B56" t="s">
         <v>167</v>
       </c>
       <c r="C56" t="s">
-        <v>3399</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>3400</v>
+        <v>3424</v>
       </c>
       <c r="B57" t="s">
         <v>167</v>
       </c>
       <c r="C57" t="s">
-        <v>3401</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>3402</v>
+        <v>3426</v>
       </c>
       <c r="B58" t="s">
         <v>167</v>
       </c>
       <c r="C58" t="s">
-        <v>3403</v>
+        <v>3427</v>
       </c>
       <c r="D58" t="s">
         <v>60</v>
@@ -31714,13 +31901,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>3404</v>
+        <v>3428</v>
       </c>
       <c r="B59" t="s">
         <v>167</v>
       </c>
       <c r="C59" t="s">
-        <v>3405</v>
+        <v>3429</v>
       </c>
       <c r="D59" t="s">
         <v>60</v>
@@ -31728,7 +31915,7 @@
     </row>
     <row r="60" ht="18.75" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>3406</v>
+        <v>3430</v>
       </c>
       <c r="B60" t="s">
         <v>167</v>
@@ -31742,18 +31929,18 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>3407</v>
+        <v>3431</v>
       </c>
       <c r="B61" t="s">
         <v>167</v>
       </c>
       <c r="C61" t="s">
-        <v>3408</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>3409</v>
+        <v>3433</v>
       </c>
       <c r="B62" t="s">
         <v>167</v>

--- a/編碼修改記錄.xlsx
+++ b/編碼修改記錄.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5137">
   <si>
     <t>汉字</t>
   </si>
@@ -9550,7 +9550,7 @@
     <t>ehjj</t>
   </si>
   <si>
-    <t>ehkj</t>
+    <t>誤</t>
   </si>
   <si>
     <t>A區開始</t>
@@ -13592,6 +13592,21 @@
   </si>
   <si>
     <t>lgf</t>
+  </si>
+  <si>
+    <t>㡮</t>
+  </si>
+  <si>
+    <t>vkomn</t>
+  </si>
+  <si>
+    <t>䕈</t>
+  </si>
+  <si>
+    <t>tlld</t>
+  </si>
+  <si>
+    <t>tlnd</t>
   </si>
   <si>
     <t>是否重碼</t>
@@ -15423,8 +15438,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -15444,14 +15459,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15473,31 +15489,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15507,37 +15522,6 @@
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -15557,7 +15541,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15572,16 +15556,47 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15596,13 +15611,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15620,49 +15665,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15680,7 +15695,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15692,25 +15761,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15722,61 +15785,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15790,11 +15805,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15838,26 +15879,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -15873,17 +15894,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15895,10 +15910,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -15907,16 +15922,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -15925,115 +15940,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -17937,8 +17952,8 @@
   <sheetPr/>
   <dimension ref="A2:L2334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1487" workbookViewId="0">
-      <selection activeCell="C1506" sqref="C1506"/>
+    <sheetView tabSelected="1" topLeftCell="A1554" workbookViewId="0">
+      <selection activeCell="A1506" sqref="A1506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -35272,7 +35287,7 @@
         <v>3173</v>
       </c>
     </row>
-    <row r="1504" spans="1:3">
+    <row r="1504" spans="1:4">
       <c r="A1504" t="s">
         <v>2647</v>
       </c>
@@ -35281,6 +35296,9 @@
       </c>
       <c r="C1504" t="s">
         <v>3174</v>
+      </c>
+      <c r="D1504" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="1505" spans="1:3">
@@ -35294,15 +35312,18 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="1506" spans="1:3">
+    <row r="1506" spans="1:4">
       <c r="A1506" t="s">
-        <v>2647</v>
+        <v>3176</v>
       </c>
       <c r="B1506" t="s">
         <v>358</v>
       </c>
       <c r="C1506" t="s">
-        <v>3176</v>
+        <v>2775</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="1507" spans="2:2">
@@ -44062,19 +44083,43 @@
         <v>4523</v>
       </c>
     </row>
-    <row r="2327" spans="2:2">
+    <row r="2327" spans="1:3">
+      <c r="A2327" t="s">
+        <v>4524</v>
+      </c>
       <c r="B2327" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="2328" spans="2:2">
+      <c r="C2327" t="s">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:4">
+      <c r="A2328" t="s">
+        <v>4526</v>
+      </c>
       <c r="B2328" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="2329" spans="2:2">
+      <c r="C2328" t="s">
+        <v>4527</v>
+      </c>
+      <c r="D2328" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:4">
+      <c r="A2329" t="s">
+        <v>4526</v>
+      </c>
       <c r="B2329" t="s">
         <v>358</v>
+      </c>
+      <c r="C2329" t="s">
+        <v>4528</v>
+      </c>
+      <c r="D2329" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2330" spans="2:2">
@@ -44122,30 +44167,30 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>4524</v>
+        <v>4529</v>
       </c>
       <c r="C1" t="s">
-        <v>4525</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>4526</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>4527</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>4528</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>4529</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -44155,72 +44200,72 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>4530</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>4531</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>4532</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>4533</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>4534</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>4535</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>4536</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>4537</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>4538</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>4539</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>4540</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>4541</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>4542</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>4543</v>
+        <v>4548</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
@@ -44228,62 +44273,62 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>4544</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>4545</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>4546</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>4547</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>4548</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>4549</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>4550</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>4551</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>4552</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>4553</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>4554</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>4555</v>
+        <v>4560</v>
       </c>
       <c r="B32" t="s">
         <v>60</v>
@@ -44291,32 +44336,32 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>4556</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>4557</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>4558</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>4559</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>4560</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>4561</v>
+        <v>4566</v>
       </c>
       <c r="B38" t="s">
         <v>60</v>
@@ -44324,7 +44369,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>4562</v>
+        <v>4567</v>
       </c>
       <c r="B39" t="s">
         <v>60</v>
@@ -44332,77 +44377,77 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>4563</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>4564</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>4565</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>4566</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>4567</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>4568</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>4569</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>4570</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>4571</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>4572</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>4573</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>4574</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>4575</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>4576</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>4577</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -44412,57 +44457,57 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>4578</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>4579</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>4580</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>4581</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>4582</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>4583</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>4584</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>4585</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>4586</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>4587</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>4588</v>
+        <v>4593</v>
       </c>
       <c r="B66" t="s">
         <v>60</v>
@@ -44470,27 +44515,27 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>4589</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>4590</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>4591</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>4592</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>4593</v>
+        <v>4598</v>
       </c>
       <c r="B71" t="s">
         <v>64</v>
@@ -44498,32 +44543,32 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>4594</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>4595</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>4596</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>4597</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>4598</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>4599</v>
+        <v>4604</v>
       </c>
       <c r="B77" t="s">
         <v>60</v>
@@ -44531,27 +44576,27 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>4600</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>4601</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>4602</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>4603</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>4604</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -44574,7 +44619,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>4605</v>
+        <v>4610</v>
       </c>
       <c r="B86" t="s">
         <v>60</v>
@@ -44597,7 +44642,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>4606</v>
+        <v>4611</v>
       </c>
       <c r="B90" t="s">
         <v>60</v>
@@ -44605,7 +44650,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>4607</v>
+        <v>4612</v>
       </c>
       <c r="B91" t="s">
         <v>60</v>
@@ -44613,95 +44658,95 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>4608</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>4609</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>4610</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>4611</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>4612</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>4613</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>4614</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>4615</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>4616</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>4617</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>4618</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>4619</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>4620</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>4621</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>4622</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>4623</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>4624</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>4625</v>
+        <v>4630</v>
       </c>
       <c r="B109" t="s">
-        <v>4626</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="110" spans="1:1">
@@ -44711,27 +44756,27 @@
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>4627</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>4628</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>4629</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>4630</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>4631</v>
+        <v>4636</v>
       </c>
       <c r="B115" t="s">
         <v>60</v>
@@ -44739,22 +44784,22 @@
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>4632</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>4633</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>4634</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>4635</v>
+        <v>4640</v>
       </c>
       <c r="B119" t="s">
         <v>64</v>
@@ -44762,7 +44807,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>4636</v>
+        <v>4641</v>
       </c>
       <c r="B120" t="s">
         <v>60</v>
@@ -44770,107 +44815,107 @@
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>4637</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>4638</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>4639</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>4640</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>4641</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>4642</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>4643</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>4644</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>4645</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>4646</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>4647</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>4648</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>4649</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>4650</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>4651</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>4652</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>4653</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>4654</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>4655</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>4656</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>4657</v>
+        <v>4662</v>
       </c>
       <c r="B141" t="s">
         <v>60</v>
@@ -44878,12 +44923,12 @@
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>4658</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>4659</v>
+        <v>4664</v>
       </c>
       <c r="B143" t="s">
         <v>2037</v>
@@ -44891,7 +44936,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>4660</v>
+        <v>4665</v>
       </c>
       <c r="B144" t="s">
         <v>60</v>
@@ -44899,47 +44944,47 @@
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>4661</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>4662</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>4663</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>4664</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>4665</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>4666</v>
+        <v>4671</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>4667</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>4668</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>4669</v>
+        <v>4674</v>
       </c>
       <c r="B153" t="s">
         <v>60</v>
@@ -44947,17 +44992,17 @@
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>4670</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>4671</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>4672</v>
+        <v>4677</v>
       </c>
       <c r="B156" t="s">
         <v>64</v>
@@ -44965,42 +45010,42 @@
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>4673</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>4674</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>4675</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>4676</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>4677</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>4678</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>4679</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>4680</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="165" spans="1:1">
@@ -45010,7 +45055,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>4681</v>
+        <v>4686</v>
       </c>
       <c r="B166" t="s">
         <v>60</v>
@@ -45018,37 +45063,37 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>4682</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>4683</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>4684</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>4685</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>4686</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>4687</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>4688</v>
+        <v>4693</v>
       </c>
     </row>
     <row r="174" spans="1:1">
@@ -45058,17 +45103,17 @@
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>4689</v>
+        <v>4694</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>4690</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>4691</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="178" spans="1:1">
@@ -45078,12 +45123,12 @@
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>4692</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>4693</v>
+        <v>4698</v>
       </c>
       <c r="B180" t="s">
         <v>64</v>
@@ -45091,12 +45136,12 @@
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>4694</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>4695</v>
+        <v>4700</v>
       </c>
       <c r="B182" t="s">
         <v>60</v>
@@ -45104,30 +45149,30 @@
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>4696</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>4697</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>4698</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>4699</v>
+        <v>4704</v>
       </c>
       <c r="B186" t="s">
-        <v>4700</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>4701</v>
+        <v>4706</v>
       </c>
       <c r="B187" t="s">
         <v>64</v>
@@ -45135,52 +45180,52 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>4702</v>
+        <v>4707</v>
       </c>
       <c r="B188" t="s">
-        <v>4703</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>4704</v>
+        <v>4709</v>
       </c>
       <c r="B189" t="s">
-        <v>4705</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>4706</v>
+        <v>4711</v>
       </c>
       <c r="B190" t="s">
-        <v>4703</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>4707</v>
+        <v>4712</v>
       </c>
       <c r="B191" t="s">
-        <v>4708</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>4709</v>
+        <v>4714</v>
       </c>
       <c r="B192" t="s">
-        <v>4710</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>4711</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>4712</v>
+        <v>4717</v>
       </c>
       <c r="B194" t="s">
         <v>60</v>
@@ -45188,23 +45233,23 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
+        <v>4718</v>
+      </c>
+      <c r="B195" t="s">
         <v>4713</v>
-      </c>
-      <c r="B195" t="s">
-        <v>4708</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>4714</v>
+        <v>4719</v>
       </c>
       <c r="B196" t="s">
-        <v>4708</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>4715</v>
+        <v>4720</v>
       </c>
       <c r="B197" t="s">
         <v>60</v>
@@ -45212,25 +45257,25 @@
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>4716</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>4717</v>
+        <v>4722</v>
       </c>
       <c r="B199" t="s">
-        <v>4718</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>4719</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>4720</v>
+        <v>4725</v>
       </c>
       <c r="B201" t="s">
         <v>64</v>
@@ -45238,55 +45283,55 @@
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>4721</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>4722</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>4723</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>4724</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>4725</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>4726</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>4727</v>
+        <v>4732</v>
       </c>
       <c r="B208" t="s">
-        <v>4728</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>4729</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>4730</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>4731</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -45299,17 +45344,17 @@
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>4732</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>4733</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>4734</v>
+        <v>4739</v>
       </c>
       <c r="B215" t="s">
         <v>64</v>
@@ -45317,27 +45362,27 @@
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>4735</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>4736</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>4737</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>4738</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>4739</v>
+        <v>4744</v>
       </c>
       <c r="B220" t="s">
         <v>64</v>
@@ -45345,87 +45390,87 @@
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>4740</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>4741</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>4742</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>4743</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>4744</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>4745</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>4746</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>4747</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>4748</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>4749</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>4750</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>4751</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>4752</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>4753</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>4754</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>4755</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>4756</v>
+        <v>4761</v>
       </c>
       <c r="B237" t="s">
         <v>187</v>
@@ -45433,21 +45478,21 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>4757</v>
+        <v>4762</v>
       </c>
       <c r="B238" t="s">
         <v>1420</v>
       </c>
       <c r="C238" t="s">
-        <v>4758</v>
+        <v>4763</v>
       </c>
       <c r="D238" t="s">
-        <v>4759</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>4760</v>
+        <v>4765</v>
       </c>
       <c r="B239" t="s">
         <v>60</v>
@@ -45455,32 +45500,32 @@
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>4761</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>4762</v>
+        <v>4767</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>4763</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>4764</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>4765</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>4766</v>
+        <v>4771</v>
       </c>
       <c r="B245" t="s">
         <v>64</v>
@@ -45488,7 +45533,7 @@
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>4767</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="247" spans="1:1">
@@ -45498,12 +45543,12 @@
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>4768</v>
+        <v>4773</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>4769</v>
+        <v>4774</v>
       </c>
       <c r="B249" t="s">
         <v>64</v>
@@ -45511,7 +45556,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>4770</v>
+        <v>4775</v>
       </c>
       <c r="B250" t="s">
         <v>60</v>
@@ -45519,17 +45564,17 @@
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>4771</v>
+        <v>4776</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>4772</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>4773</v>
+        <v>4778</v>
       </c>
       <c r="B253" t="s">
         <v>60</v>
@@ -45537,7 +45582,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>4774</v>
+        <v>4779</v>
       </c>
       <c r="B254" t="s">
         <v>2037</v>
@@ -45545,22 +45590,22 @@
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>4775</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>4776</v>
+        <v>4781</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>4777</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>4778</v>
+        <v>4783</v>
       </c>
       <c r="B258" t="s">
         <v>137</v>
@@ -45568,7 +45613,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>4779</v>
+        <v>4784</v>
       </c>
       <c r="B259" t="s">
         <v>64</v>
@@ -45576,7 +45621,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>4780</v>
+        <v>4785</v>
       </c>
       <c r="B260" t="s">
         <v>137</v>
@@ -45584,27 +45629,27 @@
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>4781</v>
+        <v>4786</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>4782</v>
+        <v>4787</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>4783</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>4784</v>
+        <v>4789</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>4785</v>
+        <v>4790</v>
       </c>
       <c r="B265" t="s">
         <v>64</v>
@@ -45612,7 +45657,7 @@
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>4786</v>
+        <v>4791</v>
       </c>
     </row>
     <row r="267" spans="1:1">
@@ -45622,17 +45667,17 @@
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>4787</v>
+        <v>4792</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>4788</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>4789</v>
+        <v>4794</v>
       </c>
       <c r="B270" t="s">
         <v>60</v>
@@ -45640,32 +45685,32 @@
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>4790</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>4791</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>4792</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>4793</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>4794</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>4795</v>
+        <v>4800</v>
       </c>
       <c r="B276" t="s">
         <v>2037</v>
@@ -45673,28 +45718,28 @@
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>4796</v>
+        <v>4801</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>4797</v>
+        <v>4802</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>4798</v>
+        <v>4803</v>
       </c>
       <c r="B279" t="s">
         <v>60</v>
       </c>
       <c r="C279" t="s">
-        <v>4799</v>
+        <v>4804</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>4800</v>
+        <v>4805</v>
       </c>
     </row>
     <row r="281" spans="1:1">
@@ -45709,7 +45754,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>4801</v>
+        <v>4806</v>
       </c>
       <c r="B283" t="s">
         <v>60</v>
@@ -45756,12 +45801,12 @@
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>4802</v>
+        <v>4807</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>4803</v>
+        <v>4808</v>
       </c>
       <c r="B291" t="s">
         <v>60</v>
@@ -45769,27 +45814,27 @@
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>4804</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>4805</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>4806</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>4807</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>4808</v>
+        <v>4813</v>
       </c>
       <c r="B296" t="s">
         <v>64</v>
@@ -45797,35 +45842,35 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>4809</v>
+        <v>4814</v>
       </c>
       <c r="B297" t="s">
-        <v>4810</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>4811</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>4812</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>4813</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>4814</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>4815</v>
+        <v>4820</v>
       </c>
       <c r="B302" t="s">
         <v>137</v>
@@ -45833,7 +45878,7 @@
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>4816</v>
+        <v>4821</v>
       </c>
     </row>
     <row r="304" spans="1:1">
@@ -45843,12 +45888,12 @@
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>4817</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>4818</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="307" spans="1:1">
@@ -45858,12 +45903,12 @@
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>4819</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>4820</v>
+        <v>4825</v>
       </c>
       <c r="B309" t="s">
         <v>64</v>
@@ -45871,7 +45916,7 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>4821</v>
+        <v>4826</v>
       </c>
       <c r="B310" t="s">
         <v>137</v>
@@ -45887,12 +45932,12 @@
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>4822</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>4823</v>
+        <v>4828</v>
       </c>
       <c r="B313" t="s">
         <v>64</v>
@@ -45905,7 +45950,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>4824</v>
+        <v>4829</v>
       </c>
       <c r="B315" t="s">
         <v>137</v>
@@ -45913,27 +45958,27 @@
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>4825</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>4826</v>
+        <v>4831</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>4827</v>
+        <v>4832</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>4828</v>
+        <v>4833</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>4829</v>
+        <v>4834</v>
       </c>
       <c r="B320" t="s">
         <v>60</v>
@@ -45941,7 +45986,7 @@
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>4830</v>
+        <v>4835</v>
       </c>
     </row>
     <row r="322" spans="1:1">
@@ -45951,57 +45996,57 @@
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>4831</v>
+        <v>4836</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>4832</v>
+        <v>4837</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>4833</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>4834</v>
+        <v>4839</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>4835</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>4836</v>
+        <v>4841</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>4837</v>
+        <v>4842</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>4838</v>
+        <v>4843</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>4839</v>
+        <v>4844</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>4840</v>
+        <v>4845</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>4841</v>
+        <v>4846</v>
       </c>
       <c r="B333" t="s">
         <v>64</v>
@@ -46009,7 +46054,7 @@
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>4842</v>
+        <v>4847</v>
       </c>
     </row>
     <row r="335" spans="1:1">
@@ -46029,12 +46074,12 @@
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>4843</v>
+        <v>4848</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>4844</v>
+        <v>4849</v>
       </c>
       <c r="B339" t="s">
         <v>3505</v>
@@ -46042,7 +46087,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>4845</v>
+        <v>4850</v>
       </c>
       <c r="B340" t="s">
         <v>187</v>
@@ -46050,12 +46095,12 @@
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>4846</v>
+        <v>4851</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>4847</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="343" spans="1:1">
@@ -46065,7 +46110,7 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
-        <v>4848</v>
+        <v>4853</v>
       </c>
       <c r="B344" t="s">
         <v>64</v>
@@ -46073,37 +46118,37 @@
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>4849</v>
+        <v>4854</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>4850</v>
+        <v>4855</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>4851</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>4852</v>
+        <v>4857</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>4853</v>
+        <v>4858</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>4854</v>
+        <v>4859</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="s">
-        <v>4855</v>
+        <v>4860</v>
       </c>
       <c r="B351" t="s">
         <v>60</v>
@@ -46111,27 +46156,27 @@
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>4856</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>4857</v>
+        <v>4862</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>4858</v>
+        <v>4863</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>4859</v>
+        <v>4864</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
-        <v>4860</v>
+        <v>4865</v>
       </c>
       <c r="B356" t="s">
         <v>137</v>
@@ -46139,7 +46184,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
-        <v>4861</v>
+        <v>4866</v>
       </c>
       <c r="B357" t="s">
         <v>137</v>
@@ -46152,32 +46197,32 @@
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>4862</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>4863</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>4864</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>4865</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>4866</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>4867</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="365" spans="1:1">
@@ -46187,7 +46232,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>4868</v>
+        <v>4873</v>
       </c>
       <c r="B366" t="s">
         <v>64</v>
@@ -46195,7 +46240,7 @@
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>4869</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -46208,12 +46253,12 @@
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>4870</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" t="s">
-        <v>4871</v>
+        <v>4876</v>
       </c>
       <c r="B370" t="s">
         <v>64</v>
@@ -46221,17 +46266,17 @@
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>4872</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>4873</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
-        <v>4874</v>
+        <v>4879</v>
       </c>
       <c r="B373" t="s">
         <v>137</v>
@@ -46247,7 +46292,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>4875</v>
+        <v>4880</v>
       </c>
       <c r="B375" t="s">
         <v>60</v>
@@ -46255,22 +46300,22 @@
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>4876</v>
+        <v>4881</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>4877</v>
+        <v>4882</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>4878</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>4879</v>
+        <v>4884</v>
       </c>
       <c r="B379" t="s">
         <v>64</v>
@@ -46278,7 +46323,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
-        <v>4880</v>
+        <v>4885</v>
       </c>
       <c r="B380" t="s">
         <v>60</v>
@@ -46286,12 +46331,12 @@
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>4881</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>4882</v>
+        <v>4887</v>
       </c>
       <c r="B382" t="s">
         <v>137</v>
@@ -46299,7 +46344,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>4883</v>
+        <v>4888</v>
       </c>
       <c r="B383" t="s">
         <v>60</v>
@@ -46307,27 +46352,27 @@
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>4884</v>
+        <v>4889</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>4885</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>4886</v>
+        <v>4891</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>4887</v>
+        <v>4892</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>4888</v>
+        <v>4893</v>
       </c>
       <c r="B388" t="s">
         <v>137</v>
@@ -46335,37 +46380,37 @@
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>4889</v>
+        <v>4894</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>4890</v>
+        <v>4895</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>4891</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>4892</v>
+        <v>4897</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>4893</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>4894</v>
+        <v>4899</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>4895</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -46378,22 +46423,22 @@
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>4896</v>
+        <v>4901</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>4897</v>
+        <v>4902</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>4898</v>
+        <v>4903</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>4899</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -46406,7 +46451,7 @@
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>4900</v>
+        <v>4905</v>
       </c>
       <c r="B402" t="s">
         <v>60</v>
@@ -46414,27 +46459,27 @@
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>4901</v>
+        <v>4906</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>4902</v>
+        <v>4907</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>4903</v>
+        <v>4908</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>4904</v>
+        <v>4909</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>4905</v>
+        <v>4910</v>
       </c>
       <c r="B407" t="s">
         <v>60</v>
@@ -46442,7 +46487,7 @@
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>4906</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="409" spans="1:1">
@@ -46457,12 +46502,12 @@
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>4907</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>4908</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -46475,17 +46520,17 @@
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>4909</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>4910</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>4911</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="417" spans="1:1">
@@ -46503,17 +46548,17 @@
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>4912</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>4913</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" t="s">
-        <v>4914</v>
+        <v>4919</v>
       </c>
       <c r="B421" t="s">
         <v>60</v>
@@ -46521,7 +46566,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
-        <v>4915</v>
+        <v>4920</v>
       </c>
       <c r="B422" t="s">
         <v>64</v>
@@ -46546,381 +46591,381 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>4916</v>
+        <v>4921</v>
       </c>
       <c r="C1" t="s">
-        <v>4917</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>4918</v>
+        <v>4923</v>
       </c>
       <c r="B2" t="s">
-        <v>4919</v>
+        <v>4924</v>
       </c>
       <c r="C2" t="s">
-        <v>4920</v>
+        <v>4925</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>4921</v>
+        <v>4926</v>
       </c>
       <c r="C3" t="s">
-        <v>4922</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>4923</v>
+        <v>4928</v>
       </c>
       <c r="C4" t="s">
-        <v>4924</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>4925</v>
+        <v>4930</v>
       </c>
       <c r="C5" t="s">
-        <v>4926</v>
+        <v>4931</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>4927</v>
+        <v>4932</v>
       </c>
       <c r="C6" t="s">
-        <v>4928</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>4929</v>
+        <v>4934</v>
       </c>
       <c r="C7" t="s">
-        <v>4930</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>4931</v>
+        <v>4936</v>
       </c>
       <c r="C8" t="s">
-        <v>4932</v>
+        <v>4937</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>4933</v>
+        <v>4938</v>
       </c>
       <c r="C9" t="s">
-        <v>4934</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>4935</v>
+        <v>4940</v>
       </c>
       <c r="C10" t="s">
-        <v>4936</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>4937</v>
+        <v>4942</v>
       </c>
       <c r="C11" t="s">
-        <v>4938</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>4939</v>
+        <v>4944</v>
       </c>
       <c r="C12" t="s">
-        <v>4940</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>4941</v>
+        <v>4946</v>
       </c>
       <c r="C13" t="s">
-        <v>4942</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>4943</v>
+        <v>4948</v>
       </c>
       <c r="C14" t="s">
-        <v>4944</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>4945</v>
+        <v>4950</v>
       </c>
       <c r="C15" t="s">
-        <v>4946</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>4947</v>
+        <v>4952</v>
       </c>
       <c r="C16" t="s">
-        <v>4946</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>4948</v>
+        <v>4953</v>
       </c>
       <c r="C17" t="s">
-        <v>4949</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>4950</v>
+        <v>4955</v>
       </c>
       <c r="C18" t="s">
-        <v>4951</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>4952</v>
+        <v>4957</v>
       </c>
       <c r="C19" t="s">
-        <v>4953</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>4954</v>
+        <v>4959</v>
       </c>
       <c r="C20" t="s">
-        <v>4955</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>4956</v>
+        <v>4961</v>
       </c>
       <c r="C21" t="s">
-        <v>4957</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>4958</v>
+        <v>4963</v>
       </c>
       <c r="C22" t="s">
-        <v>4959</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>4960</v>
+        <v>4965</v>
       </c>
       <c r="C23" t="s">
-        <v>4961</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>4962</v>
+        <v>4967</v>
       </c>
       <c r="C24" t="s">
-        <v>4963</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>4964</v>
+        <v>4969</v>
       </c>
       <c r="C25" t="s">
-        <v>4965</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>4966</v>
+        <v>4971</v>
       </c>
       <c r="C26" t="s">
-        <v>4967</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>4968</v>
+        <v>4973</v>
       </c>
       <c r="C27" t="s">
-        <v>4969</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>4970</v>
+        <v>4975</v>
       </c>
       <c r="C28" t="s">
-        <v>4971</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>4972</v>
+        <v>4977</v>
       </c>
       <c r="C29" t="s">
-        <v>4973</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>4974</v>
+        <v>4979</v>
       </c>
       <c r="C30" t="s">
-        <v>4975</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>4976</v>
+        <v>4981</v>
       </c>
       <c r="C31" t="s">
-        <v>4977</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>4978</v>
+        <v>4983</v>
       </c>
       <c r="C32" t="s">
-        <v>4979</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>4980</v>
+        <v>4985</v>
       </c>
       <c r="C33" t="s">
-        <v>4981</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>4982</v>
+        <v>4987</v>
       </c>
       <c r="C34" t="s">
-        <v>4983</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>4984</v>
+        <v>4989</v>
       </c>
       <c r="C35" t="s">
-        <v>4985</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>4986</v>
+        <v>4991</v>
       </c>
       <c r="C36" t="s">
-        <v>4987</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>4988</v>
+        <v>4993</v>
       </c>
       <c r="C37" t="s">
-        <v>4989</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>4990</v>
+        <v>4995</v>
       </c>
       <c r="C38" t="s">
-        <v>4991</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>4992</v>
+        <v>4997</v>
       </c>
       <c r="C39" t="s">
-        <v>4993</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>4994</v>
+        <v>4999</v>
       </c>
       <c r="C40" t="s">
-        <v>4995</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>4996</v>
+        <v>5001</v>
       </c>
       <c r="C41" t="s">
-        <v>4997</v>
+        <v>5002</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>4998</v>
+        <v>5003</v>
       </c>
       <c r="C42" t="s">
-        <v>4999</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>5000</v>
+        <v>5005</v>
       </c>
       <c r="C43" t="s">
-        <v>5001</v>
+        <v>5006</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>5002</v>
+        <v>5007</v>
       </c>
       <c r="C44" t="s">
-        <v>5003</v>
+        <v>5008</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
-        <v>5004</v>
+        <v>5009</v>
       </c>
       <c r="C45" t="s">
-        <v>5005</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>5006</v>
+        <v>5011</v>
       </c>
       <c r="C46" t="s">
-        <v>5007</v>
+        <v>5012</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" t="s">
-        <v>5008</v>
+        <v>5013</v>
       </c>
       <c r="C47" t="s">
-        <v>5009</v>
+        <v>5014</v>
       </c>
     </row>
   </sheetData>
@@ -46942,10 +46987,10 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>5010</v>
+        <v>5015</v>
       </c>
       <c r="C1" t="s">
-        <v>5011</v>
+        <v>5016</v>
       </c>
     </row>
   </sheetData>
@@ -46967,7 +47012,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>5012</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -47004,112 +47049,112 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>5013</v>
+        <v>5018</v>
       </c>
       <c r="C1" t="s">
-        <v>5014</v>
+        <v>5019</v>
       </c>
       <c r="D1" t="s">
-        <v>5015</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5016</v>
+        <v>5021</v>
       </c>
       <c r="B2" t="s">
         <v>358</v>
       </c>
       <c r="C2" t="s">
-        <v>5017</v>
+        <v>5022</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5018</v>
+        <v>5023</v>
       </c>
       <c r="B3" t="s">
         <v>358</v>
       </c>
       <c r="C3" t="s">
-        <v>5019</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5020</v>
+        <v>5025</v>
       </c>
       <c r="B4" t="s">
         <v>358</v>
       </c>
       <c r="C4" t="s">
-        <v>5021</v>
+        <v>5026</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5022</v>
+        <v>5027</v>
       </c>
       <c r="B5" t="s">
         <v>358</v>
       </c>
       <c r="C5" t="s">
-        <v>5023</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5024</v>
+        <v>5029</v>
       </c>
       <c r="B6" t="s">
         <v>358</v>
       </c>
       <c r="C6" t="s">
-        <v>5025</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>5026</v>
+        <v>5031</v>
       </c>
       <c r="B7" t="s">
         <v>358</v>
       </c>
       <c r="C7" t="s">
-        <v>5027</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>5028</v>
+        <v>5033</v>
       </c>
       <c r="B8" t="s">
         <v>358</v>
       </c>
       <c r="C8" t="s">
-        <v>5029</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>5030</v>
+        <v>5035</v>
       </c>
       <c r="B9" t="s">
         <v>358</v>
       </c>
       <c r="C9" t="s">
-        <v>5031</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>5032</v>
+        <v>5037</v>
       </c>
       <c r="B10" t="s">
         <v>358</v>
       </c>
       <c r="C10" t="s">
-        <v>5033</v>
+        <v>5038</v>
       </c>
       <c r="D10" t="s">
         <v>60</v>
@@ -47117,101 +47162,101 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>5034</v>
+        <v>5039</v>
       </c>
       <c r="B11" t="s">
         <v>358</v>
       </c>
       <c r="C11" t="s">
-        <v>5035</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>5036</v>
+        <v>5041</v>
       </c>
       <c r="B12" t="s">
         <v>358</v>
       </c>
       <c r="C12" t="s">
-        <v>5037</v>
+        <v>5042</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>5038</v>
+        <v>5043</v>
       </c>
       <c r="B13" t="s">
         <v>358</v>
       </c>
       <c r="C13" t="s">
-        <v>5039</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>5040</v>
+        <v>5045</v>
       </c>
       <c r="B14" t="s">
         <v>358</v>
       </c>
       <c r="C14" t="s">
-        <v>5041</v>
+        <v>5046</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>5042</v>
+        <v>5047</v>
       </c>
       <c r="B15" t="s">
         <v>358</v>
       </c>
       <c r="C15" t="s">
-        <v>5043</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>5044</v>
+        <v>5049</v>
       </c>
       <c r="B16" t="s">
         <v>358</v>
       </c>
       <c r="C16" t="s">
-        <v>5045</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>5046</v>
+        <v>5051</v>
       </c>
       <c r="B17" t="s">
         <v>358</v>
       </c>
       <c r="C17" t="s">
-        <v>5047</v>
+        <v>5052</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>5048</v>
+        <v>5053</v>
       </c>
       <c r="B18" t="s">
         <v>358</v>
       </c>
       <c r="C18" t="s">
-        <v>5049</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>5050</v>
+        <v>5055</v>
       </c>
       <c r="B19" t="s">
         <v>358</v>
       </c>
       <c r="C19" t="s">
-        <v>5051</v>
+        <v>5056</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -47222,7 +47267,7 @@
         <v>358</v>
       </c>
       <c r="C20" t="s">
-        <v>5052</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -47233,62 +47278,62 @@
         <v>358</v>
       </c>
       <c r="C21" t="s">
-        <v>5053</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>5054</v>
+        <v>5059</v>
       </c>
       <c r="B22" t="s">
         <v>358</v>
       </c>
       <c r="C22" t="s">
-        <v>5055</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>5056</v>
+        <v>5061</v>
       </c>
       <c r="B23" t="s">
         <v>358</v>
       </c>
       <c r="C23" t="s">
-        <v>5057</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>5058</v>
+        <v>5063</v>
       </c>
       <c r="B24" t="s">
         <v>358</v>
       </c>
       <c r="C24" t="s">
-        <v>5059</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>5060</v>
+        <v>5065</v>
       </c>
       <c r="B25" t="s">
         <v>358</v>
       </c>
       <c r="C25" t="s">
-        <v>5061</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>5062</v>
+        <v>5067</v>
       </c>
       <c r="B26" t="s">
         <v>358</v>
       </c>
       <c r="C26" t="s">
-        <v>5063</v>
+        <v>5068</v>
       </c>
       <c r="D26" t="s">
         <v>60</v>
@@ -47296,35 +47341,35 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>5064</v>
+        <v>5069</v>
       </c>
       <c r="B27" t="s">
         <v>358</v>
       </c>
       <c r="C27" t="s">
-        <v>5065</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>5066</v>
+        <v>5071</v>
       </c>
       <c r="B28" t="s">
         <v>358</v>
       </c>
       <c r="C28" t="s">
-        <v>5067</v>
+        <v>5072</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>5068</v>
+        <v>5073</v>
       </c>
       <c r="B29" t="s">
         <v>358</v>
       </c>
       <c r="C29" t="s">
-        <v>5069</v>
+        <v>5074</v>
       </c>
       <c r="D29" t="s">
         <v>60</v>
@@ -47332,68 +47377,68 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>5070</v>
+        <v>5075</v>
       </c>
       <c r="B30" t="s">
         <v>358</v>
       </c>
       <c r="C30" t="s">
-        <v>5071</v>
+        <v>5076</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>5072</v>
+        <v>5077</v>
       </c>
       <c r="B31" t="s">
         <v>358</v>
       </c>
       <c r="C31" t="s">
-        <v>5073</v>
+        <v>5078</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>5074</v>
+        <v>5079</v>
       </c>
       <c r="B32" t="s">
         <v>358</v>
       </c>
       <c r="C32" t="s">
-        <v>5075</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>5076</v>
+        <v>5081</v>
       </c>
       <c r="B33" t="s">
         <v>358</v>
       </c>
       <c r="C33" t="s">
-        <v>5077</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>5078</v>
+        <v>5083</v>
       </c>
       <c r="B34" t="s">
         <v>358</v>
       </c>
       <c r="C34" t="s">
-        <v>5079</v>
+        <v>5084</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>5080</v>
+        <v>5085</v>
       </c>
       <c r="B35" t="s">
         <v>358</v>
       </c>
       <c r="C35" t="s">
-        <v>5081</v>
+        <v>5086</v>
       </c>
       <c r="D35" t="s">
         <v>60</v>
@@ -47401,57 +47446,57 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>5082</v>
+        <v>5087</v>
       </c>
       <c r="B36" t="s">
         <v>358</v>
       </c>
       <c r="C36" t="s">
-        <v>5083</v>
+        <v>5088</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>5084</v>
+        <v>5089</v>
       </c>
       <c r="B37" t="s">
         <v>358</v>
       </c>
       <c r="C37" t="s">
-        <v>5085</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>5086</v>
+        <v>5091</v>
       </c>
       <c r="B38" t="s">
         <v>358</v>
       </c>
       <c r="C38" t="s">
-        <v>5087</v>
+        <v>5092</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>5088</v>
+        <v>5093</v>
       </c>
       <c r="B39" t="s">
         <v>358</v>
       </c>
       <c r="C39" t="s">
-        <v>5089</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>5090</v>
+        <v>5095</v>
       </c>
       <c r="B40" t="s">
         <v>358</v>
       </c>
       <c r="C40" t="s">
-        <v>5091</v>
+        <v>5096</v>
       </c>
       <c r="D40" t="s">
         <v>60</v>
@@ -47459,13 +47504,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>5092</v>
+        <v>5097</v>
       </c>
       <c r="B41" t="s">
         <v>358</v>
       </c>
       <c r="C41" t="s">
-        <v>5091</v>
+        <v>5096</v>
       </c>
       <c r="D41" t="s">
         <v>187</v>
@@ -47473,68 +47518,68 @@
     </row>
     <row r="42" ht="18.75" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>5093</v>
+        <v>5098</v>
       </c>
       <c r="B42" t="s">
         <v>358</v>
       </c>
       <c r="C42" t="s">
-        <v>5094</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>5095</v>
+        <v>5100</v>
       </c>
       <c r="B43" t="s">
         <v>358</v>
       </c>
       <c r="C43" t="s">
-        <v>5096</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>5097</v>
+        <v>5102</v>
       </c>
       <c r="B44" t="s">
         <v>358</v>
       </c>
       <c r="C44" t="s">
-        <v>5098</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>5099</v>
+        <v>5104</v>
       </c>
       <c r="B45" t="s">
         <v>358</v>
       </c>
       <c r="C45" t="s">
-        <v>5100</v>
+        <v>5105</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>5101</v>
+        <v>5106</v>
       </c>
       <c r="B46" t="s">
         <v>358</v>
       </c>
       <c r="C46" t="s">
-        <v>5102</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>5103</v>
+        <v>5108</v>
       </c>
       <c r="B47" t="s">
         <v>358</v>
       </c>
       <c r="C47" t="s">
-        <v>5102</v>
+        <v>5107</v>
       </c>
       <c r="D47" t="s">
         <v>60</v>
@@ -47542,123 +47587,123 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>5104</v>
+        <v>5109</v>
       </c>
       <c r="B48" t="s">
         <v>358</v>
       </c>
       <c r="C48" t="s">
-        <v>5105</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>5106</v>
+        <v>5111</v>
       </c>
       <c r="B49" t="s">
         <v>358</v>
       </c>
       <c r="C49" t="s">
-        <v>5107</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>5108</v>
+        <v>5113</v>
       </c>
       <c r="B50" t="s">
         <v>358</v>
       </c>
       <c r="C50" t="s">
-        <v>5109</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>5110</v>
+        <v>5115</v>
       </c>
       <c r="B51" t="s">
         <v>358</v>
       </c>
       <c r="C51" t="s">
-        <v>5111</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>5112</v>
+        <v>5117</v>
       </c>
       <c r="B52" t="s">
         <v>358</v>
       </c>
       <c r="C52" t="s">
-        <v>5113</v>
+        <v>5118</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>5114</v>
+        <v>5119</v>
       </c>
       <c r="B53" t="s">
         <v>358</v>
       </c>
       <c r="C53" t="s">
-        <v>5115</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>5116</v>
+        <v>5121</v>
       </c>
       <c r="B54" t="s">
         <v>358</v>
       </c>
       <c r="C54" t="s">
-        <v>5117</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>5118</v>
+        <v>5123</v>
       </c>
       <c r="B55" t="s">
         <v>358</v>
       </c>
       <c r="C55" t="s">
-        <v>5119</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>5120</v>
+        <v>5125</v>
       </c>
       <c r="B56" t="s">
         <v>358</v>
       </c>
       <c r="C56" t="s">
-        <v>5121</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>5122</v>
+        <v>5127</v>
       </c>
       <c r="B57" t="s">
         <v>358</v>
       </c>
       <c r="C57" t="s">
-        <v>5123</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>5124</v>
+        <v>5129</v>
       </c>
       <c r="B58" t="s">
         <v>358</v>
       </c>
       <c r="C58" t="s">
-        <v>5125</v>
+        <v>5130</v>
       </c>
       <c r="D58" t="s">
         <v>60</v>
@@ -47666,13 +47711,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>5126</v>
+        <v>5131</v>
       </c>
       <c r="B59" t="s">
         <v>358</v>
       </c>
       <c r="C59" t="s">
-        <v>5127</v>
+        <v>5132</v>
       </c>
       <c r="D59" t="s">
         <v>60</v>
@@ -47680,7 +47725,7 @@
     </row>
     <row r="60" ht="18.75" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>5128</v>
+        <v>5133</v>
       </c>
       <c r="B60" t="s">
         <v>358</v>
@@ -47694,18 +47739,18 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>5129</v>
+        <v>5134</v>
       </c>
       <c r="B61" t="s">
         <v>358</v>
       </c>
       <c r="C61" t="s">
-        <v>5130</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>5131</v>
+        <v>5136</v>
       </c>
       <c r="B62" t="s">
         <v>358</v>
